--- a/SSP/Global_Carbon_Budget_2017v1.3.xlsx
+++ b/SSP/Global_Carbon_Budget_2017v1.3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Stuff\Julia\Modules\ClimateCalculator_new\RCP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD9155-ADDE-470A-A6C8-10ACC496C71A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" tabRatio="883" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="0" windowWidth="19880" windowHeight="15540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="10" r:id="rId1"/>
@@ -30,20 +24,20 @@
     <definedName name="_ENREF_74" localSheetId="4">'Ocean Sink'!#REF!</definedName>
     <definedName name="_ENREF_82" localSheetId="3">'Land-Use Change Emissions'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="159">
   <si>
     <t>Model results used to compute the annual values:</t>
   </si>
@@ -1042,7 +1036,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2474,7 +2468,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2958,7 +2952,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="947">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3907,7 +3900,7 @@
     <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -4266,20 +4259,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="204.875" style="99" customWidth="1"/>
+    <col min="1" max="1" width="204.83203125" style="99" customWidth="1"/>
     <col min="2" max="16384" width="11" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="50" customHeight="1">
       <c r="A1" s="88" t="s">
         <v>83</v>
       </c>
@@ -4336,7 +4329,7 @@
       <c r="AZ1" s="89"/>
       <c r="BA1" s="89"/>
     </row>
-    <row r="2" spans="1:53" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="100" customHeight="1">
       <c r="A2" s="153" t="s">
         <v>86</v>
       </c>
@@ -4393,7 +4386,7 @@
       <c r="AZ2" s="89"/>
       <c r="BA2" s="89"/>
     </row>
-    <row r="3" spans="1:53" s="91" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="91" customFormat="1" ht="25" customHeight="1">
       <c r="A3" s="89"/>
       <c r="B3" s="89"/>
       <c r="C3" s="89"/>
@@ -4448,7 +4441,7 @@
       <c r="AZ3" s="89"/>
       <c r="BA3" s="89"/>
     </row>
-    <row r="4" spans="1:53" s="91" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="91" customFormat="1" ht="90">
       <c r="A4" s="247" t="s">
         <v>156</v>
       </c>
@@ -4505,7 +4498,7 @@
       <c r="AZ4" s="89"/>
       <c r="BA4" s="89"/>
     </row>
-    <row r="5" spans="1:53" s="91" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" s="91" customFormat="1" ht="19" customHeight="1">
       <c r="A5" s="247" t="s">
         <v>142</v>
       </c>
@@ -4562,7 +4555,7 @@
       <c r="AZ5" s="89"/>
       <c r="BA5" s="89"/>
     </row>
-    <row r="6" spans="1:53" s="91" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" s="91" customFormat="1" ht="19" customHeight="1">
       <c r="A6" s="248" t="s">
         <v>151</v>
       </c>
@@ -4619,7 +4612,7 @@
       <c r="AZ6" s="89"/>
       <c r="BA6" s="89"/>
     </row>
-    <row r="7" spans="1:53" s="91" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" s="91" customFormat="1" ht="19" customHeight="1">
       <c r="A7" s="249" t="s">
         <v>152</v>
       </c>
@@ -4676,7 +4669,7 @@
       <c r="AZ7" s="89"/>
       <c r="BA7" s="89"/>
     </row>
-    <row r="8" spans="1:53" s="91" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" s="91" customFormat="1" ht="35" customHeight="1">
       <c r="A8" s="92" t="s">
         <v>84</v>
       </c>
@@ -4733,7 +4726,7 @@
       <c r="AZ8" s="89"/>
       <c r="BA8" s="89"/>
     </row>
-    <row r="9" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="93" t="s">
         <v>24</v>
       </c>
@@ -4790,7 +4783,7 @@
       <c r="AZ9" s="89"/>
       <c r="BA9" s="89"/>
     </row>
-    <row r="10" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="151" t="s">
         <v>85</v>
       </c>
@@ -4847,7 +4840,7 @@
       <c r="AZ10" s="89"/>
       <c r="BA10" s="89"/>
     </row>
-    <row r="11" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="94" t="s">
         <v>62</v>
       </c>
@@ -4904,7 +4897,7 @@
       <c r="AZ11" s="89"/>
       <c r="BA11" s="89"/>
     </row>
-    <row r="12" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="94" t="s">
         <v>64</v>
       </c>
@@ -4961,7 +4954,7 @@
       <c r="AZ12" s="89"/>
       <c r="BA12" s="89"/>
     </row>
-    <row r="13" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A13" s="94" t="s">
         <v>63</v>
       </c>
@@ -5018,7 +5011,7 @@
       <c r="AZ13" s="89"/>
       <c r="BA13" s="89"/>
     </row>
-    <row r="14" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A14" s="94" t="s">
         <v>57</v>
       </c>
@@ -5075,7 +5068,7 @@
       <c r="AZ14" s="89"/>
       <c r="BA14" s="89"/>
     </row>
-    <row r="15" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A15" s="94" t="s">
         <v>47</v>
       </c>
@@ -5132,7 +5125,7 @@
       <c r="AZ15" s="89"/>
       <c r="BA15" s="89"/>
     </row>
-    <row r="16" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A16" s="94" t="s">
         <v>48</v>
       </c>
@@ -5189,7 +5182,7 @@
       <c r="AZ16" s="89"/>
       <c r="BA16" s="89"/>
     </row>
-    <row r="17" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A17" s="94" t="s">
         <v>49</v>
       </c>
@@ -5246,7 +5239,7 @@
       <c r="AZ17" s="89"/>
       <c r="BA17" s="89"/>
     </row>
-    <row r="18" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A18" s="95" t="s">
         <v>46</v>
       </c>
@@ -5303,7 +5296,7 @@
       <c r="AZ18" s="89"/>
       <c r="BA18" s="89"/>
     </row>
-    <row r="19" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A19" s="94" t="s">
         <v>50</v>
       </c>
@@ -5360,7 +5353,7 @@
       <c r="AZ19" s="89"/>
       <c r="BA19" s="89"/>
     </row>
-    <row r="20" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="94" t="s">
         <v>51</v>
       </c>
@@ -5417,7 +5410,7 @@
       <c r="AZ20" s="89"/>
       <c r="BA20" s="89"/>
     </row>
-    <row r="21" spans="1:53" s="91" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:53" s="91" customFormat="1" ht="20" customHeight="1">
       <c r="A21" s="94" t="s">
         <v>52</v>
       </c>
@@ -5474,7 +5467,7 @@
       <c r="AZ21" s="89"/>
       <c r="BA21" s="89"/>
     </row>
-    <row r="22" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:53" ht="20" customHeight="1">
       <c r="A22" s="94" t="s">
         <v>53</v>
       </c>
@@ -5531,7 +5524,7 @@
       <c r="AZ22" s="89"/>
       <c r="BA22" s="89"/>
     </row>
-    <row r="23" spans="1:53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:53" ht="20" customHeight="1">
       <c r="A23" s="96"/>
       <c r="B23" s="89"/>
       <c r="C23" s="89"/>
@@ -5586,7 +5579,7 @@
       <c r="AZ23" s="89"/>
       <c r="BA23" s="89"/>
     </row>
-    <row r="24" spans="1:53" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:53" s="97" customFormat="1" ht="20" customHeight="1">
       <c r="A24" s="96" t="s">
         <v>11</v>
       </c>
@@ -5643,7 +5636,7 @@
       <c r="AZ24" s="89"/>
       <c r="BA24" s="89"/>
     </row>
-    <row r="25" spans="1:53" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:53" s="97" customFormat="1" ht="20" customHeight="1">
       <c r="A25" s="96"/>
       <c r="B25" s="89"/>
       <c r="C25" s="89"/>
@@ -5698,7 +5691,7 @@
       <c r="AZ25" s="89"/>
       <c r="BA25" s="89"/>
     </row>
-    <row r="26" spans="1:53" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:53" s="97" customFormat="1" ht="20" customHeight="1">
       <c r="A26" s="96" t="s">
         <v>153</v>
       </c>
@@ -5755,7 +5748,7 @@
       <c r="AZ26" s="89"/>
       <c r="BA26" s="89"/>
     </row>
-    <row r="27" spans="1:53" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:53" s="97" customFormat="1" ht="20" customHeight="1">
       <c r="A27" s="96" t="s">
         <v>154</v>
       </c>
@@ -5812,7 +5805,7 @@
       <c r="AZ27" s="89"/>
       <c r="BA27" s="89"/>
     </row>
-    <row r="28" spans="1:53" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:53" s="97" customFormat="1" ht="20" customHeight="1">
       <c r="A28" s="96" t="s">
         <v>157</v>
       </c>
@@ -5869,7 +5862,7 @@
       <c r="AZ28" s="89"/>
       <c r="BA28" s="89"/>
     </row>
-    <row r="29" spans="1:53" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:53" s="97" customFormat="1" ht="20" customHeight="1">
       <c r="A29" s="98" t="s">
         <v>158</v>
       </c>
@@ -5926,7 +5919,7 @@
       <c r="AZ29" s="89"/>
       <c r="BA29" s="89"/>
     </row>
-    <row r="30" spans="1:53" s="97" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:53" s="97" customFormat="1" ht="20" customHeight="1">
       <c r="A30" s="98" t="s">
         <v>155</v>
       </c>
@@ -5983,7 +5976,7 @@
       <c r="AZ30" s="89"/>
       <c r="BA30" s="89"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:53">
       <c r="A31" s="98"/>
       <c r="B31" s="89"/>
       <c r="C31" s="89"/>
@@ -6051,37 +6044,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="20" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="20" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="19.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" style="2" customWidth="1"/>
+    <col min="5" max="7" width="19.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="11" style="2"/>
-    <col min="9" max="9" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5" style="38" customWidth="1"/>
-    <col min="11" max="11" width="24.625" style="38" customWidth="1"/>
-    <col min="12" max="12" width="19.625" style="2" customWidth="1"/>
-    <col min="13" max="14" width="11" style="2"/>
-    <col min="15" max="15" width="17.625" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="2"/>
+    <col min="9" max="9" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="154" t="s">
         <v>87</v>
@@ -6111,7 +6101,7 @@
       <c r="Y1" s="18"/>
       <c r="Z1" s="18"/>
     </row>
-    <row r="2" spans="1:26" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="41" customFormat="1" ht="17" customHeight="1">
       <c r="A2" s="52"/>
       <c r="B2" s="43" t="s">
         <v>43</v>
@@ -6141,7 +6131,7 @@
       <c r="Y2" s="42"/>
       <c r="Z2" s="42"/>
     </row>
-    <row r="3" spans="1:26" s="41" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="41" customFormat="1" ht="17" customHeight="1">
       <c r="A3" s="52"/>
       <c r="B3" s="44" t="s">
         <v>88</v>
@@ -6171,7 +6161,7 @@
       <c r="Y3" s="42"/>
       <c r="Z3" s="42"/>
     </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="36" t="s">
         <v>75</v>
@@ -6201,7 +6191,7 @@
       <c r="Y4" s="37"/>
       <c r="Z4" s="37"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="45"/>
       <c r="C5" s="187" t="s">
@@ -6231,7 +6221,7 @@
       <c r="Y5" s="37"/>
       <c r="Z5" s="37"/>
     </row>
-    <row r="6" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="76"/>
       <c r="C6" s="76" t="s">
@@ -6261,7 +6251,7 @@
       <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
     </row>
-    <row r="7" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="155" t="s">
         <v>89</v>
@@ -6291,7 +6281,7 @@
       <c r="Y7" s="53"/>
       <c r="Z7" s="53"/>
     </row>
-    <row r="8" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47" t="s">
@@ -6321,7 +6311,7 @@
       <c r="Y8" s="53"/>
       <c r="Z8" s="53"/>
     </row>
-    <row r="9" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="B9" s="48" t="s">
         <v>65</v>
       </c>
@@ -6350,7 +6340,7 @@
       <c r="Y9" s="21"/>
       <c r="Z9" s="21"/>
     </row>
-    <row r="10" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="B10" s="37"/>
       <c r="C10" s="36" t="s">
         <v>109</v>
@@ -6379,7 +6369,7 @@
       <c r="Y10" s="21"/>
       <c r="Z10" s="21"/>
     </row>
-    <row r="11" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="B11" s="37"/>
       <c r="C11" s="37" t="s">
         <v>90</v>
@@ -6408,7 +6398,7 @@
       <c r="Y11" s="21"/>
       <c r="Z11" s="21"/>
     </row>
-    <row r="12" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="B12" s="37"/>
       <c r="C12" s="37" t="s">
         <v>110</v>
@@ -6437,7 +6427,7 @@
       <c r="Y12" s="21"/>
       <c r="Z12" s="21"/>
     </row>
-    <row r="13" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="B13" s="188" t="s">
         <v>118</v>
       </c>
@@ -6466,7 +6456,7 @@
       <c r="Y13" s="49"/>
       <c r="Z13" s="49"/>
     </row>
-    <row r="14" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="B14" s="156"/>
       <c r="C14" s="49" t="s">
         <v>108</v>
@@ -6495,7 +6485,7 @@
       <c r="Y14" s="49"/>
       <c r="Z14" s="49"/>
     </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="83" t="s">
         <v>117</v>
@@ -6525,7 +6515,7 @@
       <c r="Y15" s="50"/>
       <c r="Z15" s="50"/>
     </row>
-    <row r="16" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="83"/>
       <c r="C16" s="51" t="s">
@@ -6555,7 +6545,7 @@
       <c r="Y16" s="50"/>
       <c r="Z16" s="50"/>
     </row>
-    <row r="17" spans="1:26" s="215" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="215" customFormat="1" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="216" t="s">
         <v>128</v>
@@ -6585,7 +6575,7 @@
       <c r="Y17" s="218"/>
       <c r="Z17" s="218"/>
     </row>
-    <row r="18" spans="1:26" s="215" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="215" customFormat="1" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="216"/>
       <c r="C18" s="217" t="s">
@@ -6615,13 +6605,13 @@
       <c r="Y18" s="218"/>
       <c r="Z18" s="218"/>
     </row>
-    <row r="19" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="B19" s="12"/>
       <c r="H19" s="108"/>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:26" s="157" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="157" customFormat="1" ht="17" customHeight="1">
       <c r="A20" s="190" t="s">
         <v>22</v>
       </c>
@@ -6644,29 +6634,11 @@
         <v>78</v>
       </c>
       <c r="H20" s="159"/>
-      <c r="I20" s="190" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="189" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20" s="190" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="191" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="190" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20" s="190" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="190" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="159"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="158"/>
+    </row>
+    <row r="21" spans="1:26" ht="17" customHeight="1">
       <c r="A21" s="2">
         <v>1959</v>
       </c>
@@ -6690,36 +6662,9 @@
         <v>0.43881041609006344</v>
       </c>
       <c r="H21" s="15"/>
-      <c r="I21" s="273">
-        <f>A21</f>
-        <v>1959</v>
-      </c>
-      <c r="J21" s="38">
-        <f>B21*44/12</f>
-        <v>8.9980000000000011</v>
-      </c>
-      <c r="K21" s="38">
-        <f t="shared" ref="K21:O21" si="0">C21*44/12</f>
-        <v>6.5028791666666672</v>
-      </c>
-      <c r="L21" s="38">
-        <f t="shared" si="0"/>
-        <v>7.4623999999999997</v>
-      </c>
-      <c r="M21" s="38">
-        <f t="shared" si="0"/>
-        <v>2.8305435473333334</v>
-      </c>
-      <c r="N21" s="38">
-        <f t="shared" si="0"/>
-        <v>3.5989640936697693</v>
-      </c>
-      <c r="O21" s="38">
-        <f t="shared" si="0"/>
-        <v>1.6089715256635657</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="1:26" ht="17" customHeight="1">
       <c r="A22" s="2">
         <v>1960</v>
       </c>
@@ -6743,36 +6688,9 @@
         <v>0.11320519669957552</v>
       </c>
       <c r="H22" s="15"/>
-      <c r="I22" s="273">
-        <f t="shared" ref="I22:I78" si="1">A22</f>
-        <v>1960</v>
-      </c>
-      <c r="J22" s="38">
-        <f t="shared" ref="J22:J78" si="2">B22*44/12</f>
-        <v>9.4196666666666662</v>
-      </c>
-      <c r="K22" s="38">
-        <f t="shared" ref="K22:K78" si="3">C22*44/12</f>
-        <v>6.0279724999999997</v>
-      </c>
-      <c r="L22" s="38">
-        <f t="shared" ref="L22:L78" si="4">D22*44/12</f>
-        <v>5.5190666666666672</v>
-      </c>
-      <c r="M22" s="38">
-        <f t="shared" ref="M22:M78" si="5">E22*44/12</f>
-        <v>2.8718783678750004</v>
-      </c>
-      <c r="N22" s="38">
-        <f t="shared" ref="N22:N78" si="6">F22*44/12</f>
-        <v>6.6416084108932241</v>
-      </c>
-      <c r="O22" s="38">
-        <f t="shared" ref="O22:O78" si="7">G22*44/12</f>
-        <v>0.41508572123177689</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:26" ht="17" customHeight="1">
       <c r="A23" s="2">
         <v>1961</v>
       </c>
@@ -6792,40 +6710,13 @@
         <v>1.0238961529150308</v>
       </c>
       <c r="G23" s="38">
-        <f t="shared" ref="G23:G78" si="8">B23+C23-(D23+E23+F23)</f>
+        <f t="shared" ref="G23:G78" si="0">B23+C23-(D23+E23+F23)</f>
         <v>0.82652070158496915</v>
       </c>
       <c r="H23" s="15"/>
-      <c r="I23" s="273">
-        <f t="shared" si="1"/>
-        <v>1961</v>
-      </c>
-      <c r="J23" s="38">
-        <f t="shared" si="2"/>
-        <v>9.4600000000000009</v>
-      </c>
-      <c r="K23" s="38">
-        <f t="shared" si="3"/>
-        <v>5.7715313333333329</v>
-      </c>
-      <c r="L23" s="38">
-        <f t="shared" si="4"/>
-        <v>6.063200000000001</v>
-      </c>
-      <c r="M23" s="38">
-        <f t="shared" si="5"/>
-        <v>2.3834695335</v>
-      </c>
-      <c r="N23" s="38">
-        <f t="shared" si="6"/>
-        <v>3.7542858940217791</v>
-      </c>
-      <c r="O23" s="38">
-        <f t="shared" si="7"/>
-        <v>3.030575905811554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="1:26" ht="17" customHeight="1">
       <c r="A24" s="2">
         <v>1962</v>
       </c>
@@ -6845,40 +6736,13 @@
         <v>1.6193566631963454</v>
       </c>
       <c r="G24" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.66063690380365436</v>
       </c>
       <c r="H24" s="15"/>
-      <c r="I24" s="273">
-        <f t="shared" si="1"/>
-        <v>1962</v>
-      </c>
-      <c r="J24" s="38">
-        <f t="shared" si="2"/>
-        <v>9.8486666666666665</v>
-      </c>
-      <c r="K24" s="38">
-        <f t="shared" si="3"/>
-        <v>5.6054679999999992</v>
-      </c>
-      <c r="L24" s="38">
-        <f t="shared" si="4"/>
-        <v>4.3530666666666678</v>
-      </c>
-      <c r="M24" s="38">
-        <f t="shared" si="5"/>
-        <v>2.7410915876666668</v>
-      </c>
-      <c r="N24" s="38">
-        <f t="shared" si="6"/>
-        <v>5.9376410983865995</v>
-      </c>
-      <c r="O24" s="38">
-        <f t="shared" si="7"/>
-        <v>2.4223353139467325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="38"/>
+    </row>
+    <row r="25" spans="1:26" ht="17" customHeight="1">
       <c r="A25" s="2">
         <v>1963</v>
       </c>
@@ -6898,40 +6762,13 @@
         <v>1.0288918067079957</v>
       </c>
       <c r="G25" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.1899450857920044</v>
       </c>
       <c r="H25" s="15"/>
-      <c r="I25" s="273">
-        <f t="shared" si="1"/>
-        <v>1963</v>
-      </c>
-      <c r="J25" s="38">
-        <f t="shared" si="2"/>
-        <v>10.387666666666668</v>
-      </c>
-      <c r="K25" s="38">
-        <f t="shared" si="3"/>
-        <v>5.3999329999999999</v>
-      </c>
-      <c r="L25" s="38">
-        <f t="shared" si="4"/>
-        <v>4.4307999999999996</v>
-      </c>
-      <c r="M25" s="38">
-        <f t="shared" si="5"/>
-        <v>3.221064394166667</v>
-      </c>
-      <c r="N25" s="38">
-        <f t="shared" si="6"/>
-        <v>3.772603291262651</v>
-      </c>
-      <c r="O25" s="38">
-        <f t="shared" si="7"/>
-        <v>4.3631319812373492</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="38"/>
+    </row>
+    <row r="26" spans="1:26" ht="17" customHeight="1">
       <c r="A26" s="2">
         <v>1964</v>
       </c>
@@ -6951,40 +6788,13 @@
         <v>1.84346208182344</v>
       </c>
       <c r="G26" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.47190985342656067</v>
       </c>
       <c r="H26" s="15"/>
-      <c r="I26" s="273">
-        <f t="shared" si="1"/>
-        <v>1964</v>
-      </c>
-      <c r="J26" s="38">
-        <f t="shared" si="2"/>
-        <v>10.981666666666667</v>
-      </c>
-      <c r="K26" s="38">
-        <f t="shared" si="3"/>
-        <v>5.2081663333333337</v>
-      </c>
-      <c r="L26" s="38">
-        <f t="shared" si="4"/>
-        <v>3.8089333333333335</v>
-      </c>
-      <c r="M26" s="38">
-        <f t="shared" si="5"/>
-        <v>3.89120257075</v>
-      </c>
-      <c r="N26" s="38">
-        <f t="shared" si="6"/>
-        <v>6.7593609666859464</v>
-      </c>
-      <c r="O26" s="38">
-        <f t="shared" si="7"/>
-        <v>1.7303361292307224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="1:26" ht="17" customHeight="1">
       <c r="A27" s="2">
         <v>1965</v>
       </c>
@@ -7004,40 +6814,13 @@
         <v>0.49038829658937122</v>
       </c>
       <c r="G27" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.49919633891062887</v>
       </c>
       <c r="H27" s="15"/>
-      <c r="I27" s="273">
-        <f t="shared" si="1"/>
-        <v>1965</v>
-      </c>
-      <c r="J27" s="38">
-        <f t="shared" si="2"/>
-        <v>11.476666666666667</v>
-      </c>
-      <c r="K27" s="38">
-        <f t="shared" si="3"/>
-        <v>5.0329931666666665</v>
-      </c>
-      <c r="L27" s="38">
-        <f t="shared" si="4"/>
-        <v>8.5506666666666682</v>
-      </c>
-      <c r="M27" s="38">
-        <f t="shared" si="5"/>
-        <v>4.3305161698333334</v>
-      </c>
-      <c r="N27" s="38">
-        <f t="shared" si="6"/>
-        <v>1.7980904208276944</v>
-      </c>
-      <c r="O27" s="38">
-        <f t="shared" si="7"/>
-        <v>1.8303865760056393</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="38"/>
+    </row>
+    <row r="28" spans="1:26" ht="17" customHeight="1">
       <c r="A28" s="2">
         <v>1966</v>
       </c>
@@ -7057,40 +6840,13 @@
         <v>1.4038820513652075</v>
       </c>
       <c r="G28" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.30803642061520797</v>
       </c>
       <c r="H28" s="15"/>
-      <c r="I28" s="273">
-        <f t="shared" si="1"/>
-        <v>1966</v>
-      </c>
-      <c r="J28" s="38">
-        <f t="shared" si="2"/>
-        <v>12.055999999999999</v>
-      </c>
-      <c r="K28" s="38">
-        <f t="shared" si="3"/>
-        <v>4.8728680000000004</v>
-      </c>
-      <c r="L28" s="38">
-        <f t="shared" si="4"/>
-        <v>8.5506666666666682</v>
-      </c>
-      <c r="M28" s="38">
-        <f t="shared" si="5"/>
-        <v>4.3601006872500001</v>
-      </c>
-      <c r="N28" s="38">
-        <f t="shared" si="6"/>
-        <v>5.1475675216724275</v>
-      </c>
-      <c r="O28" s="38">
-        <f t="shared" si="7"/>
-        <v>-1.129466875589096</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="38"/>
+    </row>
+    <row r="29" spans="1:26" ht="17" customHeight="1">
       <c r="A29" s="2">
         <v>1967</v>
       </c>
@@ -7110,40 +6866,13 @@
         <v>1.8819177892502614</v>
       </c>
       <c r="G29" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.52710284449973788</v>
       </c>
       <c r="H29" s="15"/>
-      <c r="I29" s="273">
-        <f t="shared" si="1"/>
-        <v>1967</v>
-      </c>
-      <c r="J29" s="38">
-        <f t="shared" si="2"/>
-        <v>12.441000000000001</v>
-      </c>
-      <c r="K29" s="38">
-        <f t="shared" si="3"/>
-        <v>4.7889434999999994</v>
-      </c>
-      <c r="L29" s="38">
-        <f t="shared" si="4"/>
-        <v>4.7417333333333334</v>
-      </c>
-      <c r="M29" s="38">
-        <f t="shared" si="5"/>
-        <v>3.6551345095833336</v>
-      </c>
-      <c r="N29" s="38">
-        <f t="shared" si="6"/>
-        <v>6.9003652272509584</v>
-      </c>
-      <c r="O29" s="38">
-        <f t="shared" si="7"/>
-        <v>1.9327104298323723</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="1:26" ht="17" customHeight="1">
       <c r="A30" s="2">
         <v>1968</v>
       </c>
@@ -7163,40 +6892,13 @@
         <v>2.5867685093013706</v>
       </c>
       <c r="G30" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.85461808442637111</v>
       </c>
       <c r="H30" s="15"/>
-      <c r="I30" s="273">
-        <f t="shared" si="1"/>
-        <v>1968</v>
-      </c>
-      <c r="J30" s="38">
-        <f t="shared" si="2"/>
-        <v>13.075333333333333</v>
-      </c>
-      <c r="K30" s="38">
-        <f t="shared" si="3"/>
-        <v>4.778423833333334</v>
-      </c>
-      <c r="L30" s="38">
-        <f t="shared" si="4"/>
-        <v>7.6956000000000016</v>
-      </c>
-      <c r="M30" s="38">
-        <f t="shared" si="5"/>
-        <v>3.8069389421249995</v>
-      </c>
-      <c r="N30" s="38">
-        <f t="shared" si="6"/>
-        <v>9.484817867438359</v>
-      </c>
-      <c r="O30" s="38">
-        <f t="shared" si="7"/>
-        <v>-3.1335996428966943</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="38"/>
+    </row>
+    <row r="31" spans="1:26" ht="17" customHeight="1">
       <c r="A31" s="2">
         <v>1969</v>
       </c>
@@ -7216,40 +6918,13 @@
         <v>0.66983856523076057</v>
       </c>
       <c r="G31" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.55027033714423901</v>
       </c>
       <c r="H31" s="15"/>
-      <c r="I31" s="273">
-        <f t="shared" si="1"/>
-        <v>1969</v>
-      </c>
-      <c r="J31" s="38">
-        <f t="shared" si="2"/>
-        <v>13.86</v>
-      </c>
-      <c r="K31" s="38">
-        <f t="shared" si="3"/>
-        <v>4.8047028333333337</v>
-      </c>
-      <c r="L31" s="38">
-        <f t="shared" si="4"/>
-        <v>10.260800000000001</v>
-      </c>
-      <c r="M31" s="38">
-        <f t="shared" si="5"/>
-        <v>3.930170191291666</v>
-      </c>
-      <c r="N31" s="38">
-        <f t="shared" si="6"/>
-        <v>2.4560747391794555</v>
-      </c>
-      <c r="O31" s="38">
-        <f t="shared" si="7"/>
-        <v>2.0176579028622097</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="38"/>
+    </row>
+    <row r="32" spans="1:26" ht="17" customHeight="1">
       <c r="A32" s="2">
         <v>1970</v>
       </c>
@@ -7269,40 +6944,13 @@
         <v>0.68695620741041796</v>
       </c>
       <c r="G32" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.2361114507145823</v>
       </c>
       <c r="H32" s="15"/>
-      <c r="I32" s="273">
-        <f t="shared" si="1"/>
-        <v>1970</v>
-      </c>
-      <c r="J32" s="38">
-        <f t="shared" si="2"/>
-        <v>14.860999999999999</v>
-      </c>
-      <c r="K32" s="38">
-        <f t="shared" si="3"/>
-        <v>4.6768425000000002</v>
-      </c>
-      <c r="L32" s="38">
-        <f t="shared" si="4"/>
-        <v>8.7838666666666665</v>
-      </c>
-      <c r="M32" s="38">
-        <f t="shared" si="5"/>
-        <v>3.7027277535416672</v>
-      </c>
-      <c r="N32" s="38">
-        <f t="shared" si="6"/>
-        <v>2.5188394271715326</v>
-      </c>
-      <c r="O32" s="38">
-        <f t="shared" si="7"/>
-        <v>4.532408652620135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="38"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" customHeight="1">
       <c r="A33" s="2">
         <v>1971</v>
       </c>
@@ -7322,40 +6970,13 @@
         <v>2.647739779349751</v>
       </c>
       <c r="G33" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.1648248291502501</v>
       </c>
       <c r="H33" s="15"/>
-      <c r="I33" s="273">
-        <f t="shared" si="1"/>
-        <v>1971</v>
-      </c>
-      <c r="J33" s="38">
-        <f t="shared" si="2"/>
-        <v>15.429333333333334</v>
-      </c>
-      <c r="K33" s="38">
-        <f t="shared" si="3"/>
-        <v>4.5473395000000005</v>
-      </c>
-      <c r="L33" s="38">
-        <f t="shared" si="4"/>
-        <v>5.6745333333333337</v>
-      </c>
-      <c r="M33" s="38">
-        <f t="shared" si="5"/>
-        <v>3.9894026021666669</v>
-      </c>
-      <c r="N33" s="38">
-        <f t="shared" si="6"/>
-        <v>9.7083791909490866</v>
-      </c>
-      <c r="O33" s="38">
-        <f t="shared" si="7"/>
-        <v>0.60435770688425039</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="38"/>
+    </row>
+    <row r="34" spans="1:9" ht="17" customHeight="1">
       <c r="A34" s="2">
         <v>1972</v>
       </c>
@@ -7375,40 +6996,13 @@
         <v>1.2503271036098087</v>
       </c>
       <c r="G34" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-9.7437817234808932E-2</v>
       </c>
       <c r="H34" s="15"/>
-      <c r="I34" s="273">
-        <f t="shared" si="1"/>
-        <v>1972</v>
-      </c>
-      <c r="J34" s="38">
-        <f t="shared" si="2"/>
-        <v>16.045333333333335</v>
-      </c>
-      <c r="K34" s="38">
-        <f t="shared" si="3"/>
-        <v>4.415099333333333</v>
-      </c>
-      <c r="L34" s="38">
-        <f t="shared" si="4"/>
-        <v>11.4268</v>
-      </c>
-      <c r="M34" s="38">
-        <f t="shared" si="5"/>
-        <v>4.8063719499583328</v>
-      </c>
-      <c r="N34" s="38">
-        <f t="shared" si="6"/>
-        <v>4.5845327132359648</v>
-      </c>
-      <c r="O34" s="38">
-        <f t="shared" si="7"/>
-        <v>-0.35727199652763275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="38"/>
+    </row>
+    <row r="35" spans="1:9" ht="17" customHeight="1">
       <c r="A35" s="2">
         <v>1973</v>
       </c>
@@ -7428,40 +7022,13 @@
         <v>2.0319419434502644</v>
       </c>
       <c r="G35" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.63824999382526482</v>
       </c>
       <c r="H35" s="15"/>
-      <c r="I35" s="273">
-        <f t="shared" si="1"/>
-        <v>1973</v>
-      </c>
-      <c r="J35" s="38">
-        <f t="shared" si="2"/>
-        <v>16.917999999999999</v>
-      </c>
-      <c r="K35" s="38">
-        <f t="shared" si="3"/>
-        <v>4.3146473333333324</v>
-      </c>
-      <c r="L35" s="38">
-        <f t="shared" si="4"/>
-        <v>11.349066666666667</v>
-      </c>
-      <c r="M35" s="38">
-        <f t="shared" si="5"/>
-        <v>4.7733768513750006</v>
-      </c>
-      <c r="N35" s="38">
-        <f t="shared" si="6"/>
-        <v>7.4504537926509693</v>
-      </c>
-      <c r="O35" s="38">
-        <f t="shared" si="7"/>
-        <v>-2.3402499773593042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="38"/>
+    </row>
+    <row r="36" spans="1:9" ht="17" customHeight="1">
       <c r="A36" s="2">
         <v>1974</v>
       </c>
@@ -7481,40 +7048,13 @@
         <v>4.4806813586685772</v>
       </c>
       <c r="G36" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-1.4112305249185768</v>
       </c>
       <c r="H36" s="15"/>
-      <c r="I36" s="273">
-        <f t="shared" si="1"/>
-        <v>1974</v>
-      </c>
-      <c r="J36" s="38">
-        <f t="shared" si="2"/>
-        <v>16.951000000000001</v>
-      </c>
-      <c r="K36" s="38">
-        <f t="shared" si="3"/>
-        <v>4.1684720000000004</v>
-      </c>
-      <c r="L36" s="38">
-        <f t="shared" si="4"/>
-        <v>5.2858666666666672</v>
-      </c>
-      <c r="M36" s="38">
-        <f t="shared" si="5"/>
-        <v>4.5789522762499999</v>
-      </c>
-      <c r="N36" s="38">
-        <f t="shared" si="6"/>
-        <v>16.429164981784783</v>
-      </c>
-      <c r="O36" s="38">
-        <f t="shared" si="7"/>
-        <v>-5.1745119247014486</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="38"/>
+    </row>
+    <row r="37" spans="1:9" ht="17" customHeight="1">
       <c r="A37" s="2">
         <v>1975</v>
       </c>
@@ -7534,40 +7074,13 @@
         <v>2.753415186897425</v>
       </c>
       <c r="G37" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.92268220289742509</v>
       </c>
       <c r="H37" s="15"/>
-      <c r="I37" s="273">
-        <f t="shared" si="1"/>
-        <v>1975</v>
-      </c>
-      <c r="J37" s="38">
-        <f t="shared" si="2"/>
-        <v>16.852</v>
-      </c>
-      <c r="K37" s="38">
-        <f t="shared" si="3"/>
-        <v>4.0546879999999996</v>
-      </c>
-      <c r="L37" s="38">
-        <f t="shared" si="4"/>
-        <v>9.5612000000000013</v>
-      </c>
-      <c r="M37" s="38">
-        <f t="shared" si="5"/>
-        <v>4.6328003919999992</v>
-      </c>
-      <c r="N37" s="38">
-        <f t="shared" si="6"/>
-        <v>10.095855685290559</v>
-      </c>
-      <c r="O37" s="38">
-        <f t="shared" si="7"/>
-        <v>-3.3831680772905588</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="38"/>
+    </row>
+    <row r="38" spans="1:9" ht="17" customHeight="1">
       <c r="A38" s="2">
         <v>1976</v>
       </c>
@@ -7587,40 +7100,13 @@
         <v>3.1777556496006385</v>
       </c>
       <c r="G38" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.61864405472563888</v>
       </c>
       <c r="H38" s="15"/>
-      <c r="I38" s="273">
-        <f t="shared" si="1"/>
-        <v>1976</v>
-      </c>
-      <c r="J38" s="38">
-        <f t="shared" si="2"/>
-        <v>17.834666666666667</v>
-      </c>
-      <c r="K38" s="38">
-        <f t="shared" si="3"/>
-        <v>3.9910144999999999</v>
-      </c>
-      <c r="L38" s="38">
-        <f t="shared" si="4"/>
-        <v>7.5401333333333334</v>
-      </c>
-      <c r="M38" s="38">
-        <f t="shared" si="5"/>
-        <v>4.9021386521250001</v>
-      </c>
-      <c r="N38" s="38">
-        <f t="shared" si="6"/>
-        <v>11.651770715202341</v>
-      </c>
-      <c r="O38" s="38">
-        <f t="shared" si="7"/>
-        <v>-2.2683615339940091</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="38"/>
+    </row>
+    <row r="39" spans="1:9" ht="17" customHeight="1">
       <c r="A39" s="2">
         <v>1977</v>
       </c>
@@ -7640,40 +7126,13 @@
         <v>1.8018281720123652</v>
       </c>
       <c r="G39" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-1.1667716201373661</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="I39" s="273">
-        <f t="shared" si="1"/>
-        <v>1977</v>
-      </c>
-      <c r="J39" s="38">
-        <f t="shared" si="2"/>
-        <v>18.391999999999999</v>
-      </c>
-      <c r="K39" s="38">
-        <f t="shared" si="3"/>
-        <v>3.9028531666666666</v>
-      </c>
-      <c r="L39" s="38">
-        <f t="shared" si="4"/>
-        <v>14.924799999999999</v>
-      </c>
-      <c r="M39" s="38">
-        <f t="shared" si="5"/>
-        <v>5.0415124764583332</v>
-      </c>
-      <c r="N39" s="38">
-        <f t="shared" si="6"/>
-        <v>6.6067032973786723</v>
-      </c>
-      <c r="O39" s="38">
-        <f t="shared" si="7"/>
-        <v>-4.2781626071703425</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="38"/>
+    </row>
+    <row r="40" spans="1:9" ht="17" customHeight="1">
       <c r="A40" s="2">
         <v>1978</v>
       </c>
@@ -7693,40 +7152,13 @@
         <v>3.1448552729013173</v>
       </c>
       <c r="G40" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-1.2106029705263177</v>
       </c>
       <c r="H40" s="15"/>
-      <c r="I40" s="273">
-        <f t="shared" si="1"/>
-        <v>1978</v>
-      </c>
-      <c r="J40" s="38">
-        <f t="shared" si="2"/>
-        <v>18.604666666666667</v>
-      </c>
-      <c r="K40" s="38">
-        <f t="shared" si="3"/>
-        <v>3.767895999999999</v>
-      </c>
-      <c r="L40" s="38">
-        <f t="shared" si="4"/>
-        <v>10.027600000000001</v>
-      </c>
-      <c r="M40" s="38">
-        <f t="shared" si="5"/>
-        <v>5.2527042246249991</v>
-      </c>
-      <c r="N40" s="38">
-        <f t="shared" si="6"/>
-        <v>11.531136000638163</v>
-      </c>
-      <c r="O40" s="38">
-        <f t="shared" si="7"/>
-        <v>-4.4388775585964986</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="38"/>
+    </row>
+    <row r="41" spans="1:9" ht="17" customHeight="1">
       <c r="A41" s="2">
         <v>1979</v>
       </c>
@@ -7746,40 +7178,13 @@
         <v>1.5604793592919592</v>
       </c>
       <c r="G41" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-1.0263369902919592</v>
       </c>
       <c r="H41" s="15"/>
-      <c r="I41" s="273">
-        <f t="shared" si="1"/>
-        <v>1979</v>
-      </c>
-      <c r="J41" s="38">
-        <f t="shared" si="2"/>
-        <v>19.642333333333333</v>
-      </c>
-      <c r="K41" s="38">
-        <f t="shared" si="3"/>
-        <v>3.6699134999999998</v>
-      </c>
-      <c r="L41" s="38">
-        <f t="shared" si="4"/>
-        <v>16.634933333333333</v>
-      </c>
-      <c r="M41" s="38">
-        <f t="shared" si="5"/>
-        <v>4.7187914803333326</v>
-      </c>
-      <c r="N41" s="38">
-        <f t="shared" si="6"/>
-        <v>5.7217576507371843</v>
-      </c>
-      <c r="O41" s="38">
-        <f t="shared" si="7"/>
-        <v>-3.7632356310705171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="38"/>
+    </row>
+    <row r="42" spans="1:9" ht="17" customHeight="1">
       <c r="A42" s="2">
         <v>1980</v>
       </c>
@@ -7799,40 +7204,13 @@
         <v>0.76763390446130486</v>
       </c>
       <c r="G42" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.37873073266369506</v>
       </c>
       <c r="H42" s="15"/>
-      <c r="I42" s="273">
-        <f t="shared" si="1"/>
-        <v>1980</v>
-      </c>
-      <c r="J42" s="38">
-        <f t="shared" si="2"/>
-        <v>19.437000000000001</v>
-      </c>
-      <c r="K42" s="38">
-        <f t="shared" si="3"/>
-        <v>3.8134561666666666</v>
-      </c>
-      <c r="L42" s="38">
-        <f t="shared" si="4"/>
-        <v>13.292400000000001</v>
-      </c>
-      <c r="M42" s="38">
-        <f t="shared" si="5"/>
-        <v>5.7547191638749986</v>
-      </c>
-      <c r="N42" s="38">
-        <f t="shared" si="6"/>
-        <v>2.8146576496914513</v>
-      </c>
-      <c r="O42" s="38">
-        <f t="shared" si="7"/>
-        <v>1.3886793531002153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="38"/>
+    </row>
+    <row r="43" spans="1:9" ht="17" customHeight="1">
       <c r="A43" s="2">
         <v>1981</v>
       </c>
@@ -7852,40 +7230,13 @@
         <v>2.6961228926625451</v>
       </c>
       <c r="G43" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.54614392464067052</v>
       </c>
       <c r="H43" s="15"/>
-      <c r="I43" s="273">
-        <f t="shared" si="1"/>
-        <v>1981</v>
-      </c>
-      <c r="J43" s="38">
-        <f t="shared" si="2"/>
-        <v>18.839333333333332</v>
-      </c>
-      <c r="K43" s="38">
-        <f t="shared" si="3"/>
-        <v>3.8492197925385412</v>
-      </c>
-      <c r="L43" s="38">
-        <f t="shared" si="4"/>
-        <v>8.939333333333332</v>
-      </c>
-      <c r="M43" s="38">
-        <f t="shared" si="5"/>
-        <v>5.8659635764583333</v>
-      </c>
-      <c r="N43" s="38">
-        <f t="shared" si="6"/>
-        <v>9.8857839397626659</v>
-      </c>
-      <c r="O43" s="38">
-        <f t="shared" si="7"/>
-        <v>-2.0025277236824586</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="38"/>
+    </row>
+    <row r="44" spans="1:9" ht="17" customHeight="1">
       <c r="A44" s="2">
         <v>1982</v>
       </c>
@@ -7905,40 +7256,13 @@
         <v>1.6031014289235685</v>
       </c>
       <c r="G44" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.77767440278018185</v>
       </c>
       <c r="H44" s="15"/>
-      <c r="I44" s="273">
-        <f t="shared" si="1"/>
-        <v>1982</v>
-      </c>
-      <c r="J44" s="38">
-        <f t="shared" si="2"/>
-        <v>18.678000000000001</v>
-      </c>
-      <c r="K44" s="38">
-        <f t="shared" si="3"/>
-        <v>3.8935443179554166</v>
-      </c>
-      <c r="L44" s="38">
-        <f t="shared" si="4"/>
-        <v>7.7733333333333334</v>
-      </c>
-      <c r="M44" s="38">
-        <f t="shared" si="5"/>
-        <v>6.0686996017083343</v>
-      </c>
-      <c r="N44" s="38">
-        <f t="shared" si="6"/>
-        <v>5.8780385727197517</v>
-      </c>
-      <c r="O44" s="38">
-        <f t="shared" si="7"/>
-        <v>2.8514728101940001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="38"/>
+    </row>
+    <row r="45" spans="1:9" ht="17" customHeight="1">
       <c r="A45" s="2">
         <v>1983</v>
       </c>
@@ -7958,40 +7282,13 @@
         <v>0.32609497114769204</v>
       </c>
       <c r="G45" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.1415343985879316</v>
       </c>
       <c r="H45" s="15"/>
-      <c r="I45" s="273">
-        <f t="shared" si="1"/>
-        <v>1983</v>
-      </c>
-      <c r="J45" s="38">
-        <f t="shared" si="2"/>
-        <v>18.608333333333334</v>
-      </c>
-      <c r="K45" s="38">
-        <f t="shared" si="3"/>
-        <v>4.0473475326556247</v>
-      </c>
-      <c r="L45" s="38">
-        <f t="shared" si="4"/>
-        <v>14.302933333333334</v>
-      </c>
-      <c r="M45" s="38">
-        <f t="shared" si="5"/>
-        <v>6.6381065102916672</v>
-      </c>
-      <c r="N45" s="38">
-        <f t="shared" si="6"/>
-        <v>1.1956815608748708</v>
-      </c>
-      <c r="O45" s="38">
-        <f t="shared" si="7"/>
-        <v>0.51895946148908256</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="38"/>
+    </row>
+    <row r="46" spans="1:9" ht="17" customHeight="1">
       <c r="A46" s="2">
         <v>1984</v>
       </c>
@@ -8011,40 +7308,13 @@
         <v>2.9023116620084641</v>
       </c>
       <c r="G46" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.8522844162009644</v>
       </c>
       <c r="H46" s="15"/>
-      <c r="I46" s="273">
-        <f t="shared" si="1"/>
-        <v>1984</v>
-      </c>
-      <c r="J46" s="38">
-        <f t="shared" si="2"/>
-        <v>19.279333333333334</v>
-      </c>
-      <c r="K46" s="38">
-        <f t="shared" si="3"/>
-        <v>4.1809868615441674</v>
-      </c>
-      <c r="L46" s="38">
-        <f t="shared" si="4"/>
-        <v>9.638933333333334</v>
-      </c>
-      <c r="M46" s="38">
-        <f t="shared" si="5"/>
-        <v>6.3046202935833335</v>
-      </c>
-      <c r="N46" s="38">
-        <f t="shared" si="6"/>
-        <v>10.641809427364368</v>
-      </c>
-      <c r="O46" s="38">
-        <f t="shared" si="7"/>
-        <v>-3.125042859403536</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="38"/>
+    </row>
+    <row r="47" spans="1:9" ht="17" customHeight="1">
       <c r="A47" s="2">
         <v>1985</v>
       </c>
@@ -8064,40 +7334,13 @@
         <v>2.7280289505205761</v>
       </c>
       <c r="G47" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-1.3229670875212012</v>
       </c>
       <c r="H47" s="15"/>
-      <c r="I47" s="273">
-        <f t="shared" si="1"/>
-        <v>1985</v>
-      </c>
-      <c r="J47" s="38">
-        <f t="shared" si="2"/>
-        <v>19.862333333333332</v>
-      </c>
-      <c r="K47" s="38">
-        <f t="shared" si="3"/>
-        <v>4.2450537295810422</v>
-      </c>
-      <c r="L47" s="38">
-        <f t="shared" si="4"/>
-        <v>12.670533333333333</v>
-      </c>
-      <c r="M47" s="38">
-        <f t="shared" si="5"/>
-        <v>6.2849602319166671</v>
-      </c>
-      <c r="N47" s="38">
-        <f t="shared" si="6"/>
-        <v>10.002772818575446</v>
-      </c>
-      <c r="O47" s="38">
-        <f t="shared" si="7"/>
-        <v>-4.850879320911071</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="38"/>
+    </row>
+    <row r="48" spans="1:9" ht="17" customHeight="1">
       <c r="A48" s="2">
         <v>1986</v>
       </c>
@@ -8117,40 +7360,13 @@
         <v>2.2703257372062686</v>
       </c>
       <c r="G48" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.5749681574599812</v>
       </c>
       <c r="H48" s="15"/>
-      <c r="I48" s="273">
-        <f t="shared" si="1"/>
-        <v>1986</v>
-      </c>
-      <c r="J48" s="38">
-        <f t="shared" si="2"/>
-        <v>20.471</v>
-      </c>
-      <c r="K48" s="38">
-        <f t="shared" si="3"/>
-        <v>4.3826857668595833</v>
-      </c>
-      <c r="L48" s="38">
-        <f t="shared" si="4"/>
-        <v>8.0065333333333353</v>
-      </c>
-      <c r="M48" s="38">
-        <f t="shared" si="5"/>
-        <v>6.4144081530833335</v>
-      </c>
-      <c r="N48" s="38">
-        <f t="shared" si="6"/>
-        <v>8.3245277030896521</v>
-      </c>
-      <c r="O48" s="38">
-        <f t="shared" si="7"/>
-        <v>2.1082165773532644</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="38"/>
+    </row>
+    <row r="49" spans="1:9" ht="17" customHeight="1">
       <c r="A49" s="2">
         <v>1987</v>
       </c>
@@ -8170,40 +7386,13 @@
         <v>0.47268307952393812</v>
       </c>
       <c r="G49" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.96613584495581417</v>
       </c>
       <c r="H49" s="15"/>
-      <c r="I49" s="273">
-        <f t="shared" si="1"/>
-        <v>1987</v>
-      </c>
-      <c r="J49" s="38">
-        <f t="shared" si="2"/>
-        <v>20.991666666666664</v>
-      </c>
-      <c r="K49" s="38">
-        <f t="shared" si="3"/>
-        <v>4.517656132708125</v>
-      </c>
-      <c r="L49" s="38">
-        <f t="shared" si="4"/>
-        <v>20.910266666666669</v>
-      </c>
-      <c r="M49" s="38">
-        <f t="shared" si="5"/>
-        <v>6.4083829392916671</v>
-      </c>
-      <c r="N49" s="38">
-        <f t="shared" si="6"/>
-        <v>1.7331712915877731</v>
-      </c>
-      <c r="O49" s="38">
-        <f t="shared" si="7"/>
-        <v>-3.5424980981713183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="38"/>
+    </row>
+    <row r="50" spans="1:9" ht="17" customHeight="1">
       <c r="A50" s="2">
         <v>1988</v>
       </c>
@@ -8223,40 +7412,13 @@
         <v>2.1919249085620205</v>
       </c>
       <c r="G50" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-1.4915978069570226</v>
       </c>
       <c r="H50" s="15"/>
-      <c r="I50" s="273">
-        <f t="shared" si="1"/>
-        <v>1988</v>
-      </c>
-      <c r="J50" s="38">
-        <f t="shared" si="2"/>
-        <v>21.765333333333331</v>
-      </c>
-      <c r="K50" s="38">
-        <f t="shared" si="3"/>
-        <v>4.5801915458016671</v>
-      </c>
-      <c r="L50" s="38">
-        <f t="shared" si="4"/>
-        <v>17.490000000000002</v>
-      </c>
-      <c r="M50" s="38">
-        <f t="shared" si="5"/>
-        <v>6.2876588399166664</v>
-      </c>
-      <c r="N50" s="38">
-        <f t="shared" si="6"/>
-        <v>8.0370579980607406</v>
-      </c>
-      <c r="O50" s="38">
-        <f t="shared" si="7"/>
-        <v>-5.4691919588424156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I50" s="38"/>
+    </row>
+    <row r="51" spans="1:9" ht="17" customHeight="1">
       <c r="A51" s="2">
         <v>1989</v>
       </c>
@@ -8276,40 +7438,13 @@
         <v>3.6661564262935187</v>
       </c>
       <c r="G51" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.97556479186164413</v>
       </c>
       <c r="H51" s="15"/>
-      <c r="I51" s="273">
-        <f t="shared" si="1"/>
-        <v>1989</v>
-      </c>
-      <c r="J51" s="38">
-        <f t="shared" si="2"/>
-        <v>22.242000000000001</v>
-      </c>
-      <c r="K51" s="38">
-        <f t="shared" si="3"/>
-        <v>4.6769843915002083</v>
-      </c>
-      <c r="L51" s="38">
-        <f t="shared" si="4"/>
-        <v>10.727199999999998</v>
-      </c>
-      <c r="M51" s="38">
-        <f t="shared" si="5"/>
-        <v>6.3262817319166667</v>
-      </c>
-      <c r="N51" s="38">
-        <f t="shared" si="6"/>
-        <v>13.442573563076236</v>
-      </c>
-      <c r="O51" s="38">
-        <f t="shared" si="7"/>
-        <v>-3.5770709034926953</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="38"/>
+    </row>
+    <row r="52" spans="1:9" ht="17" customHeight="1">
       <c r="A52" s="2">
         <v>1990</v>
       </c>
@@ -8329,40 +7464,13 @@
         <v>2.3530982103520808</v>
       </c>
       <c r="G52" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.69718368428279298</v>
       </c>
       <c r="H52" s="15"/>
-      <c r="I52" s="273">
-        <f t="shared" si="1"/>
-        <v>1990</v>
-      </c>
-      <c r="J52" s="38">
-        <f t="shared" si="2"/>
-        <v>22.236507514104122</v>
-      </c>
-      <c r="K52" s="38">
-        <f t="shared" si="3"/>
-        <v>4.6849205551820825</v>
-      </c>
-      <c r="L52" s="38">
-        <f t="shared" si="4"/>
-        <v>9.1725333333333321</v>
-      </c>
-      <c r="M52" s="38">
-        <f t="shared" si="5"/>
-        <v>6.5645277889583333</v>
-      </c>
-      <c r="N52" s="38">
-        <f t="shared" si="6"/>
-        <v>8.6280267712909637</v>
-      </c>
-      <c r="O52" s="38">
-        <f t="shared" si="7"/>
-        <v>2.5563401757035744</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="38"/>
+    </row>
+    <row r="53" spans="1:9" ht="17" customHeight="1">
       <c r="A53" s="2">
         <v>1991</v>
       </c>
@@ -8382,40 +7490,13 @@
         <v>2.095030034660927</v>
       </c>
       <c r="G53" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.9135957121530289</v>
       </c>
       <c r="H53" s="15"/>
-      <c r="I53" s="273">
-        <f t="shared" si="1"/>
-        <v>1991</v>
-      </c>
-      <c r="J53" s="38">
-        <f t="shared" si="2"/>
-        <v>22.48750243385555</v>
-      </c>
-      <c r="K53" s="38">
-        <f t="shared" si="3"/>
-        <v>4.7380164221706247</v>
-      </c>
-      <c r="L53" s="38">
-        <f t="shared" si="4"/>
-        <v>5.6745333333333337</v>
-      </c>
-      <c r="M53" s="38">
-        <f t="shared" si="5"/>
-        <v>6.8526911177083329</v>
-      </c>
-      <c r="N53" s="38">
-        <f t="shared" si="6"/>
-        <v>7.6817767937567325</v>
-      </c>
-      <c r="O53" s="38">
-        <f t="shared" si="7"/>
-        <v>7.0165176112277727</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="38"/>
+    </row>
+    <row r="54" spans="1:9" ht="17" customHeight="1">
       <c r="A54" s="2">
         <v>1992</v>
       </c>
@@ -8435,40 +7516,13 @@
         <v>2.2555044127979667</v>
       </c>
       <c r="G54" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.5715329771902704</v>
       </c>
       <c r="H54" s="15"/>
-      <c r="I54" s="273">
-        <f t="shared" si="1"/>
-        <v>1992</v>
-      </c>
-      <c r="J54" s="38">
-        <f t="shared" si="2"/>
-        <v>22.262691637251038</v>
-      </c>
-      <c r="K54" s="38">
-        <f t="shared" si="3"/>
-        <v>4.8008847111225004</v>
-      </c>
-      <c r="L54" s="38">
-        <f t="shared" si="4"/>
-        <v>5.4413333333333327</v>
-      </c>
-      <c r="M54" s="38">
-        <f t="shared" si="5"/>
-        <v>7.5897725850833346</v>
-      </c>
-      <c r="N54" s="38">
-        <f t="shared" si="6"/>
-        <v>8.2701828469258771</v>
-      </c>
-      <c r="O54" s="38">
-        <f t="shared" si="7"/>
-        <v>5.7622875830309921</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="38"/>
+    </row>
+    <row r="55" spans="1:9" ht="17" customHeight="1">
       <c r="A55" s="2">
         <v>1993</v>
       </c>
@@ -8488,40 +7542,13 @@
         <v>3.0802671948109159</v>
       </c>
       <c r="G55" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.30942128227421062</v>
       </c>
       <c r="H55" s="15"/>
-      <c r="I55" s="273">
-        <f t="shared" si="1"/>
-        <v>1993</v>
-      </c>
-      <c r="J55" s="38">
-        <f t="shared" si="2"/>
-        <v>22.229663807660213</v>
-      </c>
-      <c r="K55" s="38">
-        <f t="shared" si="3"/>
-        <v>4.8086141409327077</v>
-      </c>
-      <c r="L55" s="38">
-        <f t="shared" si="4"/>
-        <v>9.4834666666666667</v>
-      </c>
-      <c r="M55" s="38">
-        <f t="shared" si="5"/>
-        <v>7.3950429359583323</v>
-      </c>
-      <c r="N55" s="38">
-        <f t="shared" si="6"/>
-        <v>11.294313047640024</v>
-      </c>
-      <c r="O55" s="38">
-        <f t="shared" si="7"/>
-        <v>-1.1345447016721055</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="38"/>
+    </row>
+    <row r="56" spans="1:9" ht="17" customHeight="1">
       <c r="A56" s="2">
         <v>1994</v>
       </c>
@@ -8541,40 +7568,13 @@
         <v>1.5660619100805784</v>
       </c>
       <c r="G56" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.44410935433871312</v>
       </c>
       <c r="H56" s="15"/>
-      <c r="I56" s="273">
-        <f t="shared" si="1"/>
-        <v>1994</v>
-      </c>
-      <c r="J56" s="38">
-        <f t="shared" si="2"/>
-        <v>22.61649908761115</v>
-      </c>
-      <c r="K56" s="38">
-        <f t="shared" si="3"/>
-        <v>4.7951834300929166</v>
-      </c>
-      <c r="L56" s="38">
-        <f t="shared" si="4"/>
-        <v>13.059199999999999</v>
-      </c>
-      <c r="M56" s="38">
-        <f t="shared" si="5"/>
-        <v>6.9818545481666661</v>
-      </c>
-      <c r="N56" s="38">
-        <f t="shared" si="6"/>
-        <v>5.7422270036287877</v>
-      </c>
-      <c r="O56" s="38">
-        <f t="shared" si="7"/>
-        <v>1.6284009659086147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="38"/>
+    </row>
+    <row r="57" spans="1:9" ht="17" customHeight="1">
       <c r="A57" s="2">
         <v>1995</v>
       </c>
@@ -8594,40 +7594,13 @@
         <v>1.8675591820212778</v>
       </c>
       <c r="G57" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.25708597847193726</v>
       </c>
       <c r="H57" s="15"/>
-      <c r="I57" s="273">
-        <f t="shared" si="1"/>
-        <v>1995</v>
-      </c>
-      <c r="J57" s="38">
-        <f t="shared" si="2"/>
-        <v>23.099651421627794</v>
-      </c>
-      <c r="K57" s="38">
-        <f t="shared" si="3"/>
-        <v>4.7463608908031247</v>
-      </c>
-      <c r="L57" s="38">
-        <f t="shared" si="4"/>
-        <v>15.158000000000001</v>
-      </c>
-      <c r="M57" s="38">
-        <f t="shared" si="5"/>
-        <v>6.7829438994166678</v>
-      </c>
-      <c r="N57" s="38">
-        <f t="shared" si="6"/>
-        <v>6.8477170007446846</v>
-      </c>
-      <c r="O57" s="38">
-        <f t="shared" si="7"/>
-        <v>-0.94264858773043658</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="38"/>
+    </row>
+    <row r="58" spans="1:9" ht="17" customHeight="1">
       <c r="A58" s="2">
         <v>1996</v>
       </c>
@@ -8647,40 +7620,13 @@
         <v>3.4091547073655053</v>
       </c>
       <c r="G58" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.21854813017108654</v>
       </c>
       <c r="H58" s="15"/>
-      <c r="I58" s="273">
-        <f t="shared" si="1"/>
-        <v>1996</v>
-      </c>
-      <c r="J58" s="38">
-        <f t="shared" si="2"/>
-        <v>23.621022136604171</v>
-      </c>
-      <c r="K58" s="38">
-        <f t="shared" si="3"/>
-        <v>4.6542840655299997</v>
-      </c>
-      <c r="L58" s="38">
-        <f t="shared" si="4"/>
-        <v>8.3174666666666663</v>
-      </c>
-      <c r="M58" s="38">
-        <f t="shared" si="5"/>
-        <v>6.6562624645000001</v>
-      </c>
-      <c r="N58" s="38">
-        <f t="shared" si="6"/>
-        <v>12.500233927006853</v>
-      </c>
-      <c r="O58" s="38">
-        <f t="shared" si="7"/>
-        <v>0.80134314396065065</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="38"/>
+    </row>
+    <row r="59" spans="1:9" ht="17" customHeight="1">
       <c r="A59" s="2">
         <v>1997</v>
       </c>
@@ -8700,40 +7646,13 @@
         <v>3.018486367866505</v>
       </c>
       <c r="G59" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.79216385027106462</v>
       </c>
       <c r="H59" s="15"/>
-      <c r="I59" s="273">
-        <f t="shared" si="1"/>
-        <v>1997</v>
-      </c>
-      <c r="J59" s="38">
-        <f t="shared" si="2"/>
-        <v>24.012936278358282</v>
-      </c>
-      <c r="K59" s="38">
-        <f t="shared" si="3"/>
-        <v>6.3940634343666671</v>
-      </c>
-      <c r="L59" s="38">
-        <f t="shared" si="4"/>
-        <v>15.391200000000003</v>
-      </c>
-      <c r="M59" s="38">
-        <f t="shared" si="5"/>
-        <v>6.8526171482083322</v>
-      </c>
-      <c r="N59" s="38">
-        <f t="shared" si="6"/>
-        <v>11.067783348843852</v>
-      </c>
-      <c r="O59" s="38">
-        <f t="shared" si="7"/>
-        <v>-2.9046007843272368</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" spans="1:9" ht="17" customHeight="1">
       <c r="A60" s="2">
         <v>1998</v>
       </c>
@@ -8753,40 +7672,13 @@
         <v>1.6542064764077344</v>
       </c>
       <c r="G60" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-1.9072451640307415</v>
       </c>
       <c r="H60" s="15"/>
-      <c r="I60" s="273">
-        <f t="shared" si="1"/>
-        <v>1998</v>
-      </c>
-      <c r="J60" s="38">
-        <f t="shared" si="2"/>
-        <v>24.08362146264064</v>
-      </c>
-      <c r="K60" s="38">
-        <f t="shared" si="3"/>
-        <v>4.3691968699499997</v>
-      </c>
-      <c r="L60" s="38">
-        <f t="shared" si="4"/>
-        <v>21.843066666666669</v>
-      </c>
-      <c r="M60" s="38">
-        <f t="shared" si="5"/>
-        <v>7.5375601872083324</v>
-      </c>
-      <c r="N60" s="38">
-        <f t="shared" si="6"/>
-        <v>6.0654237468283592</v>
-      </c>
-      <c r="O60" s="38">
-        <f t="shared" si="7"/>
-        <v>-6.9932322681127195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="38"/>
+    </row>
+    <row r="61" spans="1:9" ht="17" customHeight="1">
       <c r="A61" s="2">
         <v>1999</v>
       </c>
@@ -8806,40 +7698,13 @@
         <v>3.5766555074054129</v>
       </c>
       <c r="G61" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.67567272025972969</v>
       </c>
       <c r="H61" s="15"/>
-      <c r="I61" s="273">
-        <f t="shared" si="1"/>
-        <v>1999</v>
-      </c>
-      <c r="J61" s="38">
-        <f t="shared" si="2"/>
-        <v>24.029592561500845</v>
-      </c>
-      <c r="K61" s="38">
-        <f t="shared" si="3"/>
-        <v>4.2752847100333335</v>
-      </c>
-      <c r="L61" s="38">
-        <f t="shared" si="4"/>
-        <v>10.494000000000002</v>
-      </c>
-      <c r="M61" s="38">
-        <f t="shared" si="5"/>
-        <v>7.1739403853333341</v>
-      </c>
-      <c r="N61" s="38">
-        <f t="shared" si="6"/>
-        <v>13.114403527153181</v>
-      </c>
-      <c r="O61" s="38">
-        <f t="shared" si="7"/>
-        <v>-2.477466640952342</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="38"/>
+    </row>
+    <row r="62" spans="1:9" ht="17" customHeight="1">
       <c r="A62" s="2">
         <v>2000</v>
       </c>
@@ -8859,40 +7724,13 @@
         <v>3.9862280108718076</v>
       </c>
       <c r="G62" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.47649914732845922</v>
       </c>
       <c r="H62" s="15"/>
-      <c r="I62" s="273">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="J62" s="38">
-        <f t="shared" si="2"/>
-        <v>24.657999968867276</v>
-      </c>
-      <c r="K62" s="38">
-        <f t="shared" si="3"/>
-        <v>4.6928375184166669</v>
-      </c>
-      <c r="L62" s="38">
-        <f t="shared" si="4"/>
-        <v>9.638933333333334</v>
-      </c>
-      <c r="M62" s="38">
-        <f t="shared" si="5"/>
-        <v>6.8428983209583327</v>
-      </c>
-      <c r="N62" s="38">
-        <f t="shared" si="6"/>
-        <v>14.616169373196627</v>
-      </c>
-      <c r="O62" s="38">
-        <f t="shared" si="7"/>
-        <v>-1.7471635402043504</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="38"/>
+    </row>
+    <row r="63" spans="1:9" ht="17" customHeight="1">
       <c r="A63" s="2">
         <v>2001</v>
       </c>
@@ -8912,40 +7750,13 @@
         <v>2.3537512315163567</v>
       </c>
       <c r="G63" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>4.7162287141967241E-2</v>
       </c>
       <c r="H63" s="15"/>
-      <c r="I63" s="273">
-        <f t="shared" si="1"/>
-        <v>2001</v>
-      </c>
-      <c r="J63" s="38">
-        <f t="shared" si="2"/>
-        <v>25.247777128597182</v>
-      </c>
-      <c r="K63" s="38">
-        <f t="shared" si="3"/>
-        <v>4.2053545479000007</v>
-      </c>
-      <c r="L63" s="38">
-        <f t="shared" si="4"/>
-        <v>14.302933333333334</v>
-      </c>
-      <c r="M63" s="38">
-        <f t="shared" si="5"/>
-        <v>6.3468487747499998</v>
-      </c>
-      <c r="N63" s="38">
-        <f t="shared" si="6"/>
-        <v>8.630421182226641</v>
-      </c>
-      <c r="O63" s="38">
-        <f t="shared" si="7"/>
-        <v>0.17292838618721321</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="38"/>
+    </row>
+    <row r="64" spans="1:9" ht="17" customHeight="1">
       <c r="A64" s="2">
         <v>2002</v>
       </c>
@@ -8965,40 +7776,13 @@
         <v>0.88036663264949511</v>
       </c>
       <c r="G64" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.33121591085291868</v>
       </c>
       <c r="H64" s="15"/>
-      <c r="I64" s="273">
-        <f t="shared" si="1"/>
-        <v>2002</v>
-      </c>
-      <c r="J64" s="38">
-        <f t="shared" si="2"/>
-        <v>25.617092085025519</v>
-      </c>
-      <c r="K64" s="38">
-        <f t="shared" si="3"/>
-        <v>4.791446481066667</v>
-      </c>
-      <c r="L64" s="38">
-        <f t="shared" si="4"/>
-        <v>18.500533333333333</v>
-      </c>
-      <c r="M64" s="38">
-        <f t="shared" si="5"/>
-        <v>7.4655359065833338</v>
-      </c>
-      <c r="N64" s="38">
-        <f t="shared" si="6"/>
-        <v>3.2280109863814821</v>
-      </c>
-      <c r="O64" s="38">
-        <f t="shared" si="7"/>
-        <v>1.2144583397940352</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="38"/>
+    </row>
+    <row r="65" spans="1:11" ht="17" customHeight="1">
       <c r="A65" s="2">
         <v>2003</v>
       </c>
@@ -9018,40 +7802,13 @@
         <v>2.4911559309298368</v>
       </c>
       <c r="G65" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.7030652893089897</v>
       </c>
       <c r="H65" s="15"/>
-      <c r="I65" s="273">
-        <f t="shared" si="1"/>
-        <v>2003</v>
-      </c>
-      <c r="J65" s="38">
-        <f t="shared" si="2"/>
-        <v>27.01493446252644</v>
-      </c>
-      <c r="K65" s="38">
-        <f t="shared" si="3"/>
-        <v>4.9738976090833331</v>
-      </c>
-      <c r="L65" s="38">
-        <f t="shared" si="4"/>
-        <v>17.645466666666668</v>
-      </c>
-      <c r="M65" s="38">
-        <f t="shared" si="5"/>
-        <v>7.7870330523333324</v>
-      </c>
-      <c r="N65" s="38">
-        <f t="shared" si="6"/>
-        <v>9.1342384134094008</v>
-      </c>
-      <c r="O65" s="38">
-        <f t="shared" si="7"/>
-        <v>-2.5779060607996289</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="38"/>
+    </row>
+    <row r="66" spans="1:11" ht="17" customHeight="1">
       <c r="A66" s="2">
         <v>2004</v>
       </c>
@@ -9071,40 +7828,13 @@
         <v>3.7548292940471981</v>
       </c>
       <c r="G66" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-4.8989616959079996E-2</v>
       </c>
       <c r="H66" s="15"/>
-      <c r="I66" s="273">
-        <f t="shared" si="1"/>
-        <v>2004</v>
-      </c>
-      <c r="J66" s="38">
-        <f t="shared" si="2"/>
-        <v>28.357364085189772</v>
-      </c>
-      <c r="K66" s="38">
-        <f t="shared" si="3"/>
-        <v>4.7568328899666659</v>
-      </c>
-      <c r="L66" s="38">
-        <f t="shared" si="4"/>
-        <v>12.048666666666669</v>
-      </c>
-      <c r="M66" s="38">
-        <f t="shared" si="5"/>
-        <v>7.4774514925000011</v>
-      </c>
-      <c r="N66" s="38">
-        <f t="shared" si="6"/>
-        <v>13.767707411506393</v>
-      </c>
-      <c r="O66" s="38">
-        <f t="shared" si="7"/>
-        <v>-0.17962859551662666</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="38"/>
+    </row>
+    <row r="67" spans="1:11" ht="17" customHeight="1">
       <c r="A67" s="2">
         <v>2005</v>
       </c>
@@ -9124,40 +7854,13 @@
         <v>2.036688170885284</v>
       </c>
       <c r="G67" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-7.8702591096575958E-2</v>
       </c>
       <c r="H67" s="15"/>
-      <c r="I67" s="273">
-        <f t="shared" si="1"/>
-        <v>2005</v>
-      </c>
-      <c r="J67" s="38">
-        <f t="shared" si="2"/>
-        <v>29.453505563583601</v>
-      </c>
-      <c r="K67" s="38">
-        <f t="shared" si="3"/>
-        <v>4.3292909487666664</v>
-      </c>
-      <c r="L67" s="38">
-        <f t="shared" si="4"/>
-        <v>18.966933333333333</v>
-      </c>
-      <c r="M67" s="38">
-        <f t="shared" si="5"/>
-        <v>7.6365827197916678</v>
-      </c>
-      <c r="N67" s="38">
-        <f t="shared" si="6"/>
-        <v>7.4678566265793753</v>
-      </c>
-      <c r="O67" s="38">
-        <f t="shared" si="7"/>
-        <v>-0.28857616735411185</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="38"/>
+    </row>
+    <row r="68" spans="1:11" ht="17" customHeight="1">
       <c r="A68" s="2">
         <v>2006</v>
       </c>
@@ -9177,40 +7880,13 @@
         <v>3.3616544044257357</v>
       </c>
       <c r="G68" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.24334233555021001</v>
       </c>
       <c r="H68" s="15"/>
-      <c r="I68" s="273">
-        <f t="shared" si="1"/>
-        <v>2006</v>
-      </c>
-      <c r="J68" s="38">
-        <f t="shared" si="2"/>
-        <v>30.521029683928464</v>
-      </c>
-      <c r="K68" s="38">
-        <f t="shared" si="3"/>
-        <v>4.4902082672333341</v>
-      </c>
-      <c r="L68" s="38">
-        <f t="shared" si="4"/>
-        <v>13.758800000000001</v>
-      </c>
-      <c r="M68" s="38">
-        <f t="shared" si="5"/>
-        <v>8.0341165712499993</v>
-      </c>
-      <c r="N68" s="38">
-        <f t="shared" si="6"/>
-        <v>12.326066149561031</v>
-      </c>
-      <c r="O68" s="38">
-        <f t="shared" si="7"/>
-        <v>0.89225523035077003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="38"/>
+    </row>
+    <row r="69" spans="1:11" ht="17" customHeight="1">
       <c r="A69" s="2">
         <v>2007</v>
       </c>
@@ -9230,40 +7906,13 @@
         <v>3.1763800362605066</v>
       </c>
       <c r="G69" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.32476571977527335</v>
       </c>
       <c r="H69" s="15"/>
-      <c r="I69" s="273">
-        <f t="shared" si="1"/>
-        <v>2007</v>
-      </c>
-      <c r="J69" s="38">
-        <f t="shared" si="2"/>
-        <v>31.133059085829185</v>
-      </c>
-      <c r="K69" s="38">
-        <f t="shared" si="3"/>
-        <v>3.8470755458666663</v>
-      </c>
-      <c r="L69" s="38">
-        <f t="shared" si="4"/>
-        <v>16.246266666666667</v>
-      </c>
-      <c r="M69" s="38">
-        <f t="shared" si="5"/>
-        <v>8.2779488045833336</v>
-      </c>
-      <c r="N69" s="38">
-        <f t="shared" si="6"/>
-        <v>11.646726799621858</v>
-      </c>
-      <c r="O69" s="38">
-        <f t="shared" si="7"/>
-        <v>-1.1908076391760023</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="38"/>
+    </row>
+    <row r="70" spans="1:11" ht="17" customHeight="1">
       <c r="A70" s="2">
         <v>2008</v>
       </c>
@@ -9283,40 +7932,13 @@
         <v>3.9943762360589119</v>
       </c>
       <c r="G70" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-7.8035977176242E-2</v>
       </c>
       <c r="H70" s="15"/>
-      <c r="I70" s="273">
-        <f t="shared" si="1"/>
-        <v>2008</v>
-      </c>
-      <c r="J70" s="38">
-        <f t="shared" si="2"/>
-        <v>32.143770584411456</v>
-      </c>
-      <c r="K70" s="38">
-        <f t="shared" si="3"/>
-        <v>4.0420000705333337</v>
-      </c>
-      <c r="L70" s="38">
-        <f t="shared" si="4"/>
-        <v>13.836533333333334</v>
-      </c>
-      <c r="M70" s="38">
-        <f t="shared" si="5"/>
-        <v>7.9893230390416656</v>
-      </c>
-      <c r="N70" s="38">
-        <f t="shared" si="6"/>
-        <v>14.646046198882678</v>
-      </c>
-      <c r="O70" s="38">
-        <f t="shared" si="7"/>
-        <v>-0.28613191631288731</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="38"/>
+    </row>
+    <row r="71" spans="1:11" ht="17" customHeight="1">
       <c r="A71" s="2">
         <v>2009</v>
       </c>
@@ -9336,40 +7958,13 @@
         <v>3.0953711243892741</v>
       </c>
       <c r="G71" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.4650861632580572</v>
       </c>
       <c r="H71" s="15"/>
-      <c r="I71" s="273">
-        <f t="shared" si="1"/>
-        <v>2009</v>
-      </c>
-      <c r="J71" s="38">
-        <f t="shared" si="2"/>
-        <v>31.860209339556885</v>
-      </c>
-      <c r="K71" s="38">
-        <f t="shared" si="3"/>
-        <v>5.5711751267333334</v>
-      </c>
-      <c r="L71" s="38">
-        <f t="shared" si="4"/>
-        <v>12.592800000000002</v>
-      </c>
-      <c r="M71" s="38">
-        <f t="shared" si="5"/>
-        <v>8.1169077449166664</v>
-      </c>
-      <c r="N71" s="38">
-        <f t="shared" si="6"/>
-        <v>11.349694122760672</v>
-      </c>
-      <c r="O71" s="38">
-        <f t="shared" si="7"/>
-        <v>5.3719825986128766</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="38"/>
+    </row>
+    <row r="72" spans="1:11" ht="17" customHeight="1">
       <c r="A72" s="2">
         <v>2010</v>
       </c>
@@ -9389,40 +7984,13 @@
         <v>3.0432838944752256</v>
       </c>
       <c r="G72" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.11286788515773871</v>
       </c>
       <c r="H72" s="15"/>
-      <c r="I72" s="273">
-        <f t="shared" si="1"/>
-        <v>2010</v>
-      </c>
-      <c r="J72" s="38">
-        <f t="shared" si="2"/>
-        <v>33.443316421837537</v>
-      </c>
-      <c r="K72" s="38">
-        <f t="shared" si="3"/>
-        <v>5.0352448334833344</v>
-      </c>
-      <c r="L72" s="38">
-        <f t="shared" si="4"/>
-        <v>18.966933333333333</v>
-      </c>
-      <c r="M72" s="38">
-        <f t="shared" si="5"/>
-        <v>7.9390713966666659</v>
-      </c>
-      <c r="N72" s="38">
-        <f t="shared" si="6"/>
-        <v>11.158707613075826</v>
-      </c>
-      <c r="O72" s="38">
-        <f t="shared" si="7"/>
-        <v>0.41384891224504194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I72" s="38"/>
+    </row>
+    <row r="73" spans="1:11" ht="17" customHeight="1">
       <c r="A73" s="2">
         <v>2011</v>
       </c>
@@ -9442,40 +8010,13 @@
         <v>3.9797130687427087</v>
       </c>
       <c r="G73" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.94276284185000669</v>
       </c>
       <c r="H73" s="40"/>
-      <c r="I73" s="273">
-        <f t="shared" si="1"/>
-        <v>2011</v>
-      </c>
-      <c r="J73" s="38">
-        <f t="shared" si="2"/>
-        <v>34.816560319356626</v>
-      </c>
-      <c r="K73" s="38">
-        <f t="shared" si="3"/>
-        <v>4.8413973325666664</v>
-      </c>
-      <c r="L73" s="38">
-        <f t="shared" si="4"/>
-        <v>13.059199999999999</v>
-      </c>
-      <c r="M73" s="38">
-        <f t="shared" si="5"/>
-        <v>8.5496793130833328</v>
-      </c>
-      <c r="N73" s="38">
-        <f t="shared" si="6"/>
-        <v>14.592281252056599</v>
-      </c>
-      <c r="O73" s="38">
-        <f t="shared" si="7"/>
-        <v>3.4567970867833577</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I73" s="38"/>
+    </row>
+    <row r="74" spans="1:11" ht="17" customHeight="1">
       <c r="A74" s="2">
         <v>2012</v>
       </c>
@@ -9495,40 +8036,13 @@
         <v>2.0829904178838312</v>
       </c>
       <c r="G74" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.5354838777271134</v>
       </c>
       <c r="H74" s="38"/>
-      <c r="I74" s="273">
-        <f t="shared" si="1"/>
-        <v>2012</v>
-      </c>
-      <c r="J74" s="38">
-        <f t="shared" si="2"/>
-        <v>35.445486777656797</v>
-      </c>
-      <c r="K74" s="38">
-        <f t="shared" si="3"/>
-        <v>5.0550105805833327</v>
-      </c>
-      <c r="L74" s="38">
-        <f t="shared" si="4"/>
-        <v>18.500533333333333</v>
-      </c>
-      <c r="M74" s="38">
-        <f t="shared" si="5"/>
-        <v>8.7322249410000001</v>
-      </c>
-      <c r="N74" s="38">
-        <f t="shared" si="6"/>
-        <v>7.6376315322407144</v>
-      </c>
-      <c r="O74" s="38">
-        <f t="shared" si="7"/>
-        <v>5.6301075516660823</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74" s="38"/>
+    </row>
+    <row r="75" spans="1:11" ht="17" customHeight="1">
       <c r="A75" s="2">
         <v>2013</v>
       </c>
@@ -9548,40 +8062,13 @@
         <v>3.1982636142734595</v>
       </c>
       <c r="G75" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.38635722919295645</v>
       </c>
       <c r="H75" s="38"/>
-      <c r="I75" s="273">
-        <f t="shared" si="1"/>
-        <v>2013</v>
-      </c>
-      <c r="J75" s="38">
-        <f t="shared" si="2"/>
-        <v>35.805202715851863</v>
-      </c>
-      <c r="K75" s="38">
-        <f t="shared" si="3"/>
-        <v>5.1655303358999998</v>
-      </c>
-      <c r="L75" s="38">
-        <f t="shared" si="4"/>
-        <v>18.966933333333333</v>
-      </c>
-      <c r="M75" s="38">
-        <f t="shared" si="5"/>
-        <v>8.8601899590416675</v>
-      </c>
-      <c r="N75" s="38">
-        <f t="shared" si="6"/>
-        <v>11.726966585669352</v>
-      </c>
-      <c r="O75" s="38">
-        <f t="shared" si="7"/>
-        <v>1.4166431737075069</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I75" s="38"/>
+    </row>
+    <row r="76" spans="1:11" ht="17" customHeight="1">
       <c r="A76" s="2">
         <v>2014</v>
       </c>
@@ -9601,40 +8088,13 @@
         <v>3.657857590593355</v>
       </c>
       <c r="G76" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>0.8186550811544766</v>
       </c>
       <c r="H76" s="64"/>
-      <c r="I76" s="273">
-        <f t="shared" si="1"/>
-        <v>2014</v>
-      </c>
-      <c r="J76" s="38">
-        <f t="shared" si="2"/>
-        <v>36.107682385583715</v>
-      </c>
-      <c r="K76" s="38">
-        <f t="shared" si="3"/>
-        <v>5.0555209800333341</v>
-      </c>
-      <c r="L76" s="38">
-        <f t="shared" si="4"/>
-        <v>15.546666666666667</v>
-      </c>
-      <c r="M76" s="38">
-        <f t="shared" si="5"/>
-        <v>9.2026569025416638</v>
-      </c>
-      <c r="N76" s="38">
-        <f t="shared" si="6"/>
-        <v>13.412144498842302</v>
-      </c>
-      <c r="O76" s="38">
-        <f t="shared" si="7"/>
-        <v>3.0017352975664142</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I76" s="38"/>
+    </row>
+    <row r="77" spans="1:11" ht="17" customHeight="1">
       <c r="A77" s="2">
         <v>2015</v>
       </c>
@@ -9654,40 +8114,13 @@
         <v>1.4981125204654571</v>
       </c>
       <c r="G77" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>1.0482531665550336</v>
       </c>
       <c r="H77" s="64"/>
-      <c r="I77" s="273">
-        <f t="shared" si="1"/>
-        <v>2015</v>
-      </c>
-      <c r="J77" s="38">
-        <f t="shared" si="2"/>
-        <v>36.045392199283462</v>
-      </c>
-      <c r="K77" s="38">
-        <f t="shared" si="3"/>
-        <v>5.570002262</v>
-      </c>
-      <c r="L77" s="38">
-        <f t="shared" si="4"/>
-        <v>22.8536</v>
-      </c>
-      <c r="M77" s="38">
-        <f t="shared" si="5"/>
-        <v>9.4251202755416656</v>
-      </c>
-      <c r="N77" s="38">
-        <f t="shared" si="6"/>
-        <v>5.4930792417066767</v>
-      </c>
-      <c r="O77" s="38">
-        <f t="shared" si="7"/>
-        <v>3.8435949440351234</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="38"/>
+    </row>
+    <row r="78" spans="1:11" ht="17" customHeight="1">
       <c r="A78" s="2">
         <v>2016</v>
       </c>
@@ -9707,39 +8140,12 @@
         <v>2.7270003894635346</v>
       </c>
       <c r="G78" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="0"/>
         <v>-0.2336094522499117</v>
       </c>
-      <c r="I78" s="273">
-        <f t="shared" si="1"/>
-        <v>2016</v>
-      </c>
-      <c r="J78" s="38">
-        <f t="shared" si="2"/>
-        <v>36.208921514859945</v>
-      </c>
-      <c r="K78" s="38">
-        <f t="shared" si="3"/>
-        <v>4.6584596238399998</v>
-      </c>
-      <c r="L78" s="38">
-        <f t="shared" si="4"/>
-        <v>22.154</v>
-      </c>
-      <c r="M78" s="38">
-        <f t="shared" si="5"/>
-        <v>9.5709477022499989</v>
-      </c>
-      <c r="N78" s="38">
-        <f t="shared" si="6"/>
-        <v>9.99900142803296</v>
-      </c>
-      <c r="O78" s="38">
-        <f t="shared" si="7"/>
-        <v>-0.85656799158300956</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I78" s="38"/>
+    </row>
+    <row r="79" spans="1:11" ht="17" customHeight="1">
       <c r="B79" s="120"/>
       <c r="C79" s="101"/>
       <c r="D79" s="38"/>
@@ -9748,59 +8154,59 @@
       <c r="G79" s="38"/>
       <c r="I79" s="38"/>
     </row>
-    <row r="80" spans="1:15" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J80" s="106"/>
       <c r="K80" s="106"/>
     </row>
-    <row r="81" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J81" s="106"/>
       <c r="K81" s="106"/>
     </row>
-    <row r="82" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J82" s="106"/>
       <c r="K82" s="106"/>
     </row>
-    <row r="83" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J83" s="106"/>
       <c r="K83" s="106"/>
     </row>
-    <row r="84" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J84" s="106"/>
       <c r="K84" s="106"/>
     </row>
-    <row r="85" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J85" s="106"/>
       <c r="K85" s="106"/>
     </row>
-    <row r="86" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J86" s="106"/>
       <c r="K86" s="106"/>
     </row>
-    <row r="87" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J87" s="106"/>
       <c r="K87" s="106"/>
     </row>
-    <row r="88" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J88" s="106"/>
       <c r="K88" s="106"/>
     </row>
-    <row r="89" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J89" s="106"/>
       <c r="K89" s="106"/>
     </row>
-    <row r="90" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J90" s="106"/>
       <c r="K90" s="106"/>
     </row>
-    <row r="91" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J91" s="106"/>
       <c r="K91" s="106"/>
     </row>
-    <row r="92" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="J92" s="106"/>
       <c r="K92" s="106"/>
     </row>
-    <row r="93" spans="1:11" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" customFormat="1" ht="17" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="9"/>
       <c r="C93" s="2"/>
@@ -9820,10 +8226,10 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="The atmospheric CO2 growth rate (variable uncertainty averaging 0.18 PgC/yr during 1980-2011) is estimated directly from atmospheric CO2 concentration measurements, and provided by the US National Oceanic and Atmospheric Administration Earth System Resear" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId1" display="The atmospheric CO2 growth rate (variable uncertainty averaging 0.18 PgC/yr during 1980-2011) is estimated directly from atmospheric CO2 concentration measurements, and provided by the US National Oceanic and Atmospheric Administration Earth System Resear"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9833,8 +8239,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="1" tint="0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:IP80"/>
@@ -9846,10 +8252,10 @@
       <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="11" style="1"/>
     <col min="8" max="8" width="11" style="13"/>
     <col min="9" max="249" width="11" style="1"/>
@@ -9857,7 +8263,7 @@
     <col min="251" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:250" ht="17" customHeight="1">
       <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
@@ -9883,7 +8289,7 @@
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
     </row>
-    <row r="2" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:250" ht="17" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="30" t="s">
         <v>32</v>
@@ -9910,7 +8316,7 @@
       <c r="V2" s="19"/>
       <c r="W2" s="19"/>
     </row>
-    <row r="3" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:250" ht="17" customHeight="1">
       <c r="B3" s="20" t="s">
         <v>28</v>
       </c>
@@ -9936,7 +8342,7 @@
       <c r="V3" s="20"/>
       <c r="W3" s="20"/>
     </row>
-    <row r="4" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:250" ht="17" customHeight="1">
       <c r="B4" s="25" t="s">
         <v>9</v>
       </c>
@@ -9962,7 +8368,7 @@
       <c r="V4" s="21"/>
       <c r="W4" s="21"/>
     </row>
-    <row r="5" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:250" ht="17" customHeight="1">
       <c r="B5" s="46" t="s">
         <v>70</v>
       </c>
@@ -9988,7 +8394,7 @@
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
     </row>
-    <row r="6" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:250" ht="17" customHeight="1">
       <c r="B6" s="180" t="s">
         <v>106</v>
       </c>
@@ -10014,7 +8420,7 @@
       <c r="V6" s="21"/>
       <c r="W6" s="21"/>
     </row>
-    <row r="7" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:250" ht="17" customHeight="1">
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
         <v>69</v>
@@ -10040,7 +8446,7 @@
       <c r="V7" s="21"/>
       <c r="W7" s="21"/>
     </row>
-    <row r="8" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:250" ht="17" customHeight="1">
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
         <v>115</v>
@@ -10066,7 +8472,7 @@
       <c r="V8" s="21"/>
       <c r="W8" s="21"/>
     </row>
-    <row r="9" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:250" ht="17" customHeight="1">
       <c r="B9" s="21" t="s">
         <v>130</v>
       </c>
@@ -10092,7 +8498,7 @@
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
     </row>
-    <row r="10" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:250" ht="17" customHeight="1">
       <c r="B10" s="187" t="s">
         <v>143</v>
       </c>
@@ -10118,7 +8524,7 @@
       <c r="V10" s="21"/>
       <c r="W10" s="21"/>
     </row>
-    <row r="11" spans="1:250" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:250" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="B11" s="183"/>
       <c r="C11" s="184"/>
       <c r="D11" s="184"/>
@@ -10129,7 +8535,7 @@
       <c r="I11" s="184"/>
       <c r="IP11" s="157"/>
     </row>
-    <row r="12" spans="1:250" s="6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:250" s="6" customFormat="1" ht="17" customHeight="1">
       <c r="A12" s="157" t="s">
         <v>23</v>
       </c>
@@ -10380,7 +8786,7 @@
       <c r="IM12" s="165"/>
       <c r="IN12" s="165"/>
     </row>
-    <row r="13" spans="1:250" s="57" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:250" s="57" customFormat="1" ht="17" customHeight="1">
       <c r="A13" s="202" t="s">
         <v>22</v>
       </c>
@@ -10527,7 +8933,7 @@
       <c r="IM13" s="61"/>
       <c r="IN13" s="61"/>
     </row>
-    <row r="14" spans="1:250" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:250" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A14" s="2">
         <v>1959</v>
       </c>
@@ -10707,7 +9113,7 @@
       <c r="IM14" s="58"/>
       <c r="IO14" s="57"/>
     </row>
-    <row r="15" spans="1:250" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:250" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A15" s="2">
         <v>1960</v>
       </c>
@@ -10887,7 +9293,7 @@
       <c r="IM15" s="58"/>
       <c r="IO15" s="57"/>
     </row>
-    <row r="16" spans="1:250" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:250" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A16" s="2">
         <v>1961</v>
       </c>
@@ -11067,7 +9473,7 @@
       <c r="IM16" s="58"/>
       <c r="IO16" s="57"/>
     </row>
-    <row r="17" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A17" s="2">
         <v>1962</v>
       </c>
@@ -11247,7 +9653,7 @@
       <c r="IM17" s="58"/>
       <c r="IO17" s="57"/>
     </row>
-    <row r="18" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A18" s="2">
         <v>1963</v>
       </c>
@@ -11426,7 +9832,7 @@
       <c r="IM18" s="58"/>
       <c r="IO18" s="57"/>
     </row>
-    <row r="19" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A19" s="2">
         <v>1964</v>
       </c>
@@ -11606,7 +10012,7 @@
       <c r="IM19" s="58"/>
       <c r="IO19" s="57"/>
     </row>
-    <row r="20" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A20" s="2">
         <v>1965</v>
       </c>
@@ -11786,7 +10192,7 @@
       <c r="IM20" s="58"/>
       <c r="IO20" s="57"/>
     </row>
-    <row r="21" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A21" s="2">
         <v>1966</v>
       </c>
@@ -11965,7 +10371,7 @@
       <c r="IM21" s="58"/>
       <c r="IO21" s="57"/>
     </row>
-    <row r="22" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A22" s="2">
         <v>1967</v>
       </c>
@@ -12144,7 +10550,7 @@
       <c r="IM22" s="58"/>
       <c r="IO22" s="57"/>
     </row>
-    <row r="23" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A23" s="2">
         <v>1968</v>
       </c>
@@ -12324,7 +10730,7 @@
       <c r="IM23" s="58"/>
       <c r="IO23" s="57"/>
     </row>
-    <row r="24" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A24" s="2">
         <v>1969</v>
       </c>
@@ -12504,7 +10910,7 @@
       <c r="IM24" s="58"/>
       <c r="IO24" s="57"/>
     </row>
-    <row r="25" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A25" s="2">
         <v>1970</v>
       </c>
@@ -12684,7 +11090,7 @@
       <c r="IM25" s="58"/>
       <c r="IO25" s="57"/>
     </row>
-    <row r="26" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="2">
         <v>1971</v>
       </c>
@@ -12864,7 +11270,7 @@
       <c r="IM26" s="58"/>
       <c r="IO26" s="57"/>
     </row>
-    <row r="27" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A27" s="2">
         <v>1972</v>
       </c>
@@ -13044,7 +11450,7 @@
       <c r="IM27" s="58"/>
       <c r="IO27" s="57"/>
     </row>
-    <row r="28" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A28" s="2">
         <v>1973</v>
       </c>
@@ -13224,7 +11630,7 @@
       <c r="IM28" s="58"/>
       <c r="IO28" s="57"/>
     </row>
-    <row r="29" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A29" s="2">
         <v>1974</v>
       </c>
@@ -13404,7 +11810,7 @@
       <c r="IM29" s="58"/>
       <c r="IO29" s="57"/>
     </row>
-    <row r="30" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A30" s="2">
         <v>1975</v>
       </c>
@@ -13585,7 +11991,7 @@
       <c r="IM30" s="58"/>
       <c r="IO30" s="57"/>
     </row>
-    <row r="31" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A31" s="2">
         <v>1976</v>
       </c>
@@ -13765,7 +12171,7 @@
       <c r="IM31" s="58"/>
       <c r="IO31" s="57"/>
     </row>
-    <row r="32" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A32" s="2">
         <v>1977</v>
       </c>
@@ -13945,7 +12351,7 @@
       <c r="IM32" s="58"/>
       <c r="IO32" s="57"/>
     </row>
-    <row r="33" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A33" s="2">
         <v>1978</v>
       </c>
@@ -14125,7 +12531,7 @@
       <c r="IM33" s="58"/>
       <c r="IO33" s="57"/>
     </row>
-    <row r="34" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A34" s="2">
         <v>1979</v>
       </c>
@@ -14305,7 +12711,7 @@
       <c r="IM34" s="58"/>
       <c r="IO34" s="57"/>
     </row>
-    <row r="35" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A35" s="2">
         <v>1980</v>
       </c>
@@ -14485,7 +12891,7 @@
       <c r="IM35" s="58"/>
       <c r="IO35" s="57"/>
     </row>
-    <row r="36" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A36" s="2">
         <v>1981</v>
       </c>
@@ -14664,7 +13070,7 @@
       <c r="IM36" s="58"/>
       <c r="IO36" s="57"/>
     </row>
-    <row r="37" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A37" s="2">
         <v>1982</v>
       </c>
@@ -14843,7 +13249,7 @@
       <c r="IM37" s="58"/>
       <c r="IO37" s="57"/>
     </row>
-    <row r="38" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A38" s="2">
         <v>1983</v>
       </c>
@@ -15022,7 +13428,7 @@
       <c r="IM38" s="58"/>
       <c r="IO38" s="57"/>
     </row>
-    <row r="39" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A39" s="2">
         <v>1984</v>
       </c>
@@ -15201,7 +13607,7 @@
       <c r="IM39" s="58"/>
       <c r="IO39" s="57"/>
     </row>
-    <row r="40" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A40" s="2">
         <v>1985</v>
       </c>
@@ -15377,7 +13783,7 @@
       <c r="IM40" s="58"/>
       <c r="IO40" s="57"/>
     </row>
-    <row r="41" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A41" s="2">
         <v>1986</v>
       </c>
@@ -15555,7 +13961,7 @@
       <c r="IM41" s="58"/>
       <c r="IO41" s="57"/>
     </row>
-    <row r="42" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A42" s="2">
         <v>1987</v>
       </c>
@@ -15725,7 +14131,7 @@
       <c r="IL42" s="58"/>
       <c r="IO42" s="57"/>
     </row>
-    <row r="43" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A43" s="2">
         <v>1988</v>
       </c>
@@ -15895,7 +14301,7 @@
       <c r="IL43" s="58"/>
       <c r="IO43" s="57"/>
     </row>
-    <row r="44" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A44" s="2">
         <v>1989</v>
       </c>
@@ -16065,7 +14471,7 @@
       <c r="IL44" s="58"/>
       <c r="IO44" s="57"/>
     </row>
-    <row r="45" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A45" s="2">
         <v>1990</v>
       </c>
@@ -16234,7 +14640,7 @@
       <c r="IL45" s="58"/>
       <c r="IO45" s="57"/>
     </row>
-    <row r="46" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A46" s="2">
         <v>1991</v>
       </c>
@@ -16404,7 +14810,7 @@
       <c r="IL46" s="58"/>
       <c r="IO46" s="57"/>
     </row>
-    <row r="47" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A47" s="2">
         <v>1992</v>
       </c>
@@ -16573,7 +14979,7 @@
       <c r="IL47" s="58"/>
       <c r="IO47" s="57"/>
     </row>
-    <row r="48" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A48" s="2">
         <v>1993</v>
       </c>
@@ -16742,7 +15148,7 @@
       <c r="IL48" s="58"/>
       <c r="IO48" s="57"/>
     </row>
-    <row r="49" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A49" s="2">
         <v>1994</v>
       </c>
@@ -16910,7 +15316,7 @@
       <c r="IL49" s="58"/>
       <c r="IO49" s="57"/>
     </row>
-    <row r="50" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A50" s="2">
         <v>1995</v>
       </c>
@@ -17077,7 +15483,7 @@
       <c r="IL50" s="58"/>
       <c r="IO50" s="57"/>
     </row>
-    <row r="51" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A51" s="2">
         <v>1996</v>
       </c>
@@ -17243,7 +15649,7 @@
       <c r="IL51" s="58"/>
       <c r="IO51" s="57"/>
     </row>
-    <row r="52" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A52" s="2">
         <v>1997</v>
       </c>
@@ -17408,7 +15814,7 @@
       <c r="IL52" s="58"/>
       <c r="IO52" s="57"/>
     </row>
-    <row r="53" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A53" s="2">
         <v>1998</v>
       </c>
@@ -17573,7 +15979,7 @@
       <c r="IL53" s="58"/>
       <c r="IO53" s="57"/>
     </row>
-    <row r="54" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A54" s="2">
         <v>1999</v>
       </c>
@@ -17738,7 +16144,7 @@
       <c r="IL54" s="58"/>
       <c r="IO54" s="57"/>
     </row>
-    <row r="55" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A55" s="2">
         <v>2000</v>
       </c>
@@ -17902,7 +16308,7 @@
       <c r="IM55" s="58"/>
       <c r="IO55" s="57"/>
     </row>
-    <row r="56" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A56" s="2">
         <v>2001</v>
       </c>
@@ -18066,7 +16472,7 @@
       <c r="IM56" s="58"/>
       <c r="IO56" s="57"/>
     </row>
-    <row r="57" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A57" s="2">
         <v>2002</v>
       </c>
@@ -18230,7 +16636,7 @@
       <c r="IM57" s="58"/>
       <c r="IO57" s="57"/>
     </row>
-    <row r="58" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A58" s="2">
         <v>2003</v>
       </c>
@@ -18394,7 +16800,7 @@
       <c r="IM58" s="58"/>
       <c r="IO58" s="57"/>
     </row>
-    <row r="59" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A59" s="2">
         <v>2004</v>
       </c>
@@ -18625,7 +17031,7 @@
       <c r="IN59" s="58"/>
       <c r="IO59" s="57"/>
     </row>
-    <row r="60" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A60" s="2">
         <v>2005</v>
       </c>
@@ -18856,7 +17262,7 @@
       <c r="IN60" s="58"/>
       <c r="IO60" s="57"/>
     </row>
-    <row r="61" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A61" s="2">
         <v>2006</v>
       </c>
@@ -19118,7 +17524,7 @@
       <c r="IN61" s="58"/>
       <c r="IO61" s="61"/>
     </row>
-    <row r="62" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A62" s="2">
         <v>2007</v>
       </c>
@@ -19250,7 +17656,7 @@
       <c r="EB62" s="60"/>
       <c r="IO62" s="57"/>
     </row>
-    <row r="63" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A63" s="2">
         <v>2008</v>
       </c>
@@ -19379,7 +17785,7 @@
       <c r="EB63" s="60"/>
       <c r="IO63" s="57"/>
     </row>
-    <row r="64" spans="1:249" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:249" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A64" s="2">
         <v>2009</v>
       </c>
@@ -19511,7 +17917,7 @@
       <c r="EB64" s="60"/>
       <c r="IO64" s="57"/>
     </row>
-    <row r="65" spans="1:250" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:250" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A65" s="2">
         <v>2010</v>
       </c>
@@ -19644,7 +18050,7 @@
       <c r="EB65" s="60"/>
       <c r="IO65" s="57"/>
     </row>
-    <row r="66" spans="1:250" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:250" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A66" s="2">
         <v>2011</v>
       </c>
@@ -19791,7 +18197,7 @@
       <c r="EB66" s="60"/>
       <c r="IO66" s="57"/>
     </row>
-    <row r="67" spans="1:250" s="56" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:250" s="56" customFormat="1" ht="17" customHeight="1">
       <c r="A67" s="63">
         <v>2012</v>
       </c>
@@ -19821,7 +18227,7 @@
       <c r="L67" s="62"/>
       <c r="IP67" s="57"/>
     </row>
-    <row r="68" spans="1:250" s="80" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:250" s="80" customFormat="1" ht="17" customHeight="1">
       <c r="A68" s="79">
         <v>2013</v>
       </c>
@@ -19852,7 +18258,7 @@
       <c r="L68" s="62"/>
       <c r="IP68" s="81"/>
     </row>
-    <row r="69" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:250" ht="17" customHeight="1">
       <c r="A69" s="1">
         <v>2014</v>
       </c>
@@ -19882,7 +18288,7 @@
       <c r="K69" s="56"/>
       <c r="L69" s="62"/>
     </row>
-    <row r="70" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:250" ht="17" customHeight="1">
       <c r="A70" s="1">
         <v>2015</v>
       </c>
@@ -19911,7 +18317,7 @@
       <c r="K70" s="56"/>
       <c r="L70" s="62"/>
     </row>
-    <row r="71" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:250" ht="17" customHeight="1">
       <c r="A71" s="1">
         <v>2016</v>
       </c>
@@ -19940,10 +18346,10 @@
       <c r="K71" s="56"/>
       <c r="L71" s="62"/>
     </row>
-    <row r="72" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:250" ht="17" customHeight="1">
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:250" ht="17" customHeight="1">
       <c r="A73" s="8"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -19952,7 +18358,7 @@
       <c r="F73" s="109"/>
       <c r="G73" s="109"/>
     </row>
-    <row r="74" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:250" ht="17" customHeight="1">
       <c r="A74" s="8"/>
       <c r="B74" s="13"/>
       <c r="C74" s="109"/>
@@ -19969,10 +18375,10 @@
       <c r="Q74" s="56"/>
       <c r="R74" s="56"/>
     </row>
-    <row r="75" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:250" ht="17" customHeight="1">
       <c r="A75" s="7"/>
     </row>
-    <row r="78" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:250" ht="17" customHeight="1">
       <c r="A78" s="8"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -19981,7 +18387,7 @@
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
     </row>
-    <row r="79" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:250" ht="17" customHeight="1">
       <c r="A79" s="8"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -19990,7 +18396,7 @@
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
     </row>
-    <row r="80" spans="1:250" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:250" ht="17" customHeight="1">
       <c r="A80" s="7"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -20012,8 +18418,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFC00000"/>
   </sheetPr>
   <dimension ref="A1:BE101"/>
@@ -20025,20 +18431,20 @@
       <selection pane="bottomRight" activeCell="M86" sqref="M86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="2"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1"/>
-    <col min="6" max="6" width="5.375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="11.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.33203125" style="1" customWidth="1"/>
     <col min="12" max="16" width="11" style="1"/>
-    <col min="17" max="17" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="1"/>
     <col min="19" max="19" width="6" style="1" customWidth="1"/>
     <col min="20" max="20" width="11" style="1"/>
@@ -20046,7 +18452,7 @@
     <col min="22" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" ht="17" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="17" t="s">
         <v>25</v>
@@ -20107,7 +18513,7 @@
       <c r="BD1" s="18"/>
       <c r="BE1" s="18"/>
     </row>
-    <row r="2" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" ht="17" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="19" t="s">
         <v>91</v>
@@ -20168,7 +18574,7 @@
       <c r="BD2" s="19"/>
       <c r="BE2" s="19"/>
     </row>
-    <row r="3" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" ht="17" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="35" t="s">
         <v>30</v>
@@ -20229,7 +18635,7 @@
       <c r="BD3" s="20"/>
       <c r="BE3" s="20"/>
     </row>
-    <row r="4" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" ht="17" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="84" t="s">
         <v>146</v>
@@ -20290,7 +18696,7 @@
       <c r="BD4" s="21"/>
       <c r="BE4" s="21"/>
     </row>
-    <row r="5" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" ht="17" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="69"/>
       <c r="C5" s="68" t="s">
@@ -20351,7 +18757,7 @@
       <c r="BD5" s="21"/>
       <c r="BE5" s="21"/>
     </row>
-    <row r="6" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" ht="17" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="76"/>
       <c r="C6" s="68" t="s">
@@ -20412,7 +18818,7 @@
       <c r="BD6" s="21"/>
       <c r="BE6" s="21"/>
     </row>
-    <row r="7" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" ht="17" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="22" t="s">
         <v>31</v>
@@ -20473,7 +18879,7 @@
       <c r="BD7" s="21"/>
       <c r="BE7" s="21"/>
     </row>
-    <row r="8" spans="1:57" s="39" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" s="39" customFormat="1" ht="17" customHeight="1">
       <c r="B8" s="221" t="s">
         <v>72</v>
       </c>
@@ -20535,7 +18941,7 @@
       <c r="BD8" s="21"/>
       <c r="BE8" s="21"/>
     </row>
-    <row r="9" spans="1:57" s="39" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" s="39" customFormat="1" ht="17" customHeight="1">
       <c r="B9" s="221" t="s">
         <v>73</v>
       </c>
@@ -20597,7 +19003,7 @@
       <c r="BD9" s="21"/>
       <c r="BE9" s="21"/>
     </row>
-    <row r="10" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" ht="17" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="236" t="s">
         <v>124</v>
@@ -20660,7 +19066,7 @@
       <c r="BD10" s="21"/>
       <c r="BE10" s="21"/>
     </row>
-    <row r="11" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" ht="17" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="222" t="s">
         <v>59</v>
@@ -20723,7 +19129,7 @@
       <c r="BD11" s="21"/>
       <c r="BE11" s="21"/>
     </row>
-    <row r="12" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" ht="17" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="236" t="s">
         <v>126</v>
@@ -20786,7 +19192,7 @@
       <c r="BD12" s="21"/>
       <c r="BE12" s="21"/>
     </row>
-    <row r="13" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" ht="17" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="222" t="s">
         <v>60</v>
@@ -20849,7 +19255,7 @@
       <c r="BD13" s="21"/>
       <c r="BE13" s="21"/>
     </row>
-    <row r="14" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" ht="17" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="222" t="s">
         <v>58</v>
@@ -20912,7 +19318,7 @@
       <c r="BD14" s="21"/>
       <c r="BE14" s="21"/>
     </row>
-    <row r="15" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" ht="17" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="224" t="s">
         <v>21</v>
@@ -20975,7 +19381,7 @@
       <c r="BD15" s="21"/>
       <c r="BE15" s="21"/>
     </row>
-    <row r="16" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" ht="17" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="224" t="s">
         <v>19</v>
@@ -21038,7 +19444,7 @@
       <c r="BD16" s="21"/>
       <c r="BE16" s="21"/>
     </row>
-    <row r="17" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" ht="17" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="224" t="s">
         <v>125</v>
@@ -21101,7 +19507,7 @@
       <c r="BD17" s="21"/>
       <c r="BE17" s="21"/>
     </row>
-    <row r="18" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" ht="17" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="225" t="s">
         <v>141</v>
@@ -21164,7 +19570,7 @@
       <c r="BD18" s="21"/>
       <c r="BE18" s="21"/>
     </row>
-    <row r="19" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" ht="17" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="223" t="s">
         <v>33</v>
@@ -21227,7 +19633,7 @@
       <c r="BD19" s="21"/>
       <c r="BE19" s="21"/>
     </row>
-    <row r="20" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" ht="17" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="223" t="s">
         <v>76</v>
@@ -21290,7 +19696,7 @@
       <c r="BD20" s="21"/>
       <c r="BE20" s="21"/>
     </row>
-    <row r="21" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" ht="17" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="223" t="s">
         <v>61</v>
@@ -21353,13 +19759,13 @@
       <c r="BD21" s="21"/>
       <c r="BE21" s="21"/>
     </row>
-    <row r="22" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" ht="17" customHeight="1">
       <c r="B22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:57" s="157" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" s="157" customFormat="1" ht="17" customHeight="1">
       <c r="A23" s="167"/>
       <c r="B23" s="158"/>
       <c r="C23" s="167"/>
@@ -21376,7 +19782,7 @@
       <c r="K23" s="170"/>
       <c r="U23" s="158"/>
     </row>
-    <row r="24" spans="1:57" s="190" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" s="190" customFormat="1" ht="17" customHeight="1">
       <c r="A24" s="190" t="s">
         <v>22</v>
       </c>
@@ -21435,7 +19841,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:57" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A25" s="2">
         <v>1959</v>
       </c>
@@ -21498,7 +19904,7 @@
       </c>
       <c r="Y25" s="38"/>
     </row>
-    <row r="26" spans="1:57" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A26" s="2">
         <v>1960</v>
       </c>
@@ -21561,7 +19967,7 @@
       </c>
       <c r="Y26" s="38"/>
     </row>
-    <row r="27" spans="1:57" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A27" s="2">
         <v>1961</v>
       </c>
@@ -21624,7 +20030,7 @@
       </c>
       <c r="Y27" s="38"/>
     </row>
-    <row r="28" spans="1:57" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A28" s="2">
         <v>1962</v>
       </c>
@@ -21687,7 +20093,7 @@
       </c>
       <c r="Y28" s="38"/>
     </row>
-    <row r="29" spans="1:57" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A29" s="2">
         <v>1963</v>
       </c>
@@ -21750,7 +20156,7 @@
       </c>
       <c r="Y29" s="38"/>
     </row>
-    <row r="30" spans="1:57" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A30" s="2">
         <v>1964</v>
       </c>
@@ -21813,7 +20219,7 @@
       </c>
       <c r="Y30" s="38"/>
     </row>
-    <row r="31" spans="1:57" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A31" s="2">
         <v>1965</v>
       </c>
@@ -21876,7 +20282,7 @@
       </c>
       <c r="Y31" s="38"/>
     </row>
-    <row r="32" spans="1:57" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A32" s="2">
         <v>1966</v>
       </c>
@@ -21939,7 +20345,7 @@
       </c>
       <c r="Y32" s="38"/>
     </row>
-    <row r="33" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A33" s="2">
         <v>1967</v>
       </c>
@@ -22002,7 +20408,7 @@
       </c>
       <c r="Y33" s="38"/>
     </row>
-    <row r="34" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A34" s="2">
         <v>1968</v>
       </c>
@@ -22065,7 +20471,7 @@
       </c>
       <c r="Y34" s="38"/>
     </row>
-    <row r="35" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A35" s="2">
         <v>1969</v>
       </c>
@@ -22128,7 +20534,7 @@
       </c>
       <c r="Y35" s="38"/>
     </row>
-    <row r="36" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A36" s="2">
         <v>1970</v>
       </c>
@@ -22191,7 +20597,7 @@
       </c>
       <c r="Y36" s="38"/>
     </row>
-    <row r="37" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A37" s="2">
         <v>1971</v>
       </c>
@@ -22254,7 +20660,7 @@
       </c>
       <c r="Y37" s="38"/>
     </row>
-    <row r="38" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A38" s="2">
         <v>1972</v>
       </c>
@@ -22317,7 +20723,7 @@
       </c>
       <c r="Y38" s="38"/>
     </row>
-    <row r="39" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A39" s="2">
         <v>1973</v>
       </c>
@@ -22380,7 +20786,7 @@
       </c>
       <c r="Y39" s="38"/>
     </row>
-    <row r="40" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A40" s="2">
         <v>1974</v>
       </c>
@@ -22443,7 +20849,7 @@
       </c>
       <c r="Y40" s="38"/>
     </row>
-    <row r="41" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A41" s="2">
         <v>1975</v>
       </c>
@@ -22506,7 +20912,7 @@
       </c>
       <c r="Y41" s="38"/>
     </row>
-    <row r="42" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A42" s="2">
         <v>1976</v>
       </c>
@@ -22569,7 +20975,7 @@
       </c>
       <c r="Y42" s="38"/>
     </row>
-    <row r="43" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A43" s="2">
         <v>1977</v>
       </c>
@@ -22632,7 +21038,7 @@
       </c>
       <c r="Y43" s="38"/>
     </row>
-    <row r="44" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A44" s="2">
         <v>1978</v>
       </c>
@@ -22695,7 +21101,7 @@
       </c>
       <c r="Y44" s="38"/>
     </row>
-    <row r="45" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A45" s="2">
         <v>1979</v>
       </c>
@@ -22758,7 +21164,7 @@
       </c>
       <c r="Y45" s="38"/>
     </row>
-    <row r="46" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A46" s="2">
         <v>1980</v>
       </c>
@@ -22821,7 +21227,7 @@
       </c>
       <c r="Y46" s="38"/>
     </row>
-    <row r="47" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A47" s="2">
         <v>1981</v>
       </c>
@@ -22884,7 +21290,7 @@
       </c>
       <c r="Y47" s="38"/>
     </row>
-    <row r="48" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A48" s="2">
         <v>1982</v>
       </c>
@@ -22947,7 +21353,7 @@
       </c>
       <c r="Y48" s="38"/>
     </row>
-    <row r="49" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A49" s="2">
         <v>1983</v>
       </c>
@@ -23010,7 +21416,7 @@
       </c>
       <c r="Y49" s="38"/>
     </row>
-    <row r="50" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A50" s="2">
         <v>1984</v>
       </c>
@@ -23073,7 +21479,7 @@
       </c>
       <c r="Y50" s="38"/>
     </row>
-    <row r="51" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A51" s="2">
         <v>1985</v>
       </c>
@@ -23136,7 +21542,7 @@
       </c>
       <c r="Y51" s="38"/>
     </row>
-    <row r="52" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A52" s="2">
         <v>1986</v>
       </c>
@@ -23199,7 +21605,7 @@
       </c>
       <c r="Y52" s="38"/>
     </row>
-    <row r="53" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A53" s="2">
         <v>1987</v>
       </c>
@@ -23262,7 +21668,7 @@
       </c>
       <c r="Y53" s="38"/>
     </row>
-    <row r="54" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A54" s="2">
         <v>1988</v>
       </c>
@@ -23325,7 +21731,7 @@
       </c>
       <c r="Y54" s="38"/>
     </row>
-    <row r="55" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A55" s="2">
         <v>1989</v>
       </c>
@@ -23388,7 +21794,7 @@
       </c>
       <c r="Y55" s="38"/>
     </row>
-    <row r="56" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A56" s="2">
         <v>1990</v>
       </c>
@@ -23451,7 +21857,7 @@
       </c>
       <c r="Y56" s="38"/>
     </row>
-    <row r="57" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A57" s="2">
         <v>1991</v>
       </c>
@@ -23514,7 +21920,7 @@
       </c>
       <c r="Y57" s="38"/>
     </row>
-    <row r="58" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A58" s="2">
         <v>1992</v>
       </c>
@@ -23577,7 +21983,7 @@
       </c>
       <c r="Y58" s="38"/>
     </row>
-    <row r="59" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A59" s="2">
         <v>1993</v>
       </c>
@@ -23640,7 +22046,7 @@
       </c>
       <c r="Y59" s="38"/>
     </row>
-    <row r="60" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A60" s="2">
         <v>1994</v>
       </c>
@@ -23703,7 +22109,7 @@
       </c>
       <c r="Y60" s="38"/>
     </row>
-    <row r="61" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A61" s="2">
         <v>1995</v>
       </c>
@@ -23766,7 +22172,7 @@
       </c>
       <c r="Y61" s="38"/>
     </row>
-    <row r="62" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A62" s="2">
         <v>1996</v>
       </c>
@@ -23829,7 +22235,7 @@
       </c>
       <c r="Y62" s="38"/>
     </row>
-    <row r="63" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A63" s="2">
         <v>1997</v>
       </c>
@@ -23892,7 +22298,7 @@
       </c>
       <c r="Y63" s="38"/>
     </row>
-    <row r="64" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A64" s="2">
         <v>1998</v>
       </c>
@@ -23955,7 +22361,7 @@
       </c>
       <c r="Y64" s="38"/>
     </row>
-    <row r="65" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A65" s="2">
         <v>1999</v>
       </c>
@@ -24018,7 +22424,7 @@
       </c>
       <c r="Y65" s="38"/>
     </row>
-    <row r="66" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A66" s="2">
         <v>2000</v>
       </c>
@@ -24081,7 +22487,7 @@
       </c>
       <c r="Y66" s="38"/>
     </row>
-    <row r="67" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A67" s="2">
         <v>2001</v>
       </c>
@@ -24144,7 +22550,7 @@
       </c>
       <c r="Y67" s="38"/>
     </row>
-    <row r="68" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A68" s="2">
         <v>2002</v>
       </c>
@@ -24207,7 +22613,7 @@
       </c>
       <c r="Y68" s="38"/>
     </row>
-    <row r="69" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A69" s="2">
         <v>2003</v>
       </c>
@@ -24270,7 +22676,7 @@
       </c>
       <c r="Y69" s="38"/>
     </row>
-    <row r="70" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A70" s="2">
         <v>2004</v>
       </c>
@@ -24333,7 +22739,7 @@
       </c>
       <c r="Y70" s="38"/>
     </row>
-    <row r="71" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A71" s="2">
         <v>2005</v>
       </c>
@@ -24396,7 +22802,7 @@
       </c>
       <c r="Y71" s="38"/>
     </row>
-    <row r="72" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A72" s="2">
         <v>2006</v>
       </c>
@@ -24459,7 +22865,7 @@
       </c>
       <c r="Y72" s="38"/>
     </row>
-    <row r="73" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A73" s="2">
         <v>2007</v>
       </c>
@@ -24522,7 +22928,7 @@
       </c>
       <c r="Y73" s="38"/>
     </row>
-    <row r="74" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A74" s="2">
         <v>2008</v>
       </c>
@@ -24585,7 +22991,7 @@
       </c>
       <c r="Y74" s="38"/>
     </row>
-    <row r="75" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A75" s="2">
         <v>2009</v>
       </c>
@@ -24648,7 +23054,7 @@
       </c>
       <c r="Y75" s="38"/>
     </row>
-    <row r="76" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A76" s="2">
         <v>2010</v>
       </c>
@@ -24711,7 +23117,7 @@
       </c>
       <c r="Y76" s="38"/>
     </row>
-    <row r="77" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A77" s="2">
         <v>2011</v>
       </c>
@@ -24774,7 +23180,7 @@
       </c>
       <c r="Y77" s="38"/>
     </row>
-    <row r="78" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A78" s="2">
         <v>2012</v>
       </c>
@@ -24837,7 +23243,7 @@
       </c>
       <c r="Y78" s="38"/>
     </row>
-    <row r="79" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A79" s="2">
         <v>2013</v>
       </c>
@@ -24899,7 +23305,7 @@
       </c>
       <c r="Y79" s="38"/>
     </row>
-    <row r="80" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A80" s="2">
         <v>2014</v>
       </c>
@@ -24962,7 +23368,7 @@
       </c>
       <c r="Y80" s="38"/>
     </row>
-    <row r="81" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A81" s="2">
         <v>2015</v>
       </c>
@@ -25025,7 +23431,7 @@
       </c>
       <c r="Y81" s="38"/>
     </row>
-    <row r="82" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A82" s="2">
         <v>2016</v>
       </c>
@@ -25086,7 +23492,7 @@
         <v>0.75938524306021749</v>
       </c>
     </row>
-    <row r="83" spans="1:25" s="2" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" s="2" customFormat="1" ht="17" customHeight="1">
       <c r="A83" s="78"/>
       <c r="B83" s="66"/>
       <c r="D83" s="66"/>
@@ -25095,28 +23501,28 @@
       <c r="L83" s="100"/>
       <c r="U83" s="38"/>
     </row>
-    <row r="84" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" customFormat="1" ht="17" customHeight="1">
       <c r="T84" s="106"/>
     </row>
-    <row r="85" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:25" customFormat="1" ht="17" customHeight="1">
       <c r="M85" s="106"/>
     </row>
-    <row r="86" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:6" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:25" customFormat="1" ht="17" customHeight="1"/>
+    <row r="87" spans="1:25" customFormat="1" ht="17" customHeight="1"/>
+    <row r="88" spans="1:25" customFormat="1" ht="17" customHeight="1"/>
+    <row r="89" spans="1:25" customFormat="1" ht="17" customHeight="1"/>
+    <row r="90" spans="1:25" customFormat="1" ht="17" customHeight="1"/>
+    <row r="91" spans="1:25" customFormat="1" ht="17" customHeight="1"/>
+    <row r="92" spans="1:25" customFormat="1" ht="17" customHeight="1"/>
+    <row r="93" spans="1:25" customFormat="1" ht="17" customHeight="1"/>
+    <row r="94" spans="1:25" customFormat="1" ht="17" customHeight="1"/>
+    <row r="95" spans="1:25" customFormat="1" ht="17" customHeight="1"/>
+    <row r="96" spans="1:25" customFormat="1" ht="17" customHeight="1"/>
+    <row r="97" spans="1:6" customFormat="1" ht="17" customHeight="1"/>
+    <row r="98" spans="1:6" customFormat="1" ht="17" customHeight="1"/>
+    <row r="99" spans="1:6" customFormat="1" ht="17" customHeight="1"/>
+    <row r="100" spans="1:6" customFormat="1" ht="17" customHeight="1"/>
+    <row r="101" spans="1:6" ht="17" customHeight="1">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="2"/>
@@ -25137,8 +23543,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF3399FF"/>
   </sheetPr>
   <dimension ref="A1:IR111"/>
@@ -25150,26 +23556,26 @@
       <selection pane="bottomRight" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="9" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="9" style="1" customWidth="1"/>
     <col min="18" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:252" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:252" ht="17">
       <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
@@ -25200,7 +23606,7 @@
       <c r="AA1" s="18"/>
       <c r="AB1" s="18"/>
     </row>
-    <row r="2" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:252">
       <c r="B2" s="19" t="s">
         <v>91</v>
       </c>
@@ -25231,7 +23637,7 @@
       <c r="AA2" s="19"/>
       <c r="AB2" s="19"/>
     </row>
-    <row r="3" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:252">
       <c r="A3" s="52"/>
       <c r="B3" s="35" t="s">
         <v>30</v>
@@ -25263,7 +23669,7 @@
       <c r="AA3" s="20"/>
       <c r="AB3" s="20"/>
     </row>
-    <row r="4" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:252">
       <c r="B4" s="220" t="s">
         <v>121</v>
       </c>
@@ -25295,7 +23701,7 @@
       <c r="AB4" s="21"/>
       <c r="IR4" s="3"/>
     </row>
-    <row r="5" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:252">
       <c r="B5" s="22" t="s">
         <v>31</v>
       </c>
@@ -25326,7 +23732,7 @@
       <c r="AA5" s="21"/>
       <c r="AB5" s="21"/>
     </row>
-    <row r="6" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:252">
       <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
@@ -25357,7 +23763,7 @@
       <c r="AA6" s="21"/>
       <c r="AB6" s="21"/>
     </row>
-    <row r="7" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:252">
       <c r="B7" s="226" t="s">
         <v>6</v>
       </c>
@@ -25390,7 +23796,7 @@
       <c r="AA7" s="21"/>
       <c r="AB7" s="21"/>
     </row>
-    <row r="8" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:252">
       <c r="B8" s="228" t="s">
         <v>35</v>
       </c>
@@ -25423,7 +23829,7 @@
       <c r="AA8" s="21"/>
       <c r="AB8" s="21"/>
     </row>
-    <row r="9" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:252">
       <c r="B9" s="228" t="s">
         <v>54</v>
       </c>
@@ -25456,7 +23862,7 @@
       <c r="AA9" s="21"/>
       <c r="AB9" s="21"/>
     </row>
-    <row r="10" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:252">
       <c r="B10" s="228" t="s">
         <v>134</v>
       </c>
@@ -25489,7 +23895,7 @@
       <c r="AA10" s="21"/>
       <c r="AB10" s="21"/>
     </row>
-    <row r="11" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:252">
       <c r="B11" s="228" t="s">
         <v>45</v>
       </c>
@@ -25522,7 +23928,7 @@
       <c r="AA11" s="21"/>
       <c r="AB11" s="21"/>
     </row>
-    <row r="12" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:252">
       <c r="B12" s="227" t="s">
         <v>44</v>
       </c>
@@ -25555,7 +23961,7 @@
       <c r="AA12" s="21"/>
       <c r="AB12" s="21"/>
     </row>
-    <row r="13" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:252">
       <c r="B13" s="223" t="s">
         <v>10</v>
       </c>
@@ -25588,7 +23994,7 @@
       <c r="AA13" s="21"/>
       <c r="AB13" s="21"/>
     </row>
-    <row r="14" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:252">
       <c r="B14" s="226" t="s">
         <v>127</v>
       </c>
@@ -25621,7 +24027,7 @@
       <c r="AA14" s="21"/>
       <c r="AB14" s="21"/>
     </row>
-    <row r="15" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:252">
       <c r="A15" s="2"/>
       <c r="B15" s="54" t="s">
         <v>26</v>
@@ -25653,7 +24059,7 @@
       <c r="AA15" s="21"/>
       <c r="AB15" s="21"/>
     </row>
-    <row r="16" spans="1:252" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:252">
       <c r="A16" s="2"/>
       <c r="B16" s="229" t="s">
         <v>36</v>
@@ -25687,7 +24093,7 @@
       <c r="AA16" s="21"/>
       <c r="AB16" s="21"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="B17" s="226" t="s">
         <v>2</v>
       </c>
@@ -25720,7 +24126,7 @@
       <c r="AA17" s="21"/>
       <c r="AB17" s="21"/>
     </row>
-    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="15" customHeight="1">
       <c r="B18" s="68" t="s">
         <v>148</v>
       </c>
@@ -25751,10 +24157,10 @@
       <c r="AA18" s="68"/>
       <c r="AB18" s="68"/>
     </row>
-    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="15" customHeight="1">
       <c r="B19" s="38"/>
     </row>
-    <row r="20" spans="1:28" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="157"/>
       <c r="B20" s="157"/>
       <c r="C20" s="157"/>
@@ -25773,7 +24179,7 @@
       </c>
       <c r="O20" s="157"/>
     </row>
-    <row r="21" spans="1:28" s="190" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" s="190" customFormat="1" ht="16" customHeight="1">
       <c r="A21" s="190" t="s">
         <v>18</v>
       </c>
@@ -25817,7 +24223,7 @@
       <c r="R21" s="189"/>
       <c r="S21" s="204"/>
     </row>
-    <row r="22" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="2">
         <v>1959</v>
       </c>
@@ -25852,7 +24258,7 @@
       <c r="L22" s="137"/>
       <c r="P22" s="38"/>
     </row>
-    <row r="23" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="2">
         <v>1960</v>
       </c>
@@ -25887,7 +24293,7 @@
       <c r="L23" s="137"/>
       <c r="P23" s="38"/>
     </row>
-    <row r="24" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="2">
         <v>1961</v>
       </c>
@@ -25922,7 +24328,7 @@
       <c r="L24" s="137"/>
       <c r="P24" s="38"/>
     </row>
-    <row r="25" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="2">
         <v>1962</v>
       </c>
@@ -25957,7 +24363,7 @@
       <c r="L25" s="137"/>
       <c r="P25" s="38"/>
     </row>
-    <row r="26" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="2">
         <v>1963</v>
       </c>
@@ -25992,7 +24398,7 @@
       <c r="L26" s="137"/>
       <c r="P26" s="38"/>
     </row>
-    <row r="27" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="2">
         <v>1964</v>
       </c>
@@ -26027,7 +24433,7 @@
       <c r="L27" s="137"/>
       <c r="P27" s="38"/>
     </row>
-    <row r="28" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="2">
         <v>1965</v>
       </c>
@@ -26062,7 +24468,7 @@
       <c r="L28" s="137"/>
       <c r="P28" s="38"/>
     </row>
-    <row r="29" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="2">
         <v>1966</v>
       </c>
@@ -26097,7 +24503,7 @@
       <c r="L29" s="137"/>
       <c r="P29" s="38"/>
     </row>
-    <row r="30" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="2">
         <v>1967</v>
       </c>
@@ -26132,7 +24538,7 @@
       <c r="L30" s="137"/>
       <c r="P30" s="38"/>
     </row>
-    <row r="31" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="2">
         <v>1968</v>
       </c>
@@ -26167,7 +24573,7 @@
       <c r="L31" s="137"/>
       <c r="P31" s="38"/>
     </row>
-    <row r="32" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="2">
         <v>1969</v>
       </c>
@@ -26202,7 +24608,7 @@
       <c r="L32" s="137"/>
       <c r="P32" s="38"/>
     </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="2">
         <v>1970</v>
       </c>
@@ -26237,7 +24643,7 @@
       <c r="L33" s="137"/>
       <c r="P33" s="38"/>
     </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="2">
         <v>1971</v>
       </c>
@@ -26272,7 +24678,7 @@
       <c r="L34" s="137"/>
       <c r="P34" s="38"/>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="2">
         <v>1972</v>
       </c>
@@ -26307,7 +24713,7 @@
       <c r="L35" s="137"/>
       <c r="P35" s="38"/>
     </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="2">
         <v>1973</v>
       </c>
@@ -26342,7 +24748,7 @@
       <c r="L36" s="137"/>
       <c r="P36" s="38"/>
     </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="2">
         <v>1974</v>
       </c>
@@ -26377,7 +24783,7 @@
       <c r="L37" s="137"/>
       <c r="P37" s="38"/>
     </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="2">
         <v>1975</v>
       </c>
@@ -26412,7 +24818,7 @@
       <c r="L38" s="137"/>
       <c r="P38" s="38"/>
     </row>
-    <row r="39" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="2">
         <v>1976</v>
       </c>
@@ -26447,7 +24853,7 @@
       <c r="L39" s="137"/>
       <c r="P39" s="38"/>
     </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="2">
         <v>1977</v>
       </c>
@@ -26482,7 +24888,7 @@
       <c r="L40" s="137"/>
       <c r="P40" s="38"/>
     </row>
-    <row r="41" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="2">
         <v>1978</v>
       </c>
@@ -26517,7 +24923,7 @@
       <c r="L41" s="137"/>
       <c r="P41" s="38"/>
     </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="2">
         <v>1979</v>
       </c>
@@ -26552,7 +24958,7 @@
       <c r="L42" s="137"/>
       <c r="P42" s="38"/>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="2">
         <v>1980</v>
       </c>
@@ -26587,7 +24993,7 @@
       <c r="L43" s="137"/>
       <c r="P43" s="38"/>
     </row>
-    <row r="44" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="2">
         <v>1981</v>
       </c>
@@ -26622,7 +25028,7 @@
       <c r="L44" s="137"/>
       <c r="P44" s="38"/>
     </row>
-    <row r="45" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="2">
         <v>1982</v>
       </c>
@@ -26661,7 +25067,7 @@
       <c r="N45" s="38"/>
       <c r="P45" s="38"/>
     </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="2">
         <v>1983</v>
       </c>
@@ -26700,7 +25106,7 @@
       <c r="N46" s="38"/>
       <c r="P46" s="38"/>
     </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="2">
         <v>1984</v>
       </c>
@@ -26739,7 +25145,7 @@
       <c r="N47" s="38"/>
       <c r="P47" s="38"/>
     </row>
-    <row r="48" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="2">
         <v>1985</v>
       </c>
@@ -26780,7 +25186,7 @@
       </c>
       <c r="P48" s="141"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="2">
         <v>1986</v>
       </c>
@@ -26821,7 +25227,7 @@
       </c>
       <c r="P49" s="141"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="2">
         <v>1987</v>
       </c>
@@ -26862,7 +25268,7 @@
       </c>
       <c r="P50" s="141"/>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="2">
         <v>1988</v>
       </c>
@@ -26903,7 +25309,7 @@
       </c>
       <c r="P51" s="141"/>
     </row>
-    <row r="52" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="2">
         <v>1989</v>
       </c>
@@ -26944,7 +25350,7 @@
       </c>
       <c r="P52" s="141"/>
     </row>
-    <row r="53" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="2">
         <v>1990</v>
       </c>
@@ -26985,7 +25391,7 @@
       </c>
       <c r="P53" s="141"/>
     </row>
-    <row r="54" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="2">
         <v>1991</v>
       </c>
@@ -27026,7 +25432,7 @@
       </c>
       <c r="P54" s="141"/>
     </row>
-    <row r="55" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="2">
         <v>1992</v>
       </c>
@@ -27067,7 +25473,7 @@
       </c>
       <c r="P55" s="141"/>
     </row>
-    <row r="56" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="2">
         <v>1993</v>
       </c>
@@ -27108,7 +25514,7 @@
       </c>
       <c r="P56" s="141"/>
     </row>
-    <row r="57" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="2">
         <v>1994</v>
       </c>
@@ -27149,7 +25555,7 @@
       </c>
       <c r="P57" s="141"/>
     </row>
-    <row r="58" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="2">
         <v>1995</v>
       </c>
@@ -27190,7 +25596,7 @@
       </c>
       <c r="P58" s="141"/>
     </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="2">
         <v>1996</v>
       </c>
@@ -27231,7 +25637,7 @@
       </c>
       <c r="P59" s="141"/>
     </row>
-    <row r="60" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="2">
         <v>1997</v>
       </c>
@@ -27272,7 +25678,7 @@
       </c>
       <c r="P60" s="141"/>
     </row>
-    <row r="61" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="2">
         <v>1998</v>
       </c>
@@ -27313,7 +25719,7 @@
       </c>
       <c r="P61" s="141"/>
     </row>
-    <row r="62" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="2">
         <v>1999</v>
       </c>
@@ -27354,7 +25760,7 @@
       </c>
       <c r="P62" s="141"/>
     </row>
-    <row r="63" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="2">
         <v>2000</v>
       </c>
@@ -27395,7 +25801,7 @@
       </c>
       <c r="P63" s="141"/>
     </row>
-    <row r="64" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="2">
         <v>2001</v>
       </c>
@@ -27436,7 +25842,7 @@
       </c>
       <c r="P64" s="141"/>
     </row>
-    <row r="65" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="2">
         <v>2002</v>
       </c>
@@ -27477,7 +25883,7 @@
       </c>
       <c r="P65" s="141"/>
     </row>
-    <row r="66" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="2">
         <v>2003</v>
       </c>
@@ -27518,7 +25924,7 @@
       </c>
       <c r="P66" s="141"/>
     </row>
-    <row r="67" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="2">
         <v>2004</v>
       </c>
@@ -27559,7 +25965,7 @@
       </c>
       <c r="P67" s="141"/>
     </row>
-    <row r="68" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="2">
         <v>2005</v>
       </c>
@@ -27600,7 +26006,7 @@
       </c>
       <c r="P68" s="141"/>
     </row>
-    <row r="69" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="2">
         <v>2006</v>
       </c>
@@ -27641,7 +26047,7 @@
       </c>
       <c r="P69" s="141"/>
     </row>
-    <row r="70" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="2">
         <v>2007</v>
       </c>
@@ -27682,7 +26088,7 @@
       </c>
       <c r="P70" s="141"/>
     </row>
-    <row r="71" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="2">
         <v>2008</v>
       </c>
@@ -27723,7 +26129,7 @@
       </c>
       <c r="P71" s="141"/>
     </row>
-    <row r="72" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="2">
         <v>2009</v>
       </c>
@@ -27764,7 +26170,7 @@
       </c>
       <c r="P72" s="141"/>
     </row>
-    <row r="73" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="2">
         <v>2010</v>
       </c>
@@ -27805,7 +26211,7 @@
       </c>
       <c r="P73" s="141"/>
     </row>
-    <row r="74" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="2">
         <v>2011</v>
       </c>
@@ -27846,7 +26252,7 @@
       </c>
       <c r="P74" s="141"/>
     </row>
-    <row r="75" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="2">
         <v>2012</v>
       </c>
@@ -27887,7 +26293,7 @@
       </c>
       <c r="P75" s="141"/>
     </row>
-    <row r="76" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="2">
         <v>2013</v>
       </c>
@@ -27928,7 +26334,7 @@
       </c>
       <c r="P76" s="141"/>
     </row>
-    <row r="77" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="2">
         <v>2014</v>
       </c>
@@ -27969,7 +26375,7 @@
       </c>
       <c r="P77" s="141"/>
     </row>
-    <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="15" customHeight="1">
       <c r="A78" s="2">
         <v>2015</v>
       </c>
@@ -28011,7 +26417,7 @@
       <c r="P78" s="141"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="2">
         <v>2016</v>
       </c>
@@ -28053,7 +26459,7 @@
       <c r="O79" s="38"/>
       <c r="P79" s="141"/>
     </row>
-    <row r="80" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="D80" s="106"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
@@ -28068,7 +26474,7 @@
       <c r="O80" s="38"/>
       <c r="P80" s="142"/>
     </row>
-    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="15" customHeight="1">
       <c r="A81" s="2"/>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
@@ -28081,7 +26487,7 @@
       <c r="P81" s="38"/>
       <c r="Q81" s="2"/>
     </row>
-    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="15" customHeight="1">
       <c r="A82" s="2"/>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -28094,7 +26500,7 @@
       <c r="P82" s="38"/>
       <c r="Q82" s="2"/>
     </row>
-    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="15" customHeight="1">
       <c r="A83" s="2"/>
       <c r="D83" s="38"/>
       <c r="E83" s="38"/>
@@ -28107,7 +26513,7 @@
       <c r="P83" s="38"/>
       <c r="Q83" s="2"/>
     </row>
-    <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="15" customHeight="1">
       <c r="A84" s="2"/>
       <c r="D84" s="38"/>
       <c r="E84" s="38"/>
@@ -28120,7 +26526,7 @@
       <c r="P84" s="38"/>
       <c r="Q84" s="2"/>
     </row>
-    <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="15" customHeight="1">
       <c r="A85" s="2"/>
       <c r="D85" s="38"/>
       <c r="E85" s="38"/>
@@ -28133,7 +26539,7 @@
       <c r="P85" s="38"/>
       <c r="Q85" s="2"/>
     </row>
-    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="15" customHeight="1">
       <c r="A86" s="2"/>
       <c r="D86" s="38"/>
       <c r="E86" s="38"/>
@@ -28146,7 +26552,7 @@
       <c r="P86" s="38"/>
       <c r="Q86" s="2"/>
     </row>
-    <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="15" customHeight="1">
       <c r="A87" s="2"/>
       <c r="D87" s="38"/>
       <c r="E87" s="38"/>
@@ -28159,7 +26565,7 @@
       <c r="P87" s="38"/>
       <c r="Q87" s="2"/>
     </row>
-    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="15" customHeight="1">
       <c r="A88" s="2"/>
       <c r="D88" s="38"/>
       <c r="E88" s="38"/>
@@ -28172,7 +26578,7 @@
       <c r="P88" s="38"/>
       <c r="Q88" s="2"/>
     </row>
-    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="15" customHeight="1">
       <c r="A89" s="2"/>
       <c r="D89" s="38"/>
       <c r="E89" s="38"/>
@@ -28185,7 +26591,7 @@
       <c r="P89" s="38"/>
       <c r="Q89" s="2"/>
     </row>
-    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="15" customHeight="1">
       <c r="A90" s="2"/>
       <c r="D90" s="38"/>
       <c r="E90" s="38"/>
@@ -28198,7 +26604,7 @@
       <c r="P90" s="38"/>
       <c r="Q90" s="2"/>
     </row>
-    <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="15" customHeight="1">
       <c r="A91" s="2"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38"/>
@@ -28211,7 +26617,7 @@
       <c r="P91" s="38"/>
       <c r="Q91" s="2"/>
     </row>
-    <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="15" customHeight="1">
       <c r="A92" s="2"/>
       <c r="D92" s="38"/>
       <c r="E92" s="38"/>
@@ -28224,7 +26630,7 @@
       <c r="P92" s="38"/>
       <c r="Q92" s="2"/>
     </row>
-    <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="15" customHeight="1">
       <c r="A93" s="2"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38"/>
@@ -28237,7 +26643,7 @@
       <c r="P93" s="38"/>
       <c r="Q93" s="2"/>
     </row>
-    <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="15" customHeight="1">
       <c r="A94" s="2"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38"/>
@@ -28250,7 +26656,7 @@
       <c r="P94" s="38"/>
       <c r="Q94" s="2"/>
     </row>
-    <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="15" customHeight="1">
       <c r="A95" s="2"/>
       <c r="D95" s="38"/>
       <c r="E95" s="38"/>
@@ -28263,7 +26669,7 @@
       <c r="P95" s="38"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="15" customHeight="1">
       <c r="A96" s="2"/>
       <c r="D96" s="38"/>
       <c r="E96" s="38"/>
@@ -28276,7 +26682,7 @@
       <c r="P96" s="38"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="15" customHeight="1">
       <c r="A97" s="2"/>
       <c r="D97" s="38"/>
       <c r="E97" s="38"/>
@@ -28289,7 +26695,7 @@
       <c r="P97" s="38"/>
       <c r="Q97" s="2"/>
     </row>
-    <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" ht="15" customHeight="1">
       <c r="A98" s="2"/>
       <c r="D98" s="38"/>
       <c r="E98" s="38"/>
@@ -28302,7 +26708,7 @@
       <c r="P98" s="38"/>
       <c r="Q98" s="2"/>
     </row>
-    <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="15" customHeight="1">
       <c r="A99" s="2"/>
       <c r="D99" s="38"/>
       <c r="E99" s="38"/>
@@ -28315,7 +26721,7 @@
       <c r="P99" s="38"/>
       <c r="Q99" s="2"/>
     </row>
-    <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" ht="15" customHeight="1">
       <c r="A100" s="2"/>
       <c r="D100" s="38"/>
       <c r="E100" s="38"/>
@@ -28328,7 +26734,7 @@
       <c r="P100" s="38"/>
       <c r="Q100" s="2"/>
     </row>
-    <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" ht="15" customHeight="1">
       <c r="A101" s="2"/>
       <c r="D101" s="38"/>
       <c r="E101" s="38"/>
@@ -28341,7 +26747,7 @@
       <c r="P101" s="38"/>
       <c r="Q101" s="2"/>
     </row>
-    <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" ht="15" customHeight="1">
       <c r="A102" s="2"/>
       <c r="D102" s="38"/>
       <c r="E102" s="38"/>
@@ -28354,7 +26760,7 @@
       <c r="P102" s="38"/>
       <c r="Q102" s="2"/>
     </row>
-    <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" ht="15" customHeight="1">
       <c r="A103" s="2"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38"/>
@@ -28367,7 +26773,7 @@
       <c r="P103" s="38"/>
       <c r="Q103" s="2"/>
     </row>
-    <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" ht="15" customHeight="1">
       <c r="A104" s="2"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38"/>
@@ -28380,7 +26786,7 @@
       <c r="P104" s="38"/>
       <c r="Q104" s="2"/>
     </row>
-    <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" ht="15" customHeight="1">
       <c r="A105" s="2"/>
       <c r="D105" s="38"/>
       <c r="E105" s="38"/>
@@ -28393,7 +26799,7 @@
       <c r="P105" s="38"/>
       <c r="Q105" s="2"/>
     </row>
-    <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" ht="15" customHeight="1">
       <c r="A106" s="2"/>
       <c r="D106" s="38"/>
       <c r="E106" s="38"/>
@@ -28406,7 +26812,7 @@
       <c r="P106" s="38"/>
       <c r="Q106" s="2"/>
     </row>
-    <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" ht="15" customHeight="1">
       <c r="A107" s="2"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38"/>
@@ -28419,7 +26825,7 @@
       <c r="P107" s="38"/>
       <c r="Q107" s="2"/>
     </row>
-    <row r="108" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" ht="15" customHeight="1">
       <c r="A108" s="2"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38"/>
@@ -28432,7 +26838,7 @@
       <c r="P108" s="38"/>
       <c r="Q108" s="2"/>
     </row>
-    <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" ht="15" customHeight="1">
       <c r="D109" s="38"/>
       <c r="E109" s="38"/>
       <c r="F109" s="38"/>
@@ -28444,12 +26850,12 @@
       <c r="P109" s="38"/>
       <c r="Q109" s="2"/>
     </row>
-    <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" ht="15" customHeight="1">
       <c r="G110" s="1"/>
       <c r="P110" s="38"/>
       <c r="Q110" s="2"/>
     </row>
-    <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" ht="15" customHeight="1">
       <c r="G111" s="1"/>
       <c r="P111" s="38"/>
     </row>
@@ -28467,8 +26873,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:IS115"/>
@@ -28480,22 +26886,22 @@
       <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
-    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="13"/>
-    <col min="5" max="5" width="11.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="13" customWidth="1"/>
     <col min="7" max="10" width="11" style="13"/>
-    <col min="11" max="15" width="14.375" style="13" customWidth="1"/>
-    <col min="16" max="16" width="14.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="14.33203125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="17" max="20" width="11" style="13"/>
     <col min="21" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:253" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:253" ht="17">
       <c r="A1" s="2"/>
       <c r="B1" s="17" t="s">
         <v>1</v>
@@ -28556,7 +26962,7 @@
       <c r="BD1" s="29"/>
       <c r="BE1" s="29"/>
     </row>
-    <row r="2" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:253">
       <c r="B2" s="19" t="s">
         <v>91</v>
       </c>
@@ -28616,7 +27022,7 @@
       <c r="BD2" s="121"/>
       <c r="BE2" s="121"/>
     </row>
-    <row r="3" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:253">
       <c r="B3" s="35" t="s">
         <v>30</v>
       </c>
@@ -28676,7 +27082,7 @@
       <c r="BD3" s="122"/>
       <c r="BE3" s="122"/>
     </row>
-    <row r="4" spans="1:253" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:253">
       <c r="B4" s="220" t="s">
         <v>145</v>
       </c>
@@ -28709,7 +27115,7 @@
       <c r="AC4" s="21"/>
       <c r="IS4" s="3"/>
     </row>
-    <row r="5" spans="1:253" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:253" ht="17" customHeight="1">
       <c r="B5" s="22" t="s">
         <v>31</v>
       </c>
@@ -28769,7 +27175,7 @@
       <c r="BD5" s="33"/>
       <c r="BE5" s="33"/>
     </row>
-    <row r="6" spans="1:253" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:253" ht="17" customHeight="1">
       <c r="B6" s="223" t="s">
         <v>124</v>
       </c>
@@ -28831,7 +27237,7 @@
       <c r="BD6" s="33"/>
       <c r="BE6" s="33"/>
     </row>
-    <row r="7" spans="1:253" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:253" ht="17" customHeight="1">
       <c r="B7" s="223" t="s">
         <v>59</v>
       </c>
@@ -28893,7 +27299,7 @@
       <c r="BD7" s="33"/>
       <c r="BE7" s="33"/>
     </row>
-    <row r="8" spans="1:253" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:253" ht="17" customHeight="1">
       <c r="B8" s="244" t="s">
         <v>126</v>
       </c>
@@ -28955,7 +27361,7 @@
       <c r="BD8" s="33"/>
       <c r="BE8" s="33"/>
     </row>
-    <row r="9" spans="1:253" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:253" ht="17" customHeight="1">
       <c r="B9" s="244" t="s">
         <v>60</v>
       </c>
@@ -29017,7 +27423,7 @@
       <c r="BD9" s="33"/>
       <c r="BE9" s="33"/>
     </row>
-    <row r="10" spans="1:253" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:253" ht="17" customHeight="1">
       <c r="B10" s="244" t="s">
         <v>58</v>
       </c>
@@ -29079,7 +27485,7 @@
       <c r="BD10" s="33"/>
       <c r="BE10" s="33"/>
     </row>
-    <row r="11" spans="1:253" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:253" ht="17" customHeight="1">
       <c r="B11" s="223" t="s">
         <v>55</v>
       </c>
@@ -29141,7 +27547,7 @@
       <c r="BD11" s="33"/>
       <c r="BE11" s="33"/>
     </row>
-    <row r="12" spans="1:253" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:253" ht="17" customHeight="1">
       <c r="B12" s="244" t="s">
         <v>21</v>
       </c>
@@ -29203,7 +27609,7 @@
       <c r="BD12" s="33"/>
       <c r="BE12" s="33"/>
     </row>
-    <row r="13" spans="1:253" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:253" ht="17" customHeight="1">
       <c r="B13" s="244" t="s">
         <v>20</v>
       </c>
@@ -29265,7 +27671,7 @@
       <c r="BD13" s="33"/>
       <c r="BE13" s="33"/>
     </row>
-    <row r="14" spans="1:253" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:253" ht="17" customHeight="1">
       <c r="B14" s="244" t="s">
         <v>19</v>
       </c>
@@ -29327,7 +27733,7 @@
       <c r="BD14" s="33"/>
       <c r="BE14" s="33"/>
     </row>
-    <row r="15" spans="1:253" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:253" ht="17" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="245" t="s">
         <v>125</v>
@@ -29390,7 +27796,7 @@
       <c r="BD15" s="33"/>
       <c r="BE15" s="33"/>
     </row>
-    <row r="16" spans="1:253" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:253" ht="17" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="245" t="s">
         <v>141</v>
@@ -29453,7 +27859,7 @@
       <c r="BD16" s="33"/>
       <c r="BE16" s="33"/>
     </row>
-    <row r="17" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" ht="17" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="244" t="s">
         <v>33</v>
@@ -29516,7 +27922,7 @@
       <c r="BD17" s="33"/>
       <c r="BE17" s="33"/>
     </row>
-    <row r="18" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" ht="17" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="244" t="s">
         <v>76</v>
@@ -29579,7 +27985,7 @@
       <c r="BD18" s="33"/>
       <c r="BE18" s="33"/>
     </row>
-    <row r="19" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" ht="17" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="244" t="s">
         <v>61</v>
@@ -29642,7 +28048,7 @@
       <c r="BD19" s="33"/>
       <c r="BE19" s="33"/>
     </row>
-    <row r="20" spans="1:57" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" ht="17" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="245" t="s">
         <v>5</v>
@@ -29705,7 +28111,7 @@
       <c r="BD20" s="33"/>
       <c r="BE20" s="33"/>
     </row>
-    <row r="21" spans="1:57" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="B21" s="10"/>
       <c r="D21" s="125"/>
       <c r="E21" s="125"/>
@@ -29725,7 +28131,7 @@
       <c r="S21" s="64"/>
       <c r="T21" s="64"/>
     </row>
-    <row r="22" spans="1:57" s="175" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" s="175" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="170"/>
       <c r="B22" s="171"/>
       <c r="C22" s="170"/>
@@ -29749,7 +28155,7 @@
       <c r="S22" s="174"/>
       <c r="T22" s="174"/>
     </row>
-    <row r="23" spans="1:57" s="213" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" s="213" customFormat="1">
       <c r="A23" s="208" t="s">
         <v>22</v>
       </c>
@@ -29809,7 +28215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" s="2" customFormat="1">
       <c r="A24" s="14">
         <v>1959</v>
       </c>
@@ -29871,7 +28277,7 @@
         <v>0.89714489026978261</v>
       </c>
     </row>
-    <row r="25" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" s="2" customFormat="1">
       <c r="A25" s="14">
         <v>1960</v>
       </c>
@@ -29933,7 +28339,7 @@
         <v>0.869117609705229</v>
       </c>
     </row>
-    <row r="26" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" s="2" customFormat="1">
       <c r="A26" s="14">
         <v>1961</v>
       </c>
@@ -29995,7 +28401,7 @@
         <v>1.0592141918976719</v>
       </c>
     </row>
-    <row r="27" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" s="2" customFormat="1">
       <c r="A27" s="14">
         <v>1962</v>
       </c>
@@ -30057,7 +28463,7 @@
         <v>1.10851166127157</v>
       </c>
     </row>
-    <row r="28" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" s="2" customFormat="1">
       <c r="A28" s="14">
         <v>1963</v>
       </c>
@@ -30119,7 +28525,7 @@
         <v>1.1306361032477223</v>
       </c>
     </row>
-    <row r="29" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" s="2" customFormat="1">
       <c r="A29" s="14">
         <v>1964</v>
       </c>
@@ -30181,7 +28587,7 @@
         <v>0.74719923779786424</v>
       </c>
     </row>
-    <row r="30" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" s="2" customFormat="1">
       <c r="A30" s="14">
         <v>1965</v>
       </c>
@@ -30243,7 +28649,7 @@
         <v>1.0508168992154219</v>
       </c>
     </row>
-    <row r="31" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" s="2" customFormat="1">
       <c r="A31" s="14">
         <v>1966</v>
       </c>
@@ -30305,7 +28711,7 @@
         <v>0.58860342944758892</v>
       </c>
     </row>
-    <row r="32" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" s="2" customFormat="1">
       <c r="A32" s="14">
         <v>1967</v>
       </c>
@@ -30367,7 +28773,7 @@
         <v>0.85609586882109889</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" s="2" customFormat="1">
       <c r="A33" s="14">
         <v>1968</v>
       </c>
@@ -30429,7 +28835,7 @@
         <v>0.53332736392914271</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" s="2" customFormat="1">
       <c r="A34" s="14">
         <v>1969</v>
       </c>
@@ -30491,7 +28897,7 @@
         <v>0.48829171596112469</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" s="2" customFormat="1">
       <c r="A35" s="14">
         <v>1970</v>
       </c>
@@ -30553,7 +28959,7 @@
         <v>0.86336730144058638</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="2" customFormat="1">
       <c r="A36" s="14">
         <v>1971</v>
       </c>
@@ -30615,7 +29021,7 @@
         <v>0.62744380828954793</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" s="2" customFormat="1">
       <c r="A37" s="14">
         <v>1972</v>
       </c>
@@ -30677,7 +29083,7 @@
         <v>0.44809474575967334</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" s="2" customFormat="1">
       <c r="A38" s="14">
         <v>1973</v>
       </c>
@@ -30739,7 +29145,7 @@
         <v>0.74492195102687042</v>
       </c>
     </row>
-    <row r="39" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" s="2" customFormat="1">
       <c r="A39" s="14">
         <v>1974</v>
       </c>
@@ -30801,7 +29207,7 @@
         <v>1.1824027944915665</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" s="2" customFormat="1">
       <c r="A40" s="14">
         <v>1975</v>
       </c>
@@ -30863,7 +29269,7 @@
         <v>0.87561338752905071</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" s="2" customFormat="1">
       <c r="A41" s="14">
         <v>1976</v>
       </c>
@@ -30925,7 +29331,7 @@
         <v>0.97547946438125732</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" s="2" customFormat="1">
       <c r="A42" s="14">
         <v>1977</v>
       </c>
@@ -30987,7 +29393,7 @@
         <v>0.75460152675491443</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" s="2" customFormat="1">
       <c r="A43" s="14">
         <v>1978</v>
       </c>
@@ -31049,7 +29455,7 @@
         <v>0.83863407245544286</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="14">
         <v>1979</v>
       </c>
@@ -31111,7 +29517,7 @@
         <v>0.69439684587347739</v>
       </c>
     </row>
-    <row r="45" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="14">
         <v>1980</v>
       </c>
@@ -31173,7 +29579,7 @@
         <v>0.99404966387271354</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="14">
         <v>1981</v>
       </c>
@@ -31235,7 +29641,7 @@
         <v>0.97246240476425216</v>
       </c>
     </row>
-    <row r="47" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="14">
         <v>1982</v>
       </c>
@@ -31297,7 +29703,7 @@
         <v>0.62789938598167416</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="14">
         <v>1983</v>
       </c>
@@ -31359,7 +29765,7 @@
         <v>0.97015167649463063</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="14">
         <v>1984</v>
       </c>
@@ -31421,7 +29827,7 @@
         <v>0.70059180779600883</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="14">
         <v>1985</v>
       </c>
@@ -31483,7 +29889,7 @@
         <v>0.66908244808752559</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="14">
         <v>1986</v>
       </c>
@@ -31545,7 +29951,7 @@
         <v>0.77231887879151007</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="14">
         <v>1987</v>
       </c>
@@ -31607,7 +30013,7 @@
         <v>0.86545771958463613</v>
       </c>
     </row>
-    <row r="53" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="14">
         <v>1988</v>
       </c>
@@ -31669,7 +30075,7 @@
         <v>1.0341575091963577</v>
       </c>
     </row>
-    <row r="54" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="14">
         <v>1989</v>
       </c>
@@ -31731,7 +30137,7 @@
         <v>0.70215274084762425</v>
       </c>
     </row>
-    <row r="55" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="14">
         <v>1990</v>
       </c>
@@ -31793,7 +30199,7 @@
         <v>0.6801776164076424</v>
       </c>
     </row>
-    <row r="56" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="14">
         <v>1991</v>
       </c>
@@ -31855,7 +30261,7 @@
         <v>0.93572283740859141</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="14">
         <v>1992</v>
       </c>
@@ -31917,7 +30323,7 @@
         <v>0.95288839764300004</v>
       </c>
     </row>
-    <row r="58" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="14">
         <v>1993</v>
       </c>
@@ -31979,7 +30385,7 @@
         <v>0.7149141671182776</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="14">
         <v>1994</v>
       </c>
@@ -32041,7 +30447,7 @@
         <v>0.82698225341617448</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="14">
         <v>1995</v>
       </c>
@@ -32103,7 +30509,7 @@
         <v>0.78462328387498881</v>
       </c>
     </row>
-    <row r="61" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="14">
         <v>1996</v>
       </c>
@@ -32165,7 +30571,7 @@
         <v>0.79747134420676158</v>
       </c>
     </row>
-    <row r="62" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="14">
         <v>1997</v>
       </c>
@@ -32227,7 +30633,7 @@
         <v>0.53637058022275153</v>
       </c>
     </row>
-    <row r="63" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="14">
         <v>1998</v>
       </c>
@@ -32289,7 +30695,7 @@
         <v>0.93128663757939523</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="14">
         <v>1999</v>
       </c>
@@ -32351,7 +30757,7 @@
         <v>0.82390096621437559</v>
       </c>
     </row>
-    <row r="65" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="14">
         <v>2000</v>
       </c>
@@ -32413,7 +30819,7 @@
         <v>0.91879191298191876</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="14">
         <v>2001</v>
       </c>
@@ -32475,7 +30881,7 @@
         <v>0.90416461852196373</v>
       </c>
     </row>
-    <row r="67" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="14">
         <v>2002</v>
       </c>
@@ -32537,7 +30943,7 @@
         <v>0.97475498933523219</v>
       </c>
     </row>
-    <row r="68" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="14">
         <v>2003</v>
       </c>
@@ -32599,7 +31005,7 @@
         <v>1.0942045543369094</v>
       </c>
     </row>
-    <row r="69" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="14">
         <v>2004</v>
       </c>
@@ -32661,7 +31067,7 @@
         <v>0.93055027317695238</v>
       </c>
     </row>
-    <row r="70" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="14">
         <v>2005</v>
       </c>
@@ -32723,7 +31129,7 @@
         <v>1.0667197486249864</v>
       </c>
     </row>
-    <row r="71" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="14">
         <v>2006</v>
       </c>
@@ -32785,7 +31191,7 @@
         <v>0.68744670366737437</v>
       </c>
     </row>
-    <row r="72" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="14">
         <v>2007</v>
       </c>
@@ -32847,7 +31253,7 @@
         <v>1.4514257425213959</v>
       </c>
     </row>
-    <row r="73" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="14">
         <v>2008</v>
       </c>
@@ -32909,7 +31315,7 @@
         <v>1.1094129209927566</v>
       </c>
     </row>
-    <row r="74" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="14">
         <v>2009</v>
       </c>
@@ -32971,7 +31377,7 @@
         <v>0.85547172130635862</v>
       </c>
     </row>
-    <row r="75" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="14">
         <v>2010</v>
       </c>
@@ -33033,7 +31439,7 @@
         <v>0.94875663132744115</v>
       </c>
     </row>
-    <row r="76" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" s="2" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="14">
         <v>2011</v>
       </c>
@@ -33095,7 +31501,7 @@
         <v>1.1140968879170998</v>
       </c>
     </row>
-    <row r="77" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" s="2" customFormat="1">
       <c r="A77" s="14">
         <v>2012</v>
       </c>
@@ -33157,7 +31563,7 @@
         <v>1.0344957535036723</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" s="2" customFormat="1">
       <c r="A78" s="14">
         <v>2013</v>
       </c>
@@ -33219,7 +31625,7 @@
         <v>0.80753544298629476</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20">
       <c r="A79" s="77">
         <v>2014</v>
       </c>
@@ -33281,7 +31687,7 @@
         <v>0.82941417482469815</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20">
       <c r="A80" s="77">
         <v>2015</v>
       </c>
@@ -33343,7 +31749,7 @@
         <v>1.2498075955815897</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20">
       <c r="A81" s="77">
         <v>2016</v>
       </c>
@@ -33405,7 +31811,7 @@
         <v>0.97555273847617274</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20">
       <c r="A82" s="77"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -33423,7 +31829,7 @@
       <c r="O82" s="15"/>
       <c r="P82" s="15"/>
     </row>
-    <row r="83" spans="1:20" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" s="13" customFormat="1">
       <c r="A83" s="107"/>
       <c r="B83" s="107"/>
       <c r="C83" s="107"/>
@@ -33443,7 +31849,7 @@
       <c r="Q83"/>
       <c r="R83"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20">
       <c r="A84" s="77"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
@@ -33463,7 +31869,7 @@
       <c r="Q84" s="107"/>
       <c r="R84" s="107"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20">
       <c r="A85" s="77"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
@@ -33481,24 +31887,24 @@
       <c r="O85" s="107"/>
       <c r="P85" s="107"/>
     </row>
-    <row r="86" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:20" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" customFormat="1"/>
+    <row r="87" spans="1:20" customFormat="1"/>
+    <row r="88" spans="1:20" customFormat="1"/>
+    <row r="89" spans="1:20" customFormat="1"/>
+    <row r="90" spans="1:20" customFormat="1"/>
+    <row r="91" spans="1:20" customFormat="1" ht="17" customHeight="1"/>
+    <row r="92" spans="1:20" customFormat="1" ht="17" customHeight="1"/>
+    <row r="93" spans="1:20" customFormat="1" ht="17" customHeight="1"/>
+    <row r="94" spans="1:20" customFormat="1" ht="17" customHeight="1"/>
+    <row r="95" spans="1:20" customFormat="1" ht="17" customHeight="1"/>
+    <row r="96" spans="1:20" ht="17" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="109"/>
       <c r="C96" s="2"/>
       <c r="F96" s="82"/>
       <c r="S96" s="38"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20">
       <c r="A97" s="77"/>
       <c r="B97" s="75"/>
       <c r="C97" s="75"/>
@@ -33514,7 +31920,7 @@
       <c r="O97" s="107"/>
       <c r="P97" s="107"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20">
       <c r="A98" s="77"/>
       <c r="B98" s="75"/>
       <c r="C98" s="75"/>
@@ -33534,7 +31940,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20">
       <c r="A99" s="77"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -33554,7 +31960,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20">
       <c r="A100" s="77"/>
       <c r="B100" s="75"/>
       <c r="C100" s="75"/>
@@ -33574,7 +31980,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20">
       <c r="A101" s="77"/>
       <c r="B101" s="75"/>
       <c r="C101" s="75"/>
@@ -33594,7 +32000,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20">
       <c r="A102" s="77"/>
       <c r="B102" s="75"/>
       <c r="C102" s="75"/>
@@ -33614,7 +32020,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20">
       <c r="A103" s="77"/>
       <c r="B103" s="75"/>
       <c r="C103" s="75"/>
@@ -33634,7 +32040,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20">
       <c r="A104" s="77"/>
       <c r="B104" s="75"/>
       <c r="C104" s="75"/>
@@ -33654,7 +32060,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20">
       <c r="A105" s="77"/>
       <c r="B105" s="75"/>
       <c r="C105" s="75"/>
@@ -33674,7 +32080,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20">
       <c r="A106" s="77"/>
       <c r="B106" s="75"/>
       <c r="C106" s="75"/>
@@ -33694,7 +32100,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20">
       <c r="A107" s="77"/>
       <c r="B107" s="75"/>
       <c r="C107" s="75"/>
@@ -33714,7 +32120,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20">
       <c r="A108" s="77"/>
       <c r="B108" s="75"/>
       <c r="C108" s="75"/>
@@ -33734,7 +32140,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20">
       <c r="A109" s="77"/>
       <c r="B109" s="75"/>
       <c r="C109" s="75"/>
@@ -33754,7 +32160,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20">
       <c r="A110" s="77"/>
       <c r="B110" s="75"/>
       <c r="C110" s="75"/>
@@ -33774,7 +32180,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20">
       <c r="A111" s="77"/>
       <c r="B111" s="75"/>
       <c r="C111" s="75"/>
@@ -33794,7 +32200,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20">
       <c r="A112" s="77"/>
       <c r="B112" s="75"/>
       <c r="C112" s="75"/>
@@ -33814,7 +32220,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20">
       <c r="A113" s="77"/>
       <c r="B113" s="75"/>
       <c r="C113" s="75"/>
@@ -33834,7 +32240,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20">
       <c r="A114" s="77"/>
       <c r="B114" s="75"/>
       <c r="C114" s="75"/>
@@ -33854,7 +32260,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20">
       <c r="A115" s="77"/>
       <c r="B115" s="75"/>
       <c r="C115" s="75"/>
@@ -33887,7 +32293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33897,17 +32303,17 @@
       <selection pane="bottomRight" activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="65"/>
+    <col min="1" max="1" width="10.83203125" style="65"/>
     <col min="2" max="2" width="20.5" style="150" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="150" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" style="150" customWidth="1"/>
     <col min="4" max="7" width="18" style="150" customWidth="1"/>
-    <col min="8" max="9" width="20.125" style="65" customWidth="1"/>
-    <col min="10" max="16384" width="10.875" style="65"/>
+    <col min="8" max="9" width="20.1640625" style="65" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="65"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="17">
       <c r="A1" s="2"/>
       <c r="B1" s="250" t="s">
         <v>34</v>
@@ -33931,7 +32337,7 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="17">
       <c r="B2" s="121" t="s">
         <v>29</v>
       </c>
@@ -33954,7 +32360,7 @@
       <c r="S2" s="19"/>
       <c r="T2" s="19"/>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="1" customFormat="1">
       <c r="B3" s="251" t="s">
         <v>30</v>
       </c>
@@ -33977,7 +32383,7 @@
       <c r="S3" s="20"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26">
       <c r="A4" s="52"/>
       <c r="B4" s="252" t="s">
         <v>111</v>
@@ -34001,7 +32407,7 @@
       <c r="S4" s="42"/>
       <c r="T4" s="42"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26">
       <c r="A5" s="52"/>
       <c r="B5" s="252" t="s">
         <v>112</v>
@@ -34025,7 +32431,7 @@
       <c r="S5" s="42"/>
       <c r="T5" s="42"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26">
       <c r="A6" s="52"/>
       <c r="B6" s="254" t="s">
         <v>7</v>
@@ -34049,7 +32455,7 @@
       <c r="S6" s="42"/>
       <c r="T6" s="42"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26">
       <c r="A7" s="2"/>
       <c r="B7" s="146" t="s">
         <v>144</v>
@@ -34073,7 +32479,7 @@
       <c r="S7" s="37"/>
       <c r="T7" s="37"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26">
       <c r="A8" s="2"/>
       <c r="B8" s="256" t="s">
         <v>149</v>
@@ -34097,7 +32503,7 @@
       <c r="S8" s="53"/>
       <c r="T8" s="53"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26">
       <c r="A9" s="1"/>
       <c r="B9" s="258" t="s">
         <v>113</v>
@@ -34121,7 +32527,7 @@
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
     </row>
-    <row r="10" spans="1:26" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="235" customFormat="1">
       <c r="A10" s="2"/>
       <c r="B10" s="259" t="s">
         <v>150</v>
@@ -34145,7 +32551,7 @@
       <c r="S10" s="234"/>
       <c r="T10" s="234"/>
     </row>
-    <row r="11" spans="1:26" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="1" customFormat="1" ht="17" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="261" t="s">
         <v>122</v>
@@ -34175,7 +32581,7 @@
       <c r="Y11" s="50"/>
       <c r="Z11" s="50"/>
     </row>
-    <row r="12" spans="1:26" s="215" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="215" customFormat="1" ht="17" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="263" t="s">
         <v>129</v>
@@ -34205,7 +32611,7 @@
       <c r="Y12" s="218"/>
       <c r="Z12" s="218"/>
     </row>
-    <row r="14" spans="1:26" s="176" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="176" customFormat="1">
       <c r="B14" s="266"/>
       <c r="C14" s="266"/>
       <c r="D14" s="266"/>
@@ -34219,7 +32625,7 @@
       <c r="L14" s="178"/>
       <c r="M14" s="178"/>
     </row>
-    <row r="15" spans="1:26" s="192" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="192" customFormat="1">
       <c r="A15" s="190" t="s">
         <v>22</v>
       </c>
@@ -34243,7 +32649,7 @@
       </c>
       <c r="H15" s="214"/>
     </row>
-    <row r="16" spans="1:26" s="105" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="105" customFormat="1">
       <c r="A16" s="105">
         <v>1750</v>
       </c>
@@ -34257,7 +32663,7 @@
       <c r="G16" s="268"/>
       <c r="H16"/>
     </row>
-    <row r="17" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="78" customFormat="1">
       <c r="A17" s="78">
         <v>1751</v>
       </c>
@@ -34274,7 +32680,7 @@
       <c r="H17"/>
       <c r="I17" s="70"/>
     </row>
-    <row r="18" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="78" customFormat="1">
       <c r="A18" s="78">
         <v>1752</v>
       </c>
@@ -34291,7 +32697,7 @@
       <c r="H18"/>
       <c r="I18" s="70"/>
     </row>
-    <row r="19" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="78" customFormat="1">
       <c r="A19" s="78">
         <v>1753</v>
       </c>
@@ -34308,7 +32714,7 @@
       <c r="H19"/>
       <c r="I19" s="70"/>
     </row>
-    <row r="20" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="78" customFormat="1">
       <c r="A20" s="78">
         <v>1754</v>
       </c>
@@ -34325,7 +32731,7 @@
       <c r="H20"/>
       <c r="I20" s="70"/>
     </row>
-    <row r="21" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="78" customFormat="1">
       <c r="A21" s="78">
         <v>1755</v>
       </c>
@@ -34342,7 +32748,7 @@
       <c r="H21"/>
       <c r="I21" s="70"/>
     </row>
-    <row r="22" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="78" customFormat="1">
       <c r="A22" s="78">
         <v>1756</v>
       </c>
@@ -34359,7 +32765,7 @@
       <c r="H22"/>
       <c r="I22" s="70"/>
     </row>
-    <row r="23" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="78" customFormat="1">
       <c r="A23" s="78">
         <v>1757</v>
       </c>
@@ -34376,7 +32782,7 @@
       <c r="H23"/>
       <c r="I23" s="70"/>
     </row>
-    <row r="24" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="78" customFormat="1">
       <c r="A24" s="78">
         <v>1758</v>
       </c>
@@ -34393,7 +32799,7 @@
       <c r="H24"/>
       <c r="I24" s="70"/>
     </row>
-    <row r="25" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="78" customFormat="1">
       <c r="A25" s="78">
         <v>1759</v>
       </c>
@@ -34410,7 +32816,7 @@
       <c r="H25"/>
       <c r="I25" s="70"/>
     </row>
-    <row r="26" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="78" customFormat="1">
       <c r="A26" s="78">
         <v>1760</v>
       </c>
@@ -34427,7 +32833,7 @@
       <c r="H26"/>
       <c r="I26" s="70"/>
     </row>
-    <row r="27" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="78" customFormat="1">
       <c r="A27" s="78">
         <v>1761</v>
       </c>
@@ -34444,7 +32850,7 @@
       <c r="H27"/>
       <c r="I27" s="70"/>
     </row>
-    <row r="28" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="78" customFormat="1">
       <c r="A28" s="78">
         <v>1762</v>
       </c>
@@ -34461,7 +32867,7 @@
       <c r="H28"/>
       <c r="I28" s="70"/>
     </row>
-    <row r="29" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="78" customFormat="1">
       <c r="A29" s="78">
         <v>1763</v>
       </c>
@@ -34478,7 +32884,7 @@
       <c r="H29"/>
       <c r="I29" s="70"/>
     </row>
-    <row r="30" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="78" customFormat="1">
       <c r="A30" s="78">
         <v>1764</v>
       </c>
@@ -34495,7 +32901,7 @@
       <c r="H30"/>
       <c r="I30" s="70"/>
     </row>
-    <row r="31" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="78" customFormat="1">
       <c r="A31" s="78">
         <v>1765</v>
       </c>
@@ -34514,7 +32920,7 @@
       <c r="L31" s="70"/>
       <c r="O31" s="70"/>
     </row>
-    <row r="32" spans="1:15" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="78" customFormat="1">
       <c r="A32" s="78">
         <v>1766</v>
       </c>
@@ -34532,7 +32938,7 @@
       <c r="I32" s="70"/>
       <c r="L32" s="70"/>
     </row>
-    <row r="33" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="78" customFormat="1">
       <c r="A33" s="78">
         <v>1767</v>
       </c>
@@ -34550,7 +32956,7 @@
       <c r="I33" s="70"/>
       <c r="L33" s="70"/>
     </row>
-    <row r="34" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="78" customFormat="1">
       <c r="A34" s="78">
         <v>1768</v>
       </c>
@@ -34568,7 +32974,7 @@
       <c r="I34" s="70"/>
       <c r="L34" s="70"/>
     </row>
-    <row r="35" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" s="78" customFormat="1">
       <c r="A35" s="78">
         <v>1769</v>
       </c>
@@ -34586,7 +32992,7 @@
       <c r="I35" s="70"/>
       <c r="L35" s="70"/>
     </row>
-    <row r="36" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" s="78" customFormat="1">
       <c r="A36" s="78">
         <v>1770</v>
       </c>
@@ -34604,7 +33010,7 @@
       <c r="I36" s="70"/>
       <c r="L36" s="70"/>
     </row>
-    <row r="37" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" s="78" customFormat="1">
       <c r="A37" s="78">
         <v>1771</v>
       </c>
@@ -34622,7 +33028,7 @@
       <c r="I37" s="70"/>
       <c r="L37" s="70"/>
     </row>
-    <row r="38" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" s="78" customFormat="1">
       <c r="A38" s="78">
         <v>1772</v>
       </c>
@@ -34640,7 +33046,7 @@
       <c r="I38" s="70"/>
       <c r="L38" s="70"/>
     </row>
-    <row r="39" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" s="78" customFormat="1">
       <c r="A39" s="78">
         <v>1773</v>
       </c>
@@ -34658,7 +33064,7 @@
       <c r="I39" s="70"/>
       <c r="L39" s="70"/>
     </row>
-    <row r="40" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" s="78" customFormat="1">
       <c r="A40" s="78">
         <v>1774</v>
       </c>
@@ -34676,7 +33082,7 @@
       <c r="I40" s="70"/>
       <c r="L40" s="70"/>
     </row>
-    <row r="41" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" s="78" customFormat="1">
       <c r="A41" s="78">
         <v>1775</v>
       </c>
@@ -34694,7 +33100,7 @@
       <c r="I41" s="70"/>
       <c r="L41" s="70"/>
     </row>
-    <row r="42" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" s="78" customFormat="1">
       <c r="A42" s="78">
         <v>1776</v>
       </c>
@@ -34712,7 +33118,7 @@
       <c r="I42" s="70"/>
       <c r="L42" s="70"/>
     </row>
-    <row r="43" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" s="78" customFormat="1">
       <c r="A43" s="78">
         <v>1777</v>
       </c>
@@ -34730,7 +33136,7 @@
       <c r="I43" s="70"/>
       <c r="L43" s="70"/>
     </row>
-    <row r="44" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" s="78" customFormat="1">
       <c r="A44" s="78">
         <v>1778</v>
       </c>
@@ -34748,7 +33154,7 @@
       <c r="I44" s="70"/>
       <c r="L44" s="70"/>
     </row>
-    <row r="45" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" s="78" customFormat="1">
       <c r="A45" s="78">
         <v>1779</v>
       </c>
@@ -34766,7 +33172,7 @@
       <c r="I45" s="70"/>
       <c r="L45" s="70"/>
     </row>
-    <row r="46" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" s="78" customFormat="1">
       <c r="A46" s="78">
         <v>1780</v>
       </c>
@@ -34784,7 +33190,7 @@
       <c r="I46" s="70"/>
       <c r="L46" s="70"/>
     </row>
-    <row r="47" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" s="78" customFormat="1">
       <c r="A47" s="78">
         <v>1781</v>
       </c>
@@ -34805,7 +33211,7 @@
       <c r="L47" s="70"/>
       <c r="N47" s="70"/>
     </row>
-    <row r="48" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" s="78" customFormat="1">
       <c r="A48" s="78">
         <v>1782</v>
       </c>
@@ -34826,7 +33232,7 @@
       <c r="L48" s="70"/>
       <c r="N48" s="70"/>
     </row>
-    <row r="49" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="78" customFormat="1">
       <c r="A49" s="78">
         <v>1783</v>
       </c>
@@ -34847,7 +33253,7 @@
       <c r="L49" s="70"/>
       <c r="N49" s="70"/>
     </row>
-    <row r="50" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" s="78" customFormat="1">
       <c r="A50" s="78">
         <v>1784</v>
       </c>
@@ -34868,7 +33274,7 @@
       <c r="L50" s="70"/>
       <c r="N50" s="70"/>
     </row>
-    <row r="51" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="78" customFormat="1">
       <c r="A51" s="78">
         <v>1785</v>
       </c>
@@ -34889,7 +33295,7 @@
       <c r="L51" s="70"/>
       <c r="N51" s="70"/>
     </row>
-    <row r="52" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="78" customFormat="1">
       <c r="A52" s="78">
         <v>1786</v>
       </c>
@@ -34910,7 +33316,7 @@
       <c r="L52" s="70"/>
       <c r="N52" s="70"/>
     </row>
-    <row r="53" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="78" customFormat="1">
       <c r="A53" s="78">
         <v>1787</v>
       </c>
@@ -34931,7 +33337,7 @@
       <c r="L53" s="70"/>
       <c r="N53" s="70"/>
     </row>
-    <row r="54" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="78" customFormat="1">
       <c r="A54" s="78">
         <v>1788</v>
       </c>
@@ -34952,7 +33358,7 @@
       <c r="L54" s="70"/>
       <c r="N54" s="70"/>
     </row>
-    <row r="55" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="78" customFormat="1">
       <c r="A55" s="78">
         <v>1789</v>
       </c>
@@ -34973,7 +33379,7 @@
       <c r="L55" s="70"/>
       <c r="N55" s="70"/>
     </row>
-    <row r="56" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="78" customFormat="1">
       <c r="A56" s="78">
         <v>1790</v>
       </c>
@@ -34994,7 +33400,7 @@
       <c r="L56" s="70"/>
       <c r="N56" s="70"/>
     </row>
-    <row r="57" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="78" customFormat="1">
       <c r="A57" s="78">
         <v>1791</v>
       </c>
@@ -35015,7 +33421,7 @@
       <c r="L57" s="70"/>
       <c r="N57" s="70"/>
     </row>
-    <row r="58" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="78" customFormat="1">
       <c r="A58" s="78">
         <v>1792</v>
       </c>
@@ -35036,7 +33442,7 @@
       <c r="L58" s="70"/>
       <c r="N58" s="70"/>
     </row>
-    <row r="59" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="78" customFormat="1">
       <c r="A59" s="78">
         <v>1793</v>
       </c>
@@ -35057,7 +33463,7 @@
       <c r="L59" s="70"/>
       <c r="N59" s="70"/>
     </row>
-    <row r="60" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="78" customFormat="1">
       <c r="A60" s="78">
         <v>1794</v>
       </c>
@@ -35078,7 +33484,7 @@
       <c r="L60" s="70"/>
       <c r="N60" s="70"/>
     </row>
-    <row r="61" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" s="78" customFormat="1">
       <c r="A61" s="78">
         <v>1795</v>
       </c>
@@ -35099,7 +33505,7 @@
       <c r="L61" s="70"/>
       <c r="N61" s="70"/>
     </row>
-    <row r="62" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" s="78" customFormat="1">
       <c r="A62" s="78">
         <v>1796</v>
       </c>
@@ -35120,7 +33526,7 @@
       <c r="L62" s="70"/>
       <c r="N62" s="70"/>
     </row>
-    <row r="63" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="78" customFormat="1">
       <c r="A63" s="78">
         <v>1797</v>
       </c>
@@ -35141,7 +33547,7 @@
       <c r="L63" s="70"/>
       <c r="N63" s="70"/>
     </row>
-    <row r="64" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="78" customFormat="1">
       <c r="A64" s="78">
         <v>1798</v>
       </c>
@@ -35162,7 +33568,7 @@
       <c r="L64" s="70"/>
       <c r="N64" s="70"/>
     </row>
-    <row r="65" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="78" customFormat="1">
       <c r="A65" s="78">
         <v>1799</v>
       </c>
@@ -35183,7 +33589,7 @@
       <c r="L65" s="70"/>
       <c r="N65" s="70"/>
     </row>
-    <row r="66" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="78" customFormat="1">
       <c r="A66" s="78">
         <v>1800</v>
       </c>
@@ -35204,7 +33610,7 @@
       <c r="L66" s="70"/>
       <c r="N66" s="70"/>
     </row>
-    <row r="67" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="78" customFormat="1">
       <c r="A67" s="78">
         <v>1801</v>
       </c>
@@ -35225,7 +33631,7 @@
       <c r="L67" s="70"/>
       <c r="N67" s="70"/>
     </row>
-    <row r="68" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="78" customFormat="1">
       <c r="A68" s="78">
         <v>1802</v>
       </c>
@@ -35246,7 +33652,7 @@
       <c r="L68" s="70"/>
       <c r="N68" s="70"/>
     </row>
-    <row r="69" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="78" customFormat="1">
       <c r="A69" s="78">
         <v>1803</v>
       </c>
@@ -35267,7 +33673,7 @@
       <c r="L69" s="70"/>
       <c r="N69" s="70"/>
     </row>
-    <row r="70" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" s="78" customFormat="1">
       <c r="A70" s="78">
         <v>1804</v>
       </c>
@@ -35288,7 +33694,7 @@
       <c r="L70" s="70"/>
       <c r="N70" s="70"/>
     </row>
-    <row r="71" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="78" customFormat="1">
       <c r="A71" s="78">
         <v>1805</v>
       </c>
@@ -35309,7 +33715,7 @@
       <c r="L71" s="70"/>
       <c r="N71" s="70"/>
     </row>
-    <row r="72" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="78" customFormat="1">
       <c r="A72" s="78">
         <v>1806</v>
       </c>
@@ -35330,7 +33736,7 @@
       <c r="L72" s="70"/>
       <c r="N72" s="70"/>
     </row>
-    <row r="73" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="78" customFormat="1">
       <c r="A73" s="78">
         <v>1807</v>
       </c>
@@ -35351,7 +33757,7 @@
       <c r="L73" s="70"/>
       <c r="N73" s="70"/>
     </row>
-    <row r="74" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" s="78" customFormat="1">
       <c r="A74" s="78">
         <v>1808</v>
       </c>
@@ -35372,7 +33778,7 @@
       <c r="L74" s="70"/>
       <c r="N74" s="70"/>
     </row>
-    <row r="75" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" s="78" customFormat="1">
       <c r="A75" s="78">
         <v>1809</v>
       </c>
@@ -35393,7 +33799,7 @@
       <c r="L75" s="70"/>
       <c r="N75" s="70"/>
     </row>
-    <row r="76" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" s="78" customFormat="1">
       <c r="A76" s="78">
         <v>1810</v>
       </c>
@@ -35414,7 +33820,7 @@
       <c r="L76" s="70"/>
       <c r="N76" s="70"/>
     </row>
-    <row r="77" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" s="78" customFormat="1">
       <c r="A77" s="78">
         <v>1811</v>
       </c>
@@ -35435,7 +33841,7 @@
       <c r="L77" s="70"/>
       <c r="N77" s="70"/>
     </row>
-    <row r="78" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" s="78" customFormat="1">
       <c r="A78" s="78">
         <v>1812</v>
       </c>
@@ -35456,7 +33862,7 @@
       <c r="L78" s="70"/>
       <c r="N78" s="70"/>
     </row>
-    <row r="79" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" s="78" customFormat="1">
       <c r="A79" s="78">
         <v>1813</v>
       </c>
@@ -35477,7 +33883,7 @@
       <c r="L79" s="70"/>
       <c r="N79" s="70"/>
     </row>
-    <row r="80" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" s="78" customFormat="1">
       <c r="A80" s="78">
         <v>1814</v>
       </c>
@@ -35498,7 +33904,7 @@
       <c r="L80" s="70"/>
       <c r="N80" s="70"/>
     </row>
-    <row r="81" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" s="78" customFormat="1">
       <c r="A81" s="78">
         <v>1815</v>
       </c>
@@ -35519,7 +33925,7 @@
       <c r="L81" s="70"/>
       <c r="N81" s="70"/>
     </row>
-    <row r="82" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" s="78" customFormat="1">
       <c r="A82" s="78">
         <v>1816</v>
       </c>
@@ -35540,7 +33946,7 @@
       <c r="L82" s="70"/>
       <c r="N82" s="70"/>
     </row>
-    <row r="83" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" s="78" customFormat="1">
       <c r="A83" s="78">
         <v>1817</v>
       </c>
@@ -35561,7 +33967,7 @@
       <c r="L83" s="70"/>
       <c r="N83" s="70"/>
     </row>
-    <row r="84" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" s="78" customFormat="1">
       <c r="A84" s="78">
         <v>1818</v>
       </c>
@@ -35582,7 +33988,7 @@
       <c r="L84" s="70"/>
       <c r="N84" s="70"/>
     </row>
-    <row r="85" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" s="78" customFormat="1">
       <c r="A85" s="78">
         <v>1819</v>
       </c>
@@ -35603,7 +34009,7 @@
       <c r="L85" s="70"/>
       <c r="N85" s="70"/>
     </row>
-    <row r="86" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" s="78" customFormat="1">
       <c r="A86" s="78">
         <v>1820</v>
       </c>
@@ -35624,7 +34030,7 @@
       <c r="L86" s="70"/>
       <c r="N86" s="70"/>
     </row>
-    <row r="87" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" s="78" customFormat="1">
       <c r="A87" s="78">
         <v>1821</v>
       </c>
@@ -35645,7 +34051,7 @@
       <c r="L87" s="70"/>
       <c r="N87" s="70"/>
     </row>
-    <row r="88" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" s="78" customFormat="1">
       <c r="A88" s="78">
         <v>1822</v>
       </c>
@@ -35666,7 +34072,7 @@
       <c r="L88" s="70"/>
       <c r="N88" s="70"/>
     </row>
-    <row r="89" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="78" customFormat="1">
       <c r="A89" s="78">
         <v>1823</v>
       </c>
@@ -35687,7 +34093,7 @@
       <c r="L89" s="70"/>
       <c r="N89" s="70"/>
     </row>
-    <row r="90" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" s="78" customFormat="1">
       <c r="A90" s="78">
         <v>1824</v>
       </c>
@@ -35708,7 +34114,7 @@
       <c r="L90" s="70"/>
       <c r="N90" s="70"/>
     </row>
-    <row r="91" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" s="78" customFormat="1">
       <c r="A91" s="78">
         <v>1825</v>
       </c>
@@ -35729,7 +34135,7 @@
       <c r="L91" s="70"/>
       <c r="N91" s="70"/>
     </row>
-    <row r="92" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" s="78" customFormat="1">
       <c r="A92" s="78">
         <v>1826</v>
       </c>
@@ -35750,7 +34156,7 @@
       <c r="L92" s="70"/>
       <c r="N92" s="70"/>
     </row>
-    <row r="93" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" s="78" customFormat="1">
       <c r="A93" s="78">
         <v>1827</v>
       </c>
@@ -35771,7 +34177,7 @@
       <c r="L93" s="70"/>
       <c r="N93" s="70"/>
     </row>
-    <row r="94" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" s="78" customFormat="1">
       <c r="A94" s="78">
         <v>1828</v>
       </c>
@@ -35792,7 +34198,7 @@
       <c r="L94" s="70"/>
       <c r="N94" s="70"/>
     </row>
-    <row r="95" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" s="78" customFormat="1">
       <c r="A95" s="78">
         <v>1829</v>
       </c>
@@ -35813,7 +34219,7 @@
       <c r="L95" s="70"/>
       <c r="N95" s="70"/>
     </row>
-    <row r="96" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" s="78" customFormat="1">
       <c r="A96" s="78">
         <v>1830</v>
       </c>
@@ -35834,7 +34240,7 @@
       <c r="L96" s="70"/>
       <c r="N96" s="70"/>
     </row>
-    <row r="97" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" s="78" customFormat="1">
       <c r="A97" s="78">
         <v>1831</v>
       </c>
@@ -35855,7 +34261,7 @@
       <c r="L97" s="70"/>
       <c r="N97" s="70"/>
     </row>
-    <row r="98" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" s="78" customFormat="1">
       <c r="A98" s="78">
         <v>1832</v>
       </c>
@@ -35876,7 +34282,7 @@
       <c r="L98" s="70"/>
       <c r="N98" s="70"/>
     </row>
-    <row r="99" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" s="78" customFormat="1">
       <c r="A99" s="78">
         <v>1833</v>
       </c>
@@ -35897,7 +34303,7 @@
       <c r="L99" s="70"/>
       <c r="N99" s="70"/>
     </row>
-    <row r="100" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" s="78" customFormat="1">
       <c r="A100" s="78">
         <v>1834</v>
       </c>
@@ -35918,7 +34324,7 @@
       <c r="L100" s="70"/>
       <c r="N100" s="70"/>
     </row>
-    <row r="101" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" s="78" customFormat="1">
       <c r="A101" s="78">
         <v>1835</v>
       </c>
@@ -35939,7 +34345,7 @@
       <c r="L101" s="70"/>
       <c r="N101" s="70"/>
     </row>
-    <row r="102" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" s="78" customFormat="1">
       <c r="A102" s="78">
         <v>1836</v>
       </c>
@@ -35960,7 +34366,7 @@
       <c r="L102" s="70"/>
       <c r="N102" s="70"/>
     </row>
-    <row r="103" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" s="78" customFormat="1">
       <c r="A103" s="78">
         <v>1837</v>
       </c>
@@ -35981,7 +34387,7 @@
       <c r="L103" s="70"/>
       <c r="N103" s="70"/>
     </row>
-    <row r="104" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" s="78" customFormat="1">
       <c r="A104" s="78">
         <v>1838</v>
       </c>
@@ -36002,7 +34408,7 @@
       <c r="L104" s="70"/>
       <c r="N104" s="70"/>
     </row>
-    <row r="105" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" s="78" customFormat="1">
       <c r="A105" s="78">
         <v>1839</v>
       </c>
@@ -36023,7 +34429,7 @@
       <c r="L105" s="70"/>
       <c r="N105" s="70"/>
     </row>
-    <row r="106" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" s="78" customFormat="1">
       <c r="A106" s="78">
         <v>1840</v>
       </c>
@@ -36044,7 +34450,7 @@
       <c r="L106" s="70"/>
       <c r="N106" s="70"/>
     </row>
-    <row r="107" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" s="78" customFormat="1">
       <c r="A107" s="78">
         <v>1841</v>
       </c>
@@ -36065,7 +34471,7 @@
       <c r="L107" s="70"/>
       <c r="N107" s="70"/>
     </row>
-    <row r="108" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" s="78" customFormat="1">
       <c r="A108" s="78">
         <v>1842</v>
       </c>
@@ -36086,7 +34492,7 @@
       <c r="L108" s="70"/>
       <c r="N108" s="70"/>
     </row>
-    <row r="109" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" s="78" customFormat="1">
       <c r="A109" s="78">
         <v>1843</v>
       </c>
@@ -36107,7 +34513,7 @@
       <c r="L109" s="70"/>
       <c r="N109" s="70"/>
     </row>
-    <row r="110" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" s="78" customFormat="1">
       <c r="A110" s="78">
         <v>1844</v>
       </c>
@@ -36128,7 +34534,7 @@
       <c r="L110" s="70"/>
       <c r="N110" s="70"/>
     </row>
-    <row r="111" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" s="78" customFormat="1">
       <c r="A111" s="78">
         <v>1845</v>
       </c>
@@ -36149,7 +34555,7 @@
       <c r="L111" s="70"/>
       <c r="N111" s="70"/>
     </row>
-    <row r="112" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" s="78" customFormat="1">
       <c r="A112" s="78">
         <v>1846</v>
       </c>
@@ -36170,7 +34576,7 @@
       <c r="L112" s="70"/>
       <c r="N112" s="70"/>
     </row>
-    <row r="113" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" s="78" customFormat="1">
       <c r="A113" s="78">
         <v>1847</v>
       </c>
@@ -36191,7 +34597,7 @@
       <c r="L113" s="70"/>
       <c r="N113" s="70"/>
     </row>
-    <row r="114" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" s="78" customFormat="1">
       <c r="A114" s="78">
         <v>1848</v>
       </c>
@@ -36212,7 +34618,7 @@
       <c r="L114" s="70"/>
       <c r="N114" s="70"/>
     </row>
-    <row r="115" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" s="78" customFormat="1">
       <c r="A115" s="78">
         <v>1849</v>
       </c>
@@ -36234,7 +34640,7 @@
       <c r="L115" s="70"/>
       <c r="N115" s="70"/>
     </row>
-    <row r="116" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" s="78" customFormat="1">
       <c r="A116" s="78">
         <v>1850</v>
       </c>
@@ -36258,7 +34664,7 @@
       <c r="L116" s="70"/>
       <c r="N116" s="70"/>
     </row>
-    <row r="117" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" s="78" customFormat="1">
       <c r="A117" s="78">
         <v>1851</v>
       </c>
@@ -36282,7 +34688,7 @@
       <c r="L117" s="70"/>
       <c r="N117" s="70"/>
     </row>
-    <row r="118" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" s="78" customFormat="1">
       <c r="A118" s="78">
         <v>1852</v>
       </c>
@@ -36306,7 +34712,7 @@
       <c r="L118" s="70"/>
       <c r="N118" s="70"/>
     </row>
-    <row r="119" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" s="78" customFormat="1">
       <c r="A119" s="78">
         <v>1853</v>
       </c>
@@ -36330,7 +34736,7 @@
       <c r="L119" s="70"/>
       <c r="N119" s="70"/>
     </row>
-    <row r="120" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" s="78" customFormat="1">
       <c r="A120" s="78">
         <v>1854</v>
       </c>
@@ -36354,7 +34760,7 @@
       <c r="L120" s="70"/>
       <c r="N120" s="70"/>
     </row>
-    <row r="121" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" s="78" customFormat="1">
       <c r="A121" s="78">
         <v>1855</v>
       </c>
@@ -36378,7 +34784,7 @@
       <c r="L121" s="70"/>
       <c r="N121" s="70"/>
     </row>
-    <row r="122" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" s="78" customFormat="1">
       <c r="A122" s="78">
         <v>1856</v>
       </c>
@@ -36402,7 +34808,7 @@
       <c r="L122" s="70"/>
       <c r="N122" s="70"/>
     </row>
-    <row r="123" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" s="78" customFormat="1">
       <c r="A123" s="78">
         <v>1857</v>
       </c>
@@ -36426,7 +34832,7 @@
       <c r="L123" s="70"/>
       <c r="N123" s="70"/>
     </row>
-    <row r="124" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" s="78" customFormat="1">
       <c r="A124" s="78">
         <v>1858</v>
       </c>
@@ -36450,7 +34856,7 @@
       <c r="L124" s="70"/>
       <c r="N124" s="70"/>
     </row>
-    <row r="125" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" s="78" customFormat="1">
       <c r="A125" s="78">
         <v>1859</v>
       </c>
@@ -36474,7 +34880,7 @@
       <c r="L125" s="70"/>
       <c r="N125" s="70"/>
     </row>
-    <row r="126" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" s="78" customFormat="1">
       <c r="A126" s="78">
         <v>1860</v>
       </c>
@@ -36503,7 +34909,7 @@
       <c r="L126" s="70"/>
       <c r="N126" s="70"/>
     </row>
-    <row r="127" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" s="78" customFormat="1">
       <c r="A127" s="78">
         <v>1861</v>
       </c>
@@ -36532,7 +34938,7 @@
       <c r="L127" s="70"/>
       <c r="N127" s="70"/>
     </row>
-    <row r="128" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" s="78" customFormat="1">
       <c r="A128" s="78">
         <v>1862</v>
       </c>
@@ -36561,7 +34967,7 @@
       <c r="L128" s="70"/>
       <c r="N128" s="70"/>
     </row>
-    <row r="129" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" s="78" customFormat="1">
       <c r="A129" s="78">
         <v>1863</v>
       </c>
@@ -36590,7 +34996,7 @@
       <c r="L129" s="70"/>
       <c r="N129" s="70"/>
     </row>
-    <row r="130" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" s="78" customFormat="1">
       <c r="A130" s="78">
         <v>1864</v>
       </c>
@@ -36619,7 +35025,7 @@
       <c r="L130" s="70"/>
       <c r="N130" s="70"/>
     </row>
-    <row r="131" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" s="78" customFormat="1">
       <c r="A131" s="78">
         <v>1865</v>
       </c>
@@ -36648,7 +35054,7 @@
       <c r="L131" s="70"/>
       <c r="N131" s="70"/>
     </row>
-    <row r="132" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" s="78" customFormat="1">
       <c r="A132" s="78">
         <v>1866</v>
       </c>
@@ -36677,7 +35083,7 @@
       <c r="L132" s="70"/>
       <c r="N132" s="70"/>
     </row>
-    <row r="133" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" s="78" customFormat="1">
       <c r="A133" s="78">
         <v>1867</v>
       </c>
@@ -36706,7 +35112,7 @@
       <c r="L133" s="70"/>
       <c r="N133" s="70"/>
     </row>
-    <row r="134" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" s="78" customFormat="1">
       <c r="A134" s="78">
         <v>1868</v>
       </c>
@@ -36735,7 +35141,7 @@
       <c r="L134" s="70"/>
       <c r="N134" s="70"/>
     </row>
-    <row r="135" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" s="78" customFormat="1">
       <c r="A135" s="78">
         <v>1869</v>
       </c>
@@ -36764,7 +35170,7 @@
       <c r="L135" s="70"/>
       <c r="N135" s="70"/>
     </row>
-    <row r="136" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" s="78" customFormat="1">
       <c r="A136" s="78">
         <v>1870</v>
       </c>
@@ -36793,7 +35199,7 @@
       <c r="L136" s="70"/>
       <c r="N136" s="70"/>
     </row>
-    <row r="137" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" s="78" customFormat="1">
       <c r="A137" s="78">
         <v>1871</v>
       </c>
@@ -36822,7 +35228,7 @@
       <c r="L137" s="70"/>
       <c r="N137" s="70"/>
     </row>
-    <row r="138" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" s="78" customFormat="1">
       <c r="A138" s="78">
         <v>1872</v>
       </c>
@@ -36851,7 +35257,7 @@
       <c r="L138" s="70"/>
       <c r="N138" s="70"/>
     </row>
-    <row r="139" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" s="78" customFormat="1">
       <c r="A139" s="78">
         <v>1873</v>
       </c>
@@ -36880,7 +35286,7 @@
       <c r="L139" s="70"/>
       <c r="N139" s="70"/>
     </row>
-    <row r="140" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" s="78" customFormat="1">
       <c r="A140" s="78">
         <v>1874</v>
       </c>
@@ -36909,7 +35315,7 @@
       <c r="L140" s="70"/>
       <c r="N140" s="70"/>
     </row>
-    <row r="141" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" s="78" customFormat="1">
       <c r="A141" s="78">
         <v>1875</v>
       </c>
@@ -36938,7 +35344,7 @@
       <c r="L141" s="70"/>
       <c r="N141" s="70"/>
     </row>
-    <row r="142" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" s="78" customFormat="1">
       <c r="A142" s="78">
         <v>1876</v>
       </c>
@@ -36967,7 +35373,7 @@
       <c r="L142" s="70"/>
       <c r="N142" s="70"/>
     </row>
-    <row r="143" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" s="78" customFormat="1">
       <c r="A143" s="78">
         <v>1877</v>
       </c>
@@ -36996,7 +35402,7 @@
       <c r="L143" s="70"/>
       <c r="N143" s="70"/>
     </row>
-    <row r="144" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" s="78" customFormat="1">
       <c r="A144" s="78">
         <v>1878</v>
       </c>
@@ -37025,7 +35431,7 @@
       <c r="L144" s="70"/>
       <c r="N144" s="70"/>
     </row>
-    <row r="145" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" s="78" customFormat="1">
       <c r="A145" s="78">
         <v>1879</v>
       </c>
@@ -37054,7 +35460,7 @@
       <c r="L145" s="70"/>
       <c r="N145" s="70"/>
     </row>
-    <row r="146" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" s="78" customFormat="1">
       <c r="A146" s="78">
         <v>1880</v>
       </c>
@@ -37083,7 +35489,7 @@
       <c r="L146" s="70"/>
       <c r="N146" s="70"/>
     </row>
-    <row r="147" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" s="78" customFormat="1">
       <c r="A147" s="78">
         <v>1881</v>
       </c>
@@ -37112,7 +35518,7 @@
       <c r="L147" s="70"/>
       <c r="N147" s="70"/>
     </row>
-    <row r="148" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" s="78" customFormat="1">
       <c r="A148" s="78">
         <v>1882</v>
       </c>
@@ -37141,7 +35547,7 @@
       <c r="L148" s="70"/>
       <c r="N148" s="70"/>
     </row>
-    <row r="149" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" s="78" customFormat="1">
       <c r="A149" s="78">
         <v>1883</v>
       </c>
@@ -37170,7 +35576,7 @@
       <c r="L149" s="70"/>
       <c r="N149" s="70"/>
     </row>
-    <row r="150" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" s="78" customFormat="1">
       <c r="A150" s="78">
         <v>1884</v>
       </c>
@@ -37199,7 +35605,7 @@
       <c r="L150" s="70"/>
       <c r="N150" s="70"/>
     </row>
-    <row r="151" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" s="78" customFormat="1">
       <c r="A151" s="78">
         <v>1885</v>
       </c>
@@ -37228,7 +35634,7 @@
       <c r="L151" s="70"/>
       <c r="N151" s="70"/>
     </row>
-    <row r="152" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" s="78" customFormat="1">
       <c r="A152" s="78">
         <v>1886</v>
       </c>
@@ -37257,7 +35663,7 @@
       <c r="L152" s="70"/>
       <c r="N152" s="70"/>
     </row>
-    <row r="153" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" s="78" customFormat="1">
       <c r="A153" s="78">
         <v>1887</v>
       </c>
@@ -37286,7 +35692,7 @@
       <c r="L153" s="70"/>
       <c r="N153" s="70"/>
     </row>
-    <row r="154" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" s="78" customFormat="1">
       <c r="A154" s="78">
         <v>1888</v>
       </c>
@@ -37315,7 +35721,7 @@
       <c r="L154" s="70"/>
       <c r="N154" s="70"/>
     </row>
-    <row r="155" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" s="78" customFormat="1">
       <c r="A155" s="78">
         <v>1889</v>
       </c>
@@ -37344,7 +35750,7 @@
       <c r="L155" s="70"/>
       <c r="N155" s="70"/>
     </row>
-    <row r="156" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" s="78" customFormat="1">
       <c r="A156" s="78">
         <v>1890</v>
       </c>
@@ -37373,7 +35779,7 @@
       <c r="L156" s="70"/>
       <c r="N156" s="70"/>
     </row>
-    <row r="157" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" s="78" customFormat="1">
       <c r="A157" s="78">
         <v>1891</v>
       </c>
@@ -37402,7 +35808,7 @@
       <c r="L157" s="70"/>
       <c r="N157" s="70"/>
     </row>
-    <row r="158" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" s="78" customFormat="1">
       <c r="A158" s="78">
         <v>1892</v>
       </c>
@@ -37431,7 +35837,7 @@
       <c r="L158" s="70"/>
       <c r="N158" s="70"/>
     </row>
-    <row r="159" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" s="78" customFormat="1">
       <c r="A159" s="78">
         <v>1893</v>
       </c>
@@ -37460,7 +35866,7 @@
       <c r="L159" s="70"/>
       <c r="N159" s="70"/>
     </row>
-    <row r="160" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" s="78" customFormat="1">
       <c r="A160" s="78">
         <v>1894</v>
       </c>
@@ -37489,7 +35895,7 @@
       <c r="L160" s="70"/>
       <c r="N160" s="70"/>
     </row>
-    <row r="161" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" s="78" customFormat="1">
       <c r="A161" s="78">
         <v>1895</v>
       </c>
@@ -37518,7 +35924,7 @@
       <c r="L161" s="70"/>
       <c r="N161" s="70"/>
     </row>
-    <row r="162" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" s="78" customFormat="1">
       <c r="A162" s="78">
         <v>1896</v>
       </c>
@@ -37547,7 +35953,7 @@
       <c r="L162" s="70"/>
       <c r="N162" s="70"/>
     </row>
-    <row r="163" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" s="78" customFormat="1">
       <c r="A163" s="78">
         <v>1897</v>
       </c>
@@ -37576,7 +35982,7 @@
       <c r="L163" s="70"/>
       <c r="N163" s="70"/>
     </row>
-    <row r="164" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" s="78" customFormat="1">
       <c r="A164" s="78">
         <v>1898</v>
       </c>
@@ -37605,7 +36011,7 @@
       <c r="L164" s="70"/>
       <c r="N164" s="70"/>
     </row>
-    <row r="165" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" s="78" customFormat="1">
       <c r="A165" s="78">
         <v>1899</v>
       </c>
@@ -37634,7 +36040,7 @@
       <c r="L165" s="70"/>
       <c r="N165" s="70"/>
     </row>
-    <row r="166" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" s="78" customFormat="1">
       <c r="A166" s="78">
         <v>1900</v>
       </c>
@@ -37663,7 +36069,7 @@
       <c r="L166" s="70"/>
       <c r="N166" s="70"/>
     </row>
-    <row r="167" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" s="78" customFormat="1">
       <c r="A167" s="78">
         <v>1901</v>
       </c>
@@ -37692,7 +36098,7 @@
       <c r="L167" s="70"/>
       <c r="N167" s="70"/>
     </row>
-    <row r="168" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" s="78" customFormat="1">
       <c r="A168" s="78">
         <v>1902</v>
       </c>
@@ -37721,7 +36127,7 @@
       <c r="L168" s="70"/>
       <c r="N168" s="70"/>
     </row>
-    <row r="169" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" s="78" customFormat="1">
       <c r="A169" s="78">
         <v>1903</v>
       </c>
@@ -37750,7 +36156,7 @@
       <c r="L169" s="70"/>
       <c r="N169" s="70"/>
     </row>
-    <row r="170" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" s="78" customFormat="1">
       <c r="A170" s="78">
         <v>1904</v>
       </c>
@@ -37779,7 +36185,7 @@
       <c r="L170" s="70"/>
       <c r="N170" s="70"/>
     </row>
-    <row r="171" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" s="78" customFormat="1">
       <c r="A171" s="78">
         <v>1905</v>
       </c>
@@ -37808,7 +36214,7 @@
       <c r="L171" s="70"/>
       <c r="N171" s="70"/>
     </row>
-    <row r="172" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" s="78" customFormat="1">
       <c r="A172" s="78">
         <v>1906</v>
       </c>
@@ -37837,7 +36243,7 @@
       <c r="L172" s="70"/>
       <c r="N172" s="70"/>
     </row>
-    <row r="173" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" s="78" customFormat="1">
       <c r="A173" s="78">
         <v>1907</v>
       </c>
@@ -37866,7 +36272,7 @@
       <c r="L173" s="70"/>
       <c r="N173" s="70"/>
     </row>
-    <row r="174" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" s="78" customFormat="1">
       <c r="A174" s="78">
         <v>1908</v>
       </c>
@@ -37895,7 +36301,7 @@
       <c r="L174" s="70"/>
       <c r="N174" s="70"/>
     </row>
-    <row r="175" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" s="78" customFormat="1">
       <c r="A175" s="78">
         <v>1909</v>
       </c>
@@ -37924,7 +36330,7 @@
       <c r="L175" s="70"/>
       <c r="N175" s="70"/>
     </row>
-    <row r="176" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" s="78" customFormat="1">
       <c r="A176" s="78">
         <v>1910</v>
       </c>
@@ -37953,7 +36359,7 @@
       <c r="L176" s="70"/>
       <c r="N176" s="70"/>
     </row>
-    <row r="177" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" s="78" customFormat="1">
       <c r="A177" s="78">
         <v>1911</v>
       </c>
@@ -37982,7 +36388,7 @@
       <c r="L177" s="70"/>
       <c r="N177" s="70"/>
     </row>
-    <row r="178" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" s="78" customFormat="1">
       <c r="A178" s="78">
         <v>1912</v>
       </c>
@@ -38011,7 +36417,7 @@
       <c r="L178" s="70"/>
       <c r="N178" s="70"/>
     </row>
-    <row r="179" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" s="78" customFormat="1">
       <c r="A179" s="78">
         <v>1913</v>
       </c>
@@ -38040,7 +36446,7 @@
       <c r="L179" s="70"/>
       <c r="N179" s="70"/>
     </row>
-    <row r="180" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" s="78" customFormat="1">
       <c r="A180" s="78">
         <v>1914</v>
       </c>
@@ -38069,7 +36475,7 @@
       <c r="L180" s="70"/>
       <c r="N180" s="70"/>
     </row>
-    <row r="181" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" s="78" customFormat="1">
       <c r="A181" s="78">
         <v>1915</v>
       </c>
@@ -38098,7 +36504,7 @@
       <c r="L181" s="70"/>
       <c r="N181" s="70"/>
     </row>
-    <row r="182" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" s="78" customFormat="1">
       <c r="A182" s="78">
         <v>1916</v>
       </c>
@@ -38127,7 +36533,7 @@
       <c r="L182" s="70"/>
       <c r="N182" s="70"/>
     </row>
-    <row r="183" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" s="78" customFormat="1">
       <c r="A183" s="78">
         <v>1917</v>
       </c>
@@ -38156,7 +36562,7 @@
       <c r="L183" s="70"/>
       <c r="N183" s="70"/>
     </row>
-    <row r="184" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" s="78" customFormat="1">
       <c r="A184" s="78">
         <v>1918</v>
       </c>
@@ -38185,7 +36591,7 @@
       <c r="L184" s="70"/>
       <c r="N184" s="70"/>
     </row>
-    <row r="185" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" s="78" customFormat="1">
       <c r="A185" s="78">
         <v>1919</v>
       </c>
@@ -38214,7 +36620,7 @@
       <c r="L185" s="70"/>
       <c r="N185" s="70"/>
     </row>
-    <row r="186" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" s="78" customFormat="1">
       <c r="A186" s="78">
         <v>1920</v>
       </c>
@@ -38243,7 +36649,7 @@
       <c r="L186" s="70"/>
       <c r="N186" s="70"/>
     </row>
-    <row r="187" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" s="78" customFormat="1">
       <c r="A187" s="78">
         <v>1921</v>
       </c>
@@ -38272,7 +36678,7 @@
       <c r="L187" s="70"/>
       <c r="N187" s="70"/>
     </row>
-    <row r="188" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" s="78" customFormat="1">
       <c r="A188" s="78">
         <v>1922</v>
       </c>
@@ -38301,7 +36707,7 @@
       <c r="L188" s="70"/>
       <c r="N188" s="70"/>
     </row>
-    <row r="189" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" s="78" customFormat="1">
       <c r="A189" s="78">
         <v>1923</v>
       </c>
@@ -38330,7 +36736,7 @@
       <c r="L189" s="70"/>
       <c r="N189" s="70"/>
     </row>
-    <row r="190" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" s="78" customFormat="1">
       <c r="A190" s="78">
         <v>1924</v>
       </c>
@@ -38359,7 +36765,7 @@
       <c r="L190" s="70"/>
       <c r="N190" s="70"/>
     </row>
-    <row r="191" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" s="78" customFormat="1">
       <c r="A191" s="78">
         <v>1925</v>
       </c>
@@ -38388,7 +36794,7 @@
       <c r="L191" s="70"/>
       <c r="N191" s="70"/>
     </row>
-    <row r="192" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" s="78" customFormat="1">
       <c r="A192" s="78">
         <v>1926</v>
       </c>
@@ -38417,7 +36823,7 @@
       <c r="L192" s="70"/>
       <c r="N192" s="70"/>
     </row>
-    <row r="193" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" s="78" customFormat="1">
       <c r="A193" s="78">
         <v>1927</v>
       </c>
@@ -38446,7 +36852,7 @@
       <c r="L193" s="70"/>
       <c r="N193" s="70"/>
     </row>
-    <row r="194" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" s="78" customFormat="1">
       <c r="A194" s="78">
         <v>1928</v>
       </c>
@@ -38475,7 +36881,7 @@
       <c r="L194" s="70"/>
       <c r="N194" s="70"/>
     </row>
-    <row r="195" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" s="78" customFormat="1">
       <c r="A195" s="78">
         <v>1929</v>
       </c>
@@ -38504,7 +36910,7 @@
       <c r="L195" s="70"/>
       <c r="N195" s="70"/>
     </row>
-    <row r="196" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" s="78" customFormat="1">
       <c r="A196" s="78">
         <v>1930</v>
       </c>
@@ -38533,7 +36939,7 @@
       <c r="L196" s="70"/>
       <c r="N196" s="70"/>
     </row>
-    <row r="197" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" s="78" customFormat="1">
       <c r="A197" s="78">
         <v>1931</v>
       </c>
@@ -38562,7 +36968,7 @@
       <c r="L197" s="70"/>
       <c r="N197" s="70"/>
     </row>
-    <row r="198" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" s="78" customFormat="1">
       <c r="A198" s="78">
         <v>1932</v>
       </c>
@@ -38591,7 +36997,7 @@
       <c r="L198" s="70"/>
       <c r="N198" s="70"/>
     </row>
-    <row r="199" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" s="78" customFormat="1">
       <c r="A199" s="78">
         <v>1933</v>
       </c>
@@ -38620,7 +37026,7 @@
       <c r="L199" s="70"/>
       <c r="N199" s="70"/>
     </row>
-    <row r="200" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" s="78" customFormat="1">
       <c r="A200" s="78">
         <v>1934</v>
       </c>
@@ -38649,7 +37055,7 @@
       <c r="L200" s="70"/>
       <c r="N200" s="70"/>
     </row>
-    <row r="201" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" s="78" customFormat="1">
       <c r="A201" s="78">
         <v>1935</v>
       </c>
@@ -38678,7 +37084,7 @@
       <c r="L201" s="70"/>
       <c r="N201" s="70"/>
     </row>
-    <row r="202" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:14" s="78" customFormat="1">
       <c r="A202" s="78">
         <v>1936</v>
       </c>
@@ -38707,7 +37113,7 @@
       <c r="L202" s="70"/>
       <c r="N202" s="70"/>
     </row>
-    <row r="203" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:14" s="78" customFormat="1">
       <c r="A203" s="78">
         <v>1937</v>
       </c>
@@ -38736,7 +37142,7 @@
       <c r="L203" s="70"/>
       <c r="N203" s="70"/>
     </row>
-    <row r="204" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:14" s="78" customFormat="1">
       <c r="A204" s="78">
         <v>1938</v>
       </c>
@@ -38765,7 +37171,7 @@
       <c r="L204" s="70"/>
       <c r="N204" s="70"/>
     </row>
-    <row r="205" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:14" s="78" customFormat="1">
       <c r="A205" s="78">
         <v>1939</v>
       </c>
@@ -38794,7 +37200,7 @@
       <c r="L205" s="70"/>
       <c r="N205" s="70"/>
     </row>
-    <row r="206" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:14" s="78" customFormat="1">
       <c r="A206" s="78">
         <v>1940</v>
       </c>
@@ -38823,7 +37229,7 @@
       <c r="L206" s="70"/>
       <c r="N206" s="70"/>
     </row>
-    <row r="207" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:14" s="78" customFormat="1">
       <c r="A207" s="78">
         <v>1941</v>
       </c>
@@ -38852,7 +37258,7 @@
       <c r="L207" s="70"/>
       <c r="N207" s="70"/>
     </row>
-    <row r="208" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:14" s="78" customFormat="1">
       <c r="A208" s="78">
         <v>1942</v>
       </c>
@@ -38881,7 +37287,7 @@
       <c r="L208" s="70"/>
       <c r="N208" s="70"/>
     </row>
-    <row r="209" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:14" s="78" customFormat="1">
       <c r="A209" s="78">
         <v>1943</v>
       </c>
@@ -38910,7 +37316,7 @@
       <c r="L209" s="70"/>
       <c r="N209" s="70"/>
     </row>
-    <row r="210" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:14" s="78" customFormat="1">
       <c r="A210" s="78">
         <v>1944</v>
       </c>
@@ -38939,7 +37345,7 @@
       <c r="L210" s="70"/>
       <c r="N210" s="70"/>
     </row>
-    <row r="211" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:14" s="78" customFormat="1">
       <c r="A211" s="78">
         <v>1945</v>
       </c>
@@ -38968,7 +37374,7 @@
       <c r="L211" s="70"/>
       <c r="N211" s="70"/>
     </row>
-    <row r="212" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:14" s="78" customFormat="1">
       <c r="A212" s="78">
         <v>1946</v>
       </c>
@@ -38997,7 +37403,7 @@
       <c r="L212" s="70"/>
       <c r="N212" s="70"/>
     </row>
-    <row r="213" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:14" s="78" customFormat="1">
       <c r="A213" s="78">
         <v>1947</v>
       </c>
@@ -39026,7 +37432,7 @@
       <c r="L213" s="70"/>
       <c r="N213" s="70"/>
     </row>
-    <row r="214" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:14" s="78" customFormat="1">
       <c r="A214" s="78">
         <v>1948</v>
       </c>
@@ -39055,7 +37461,7 @@
       <c r="L214" s="70"/>
       <c r="N214" s="70"/>
     </row>
-    <row r="215" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:14" s="78" customFormat="1">
       <c r="A215" s="78">
         <v>1949</v>
       </c>
@@ -39084,7 +37490,7 @@
       <c r="L215" s="70"/>
       <c r="N215" s="70"/>
     </row>
-    <row r="216" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:14" s="78" customFormat="1">
       <c r="A216" s="78">
         <v>1950</v>
       </c>
@@ -39113,7 +37519,7 @@
       <c r="L216" s="70"/>
       <c r="N216" s="70"/>
     </row>
-    <row r="217" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:14" s="78" customFormat="1">
       <c r="A217" s="78">
         <v>1951</v>
       </c>
@@ -39142,7 +37548,7 @@
       <c r="L217" s="70"/>
       <c r="N217" s="70"/>
     </row>
-    <row r="218" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:14" s="78" customFormat="1">
       <c r="A218" s="78">
         <v>1952</v>
       </c>
@@ -39171,7 +37577,7 @@
       <c r="L218" s="70"/>
       <c r="N218" s="70"/>
     </row>
-    <row r="219" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:14" s="78" customFormat="1">
       <c r="A219" s="78">
         <v>1953</v>
       </c>
@@ -39200,7 +37606,7 @@
       <c r="L219" s="70"/>
       <c r="N219" s="70"/>
     </row>
-    <row r="220" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:14" s="78" customFormat="1">
       <c r="A220" s="78">
         <v>1954</v>
       </c>
@@ -39229,7 +37635,7 @@
       <c r="L220" s="70"/>
       <c r="N220" s="70"/>
     </row>
-    <row r="221" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:14" s="78" customFormat="1">
       <c r="A221" s="78">
         <v>1955</v>
       </c>
@@ -39258,7 +37664,7 @@
       <c r="L221" s="70"/>
       <c r="N221" s="70"/>
     </row>
-    <row r="222" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:14" s="78" customFormat="1">
       <c r="A222" s="78">
         <v>1956</v>
       </c>
@@ -39287,7 +37693,7 @@
       <c r="L222" s="70"/>
       <c r="N222" s="70"/>
     </row>
-    <row r="223" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:14" s="78" customFormat="1">
       <c r="A223" s="78">
         <v>1957</v>
       </c>
@@ -39316,7 +37722,7 @@
       <c r="L223" s="70"/>
       <c r="N223" s="70"/>
     </row>
-    <row r="224" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:14" s="78" customFormat="1">
       <c r="A224" s="78">
         <v>1958</v>
       </c>
@@ -39345,7 +37751,7 @@
       <c r="L224" s="70"/>
       <c r="N224" s="70"/>
     </row>
-    <row r="225" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:14" s="78" customFormat="1">
       <c r="A225" s="78">
         <v>1959</v>
       </c>
@@ -39374,7 +37780,7 @@
       <c r="L225" s="70"/>
       <c r="N225" s="70"/>
     </row>
-    <row r="226" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:14" s="78" customFormat="1">
       <c r="A226" s="78">
         <v>1960</v>
       </c>
@@ -39403,7 +37809,7 @@
       <c r="L226" s="70"/>
       <c r="N226" s="70"/>
     </row>
-    <row r="227" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:14" s="78" customFormat="1">
       <c r="A227" s="78">
         <v>1961</v>
       </c>
@@ -39432,7 +37838,7 @@
       <c r="L227" s="70"/>
       <c r="N227" s="70"/>
     </row>
-    <row r="228" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:14" s="78" customFormat="1">
       <c r="A228" s="78">
         <v>1962</v>
       </c>
@@ -39461,7 +37867,7 @@
       <c r="L228" s="70"/>
       <c r="N228" s="70"/>
     </row>
-    <row r="229" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:14" s="78" customFormat="1">
       <c r="A229" s="78">
         <v>1963</v>
       </c>
@@ -39490,7 +37896,7 @@
       <c r="L229" s="70"/>
       <c r="N229" s="70"/>
     </row>
-    <row r="230" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:14" s="78" customFormat="1">
       <c r="A230" s="78">
         <v>1964</v>
       </c>
@@ -39519,7 +37925,7 @@
       <c r="L230" s="70"/>
       <c r="N230" s="70"/>
     </row>
-    <row r="231" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:14" s="78" customFormat="1">
       <c r="A231" s="78">
         <v>1965</v>
       </c>
@@ -39548,7 +37954,7 @@
       <c r="L231" s="70"/>
       <c r="N231" s="70"/>
     </row>
-    <row r="232" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:14" s="78" customFormat="1">
       <c r="A232" s="78">
         <v>1966</v>
       </c>
@@ -39577,7 +37983,7 @@
       <c r="L232" s="70"/>
       <c r="N232" s="70"/>
     </row>
-    <row r="233" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:14" s="78" customFormat="1">
       <c r="A233" s="78">
         <v>1967</v>
       </c>
@@ -39606,7 +38012,7 @@
       <c r="L233" s="70"/>
       <c r="N233" s="70"/>
     </row>
-    <row r="234" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:14" s="78" customFormat="1">
       <c r="A234" s="78">
         <v>1968</v>
       </c>
@@ -39635,7 +38041,7 @@
       <c r="L234" s="70"/>
       <c r="N234" s="70"/>
     </row>
-    <row r="235" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:14" s="78" customFormat="1">
       <c r="A235" s="78">
         <v>1969</v>
       </c>
@@ -39664,7 +38070,7 @@
       <c r="L235" s="70"/>
       <c r="N235" s="70"/>
     </row>
-    <row r="236" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:14" s="78" customFormat="1">
       <c r="A236" s="78">
         <v>1970</v>
       </c>
@@ -39693,7 +38099,7 @@
       <c r="L236" s="70"/>
       <c r="N236" s="70"/>
     </row>
-    <row r="237" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:14" s="78" customFormat="1">
       <c r="A237" s="78">
         <v>1971</v>
       </c>
@@ -39722,7 +38128,7 @@
       <c r="L237" s="70"/>
       <c r="N237" s="70"/>
     </row>
-    <row r="238" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:14" s="78" customFormat="1">
       <c r="A238" s="78">
         <v>1972</v>
       </c>
@@ -39751,7 +38157,7 @@
       <c r="L238" s="70"/>
       <c r="N238" s="70"/>
     </row>
-    <row r="239" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:14" s="78" customFormat="1">
       <c r="A239" s="78">
         <v>1973</v>
       </c>
@@ -39780,7 +38186,7 @@
       <c r="L239" s="70"/>
       <c r="N239" s="70"/>
     </row>
-    <row r="240" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:14" s="78" customFormat="1">
       <c r="A240" s="78">
         <v>1974</v>
       </c>
@@ -39809,7 +38215,7 @@
       <c r="L240" s="70"/>
       <c r="N240" s="70"/>
     </row>
-    <row r="241" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:14" s="78" customFormat="1">
       <c r="A241" s="78">
         <v>1975</v>
       </c>
@@ -39838,7 +38244,7 @@
       <c r="L241" s="70"/>
       <c r="N241" s="70"/>
     </row>
-    <row r="242" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:14" s="78" customFormat="1">
       <c r="A242" s="78">
         <v>1976</v>
       </c>
@@ -39867,7 +38273,7 @@
       <c r="L242" s="70"/>
       <c r="N242" s="70"/>
     </row>
-    <row r="243" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:14" s="78" customFormat="1">
       <c r="A243" s="78">
         <v>1977</v>
       </c>
@@ -39896,7 +38302,7 @@
       <c r="L243" s="70"/>
       <c r="N243" s="70"/>
     </row>
-    <row r="244" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:14" s="78" customFormat="1">
       <c r="A244" s="78">
         <v>1978</v>
       </c>
@@ -39925,7 +38331,7 @@
       <c r="L244" s="70"/>
       <c r="N244" s="70"/>
     </row>
-    <row r="245" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:14" s="78" customFormat="1">
       <c r="A245" s="78">
         <v>1979</v>
       </c>
@@ -39954,7 +38360,7 @@
       <c r="L245" s="70"/>
       <c r="N245" s="70"/>
     </row>
-    <row r="246" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:14" s="78" customFormat="1">
       <c r="A246" s="78">
         <v>1980</v>
       </c>
@@ -39983,7 +38389,7 @@
       <c r="L246" s="70"/>
       <c r="N246" s="70"/>
     </row>
-    <row r="247" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:14" s="78" customFormat="1">
       <c r="A247" s="78">
         <v>1981</v>
       </c>
@@ -40012,7 +38418,7 @@
       <c r="L247" s="70"/>
       <c r="N247" s="70"/>
     </row>
-    <row r="248" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:14" s="78" customFormat="1">
       <c r="A248" s="78">
         <v>1982</v>
       </c>
@@ -40041,7 +38447,7 @@
       <c r="L248" s="70"/>
       <c r="N248" s="70"/>
     </row>
-    <row r="249" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:14" s="78" customFormat="1">
       <c r="A249" s="78">
         <v>1983</v>
       </c>
@@ -40070,7 +38476,7 @@
       <c r="L249" s="70"/>
       <c r="N249" s="70"/>
     </row>
-    <row r="250" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:14" s="78" customFormat="1">
       <c r="A250" s="78">
         <v>1984</v>
       </c>
@@ -40099,7 +38505,7 @@
       <c r="L250" s="70"/>
       <c r="N250" s="70"/>
     </row>
-    <row r="251" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:14" s="78" customFormat="1">
       <c r="A251" s="78">
         <v>1985</v>
       </c>
@@ -40128,7 +38534,7 @@
       <c r="L251" s="70"/>
       <c r="N251" s="70"/>
     </row>
-    <row r="252" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:14" s="78" customFormat="1">
       <c r="A252" s="78">
         <v>1986</v>
       </c>
@@ -40157,7 +38563,7 @@
       <c r="L252" s="70"/>
       <c r="N252" s="70"/>
     </row>
-    <row r="253" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:14" s="78" customFormat="1">
       <c r="A253" s="78">
         <v>1987</v>
       </c>
@@ -40186,7 +38592,7 @@
       <c r="L253" s="70"/>
       <c r="N253" s="70"/>
     </row>
-    <row r="254" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:14" s="78" customFormat="1">
       <c r="A254" s="78">
         <v>1988</v>
       </c>
@@ -40215,7 +38621,7 @@
       <c r="L254" s="70"/>
       <c r="N254" s="70"/>
     </row>
-    <row r="255" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:14" s="78" customFormat="1">
       <c r="A255" s="78">
         <v>1989</v>
       </c>
@@ -40244,7 +38650,7 @@
       <c r="L255" s="70"/>
       <c r="N255" s="70"/>
     </row>
-    <row r="256" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:14" s="78" customFormat="1">
       <c r="A256" s="78">
         <v>1990</v>
       </c>
@@ -40273,7 +38679,7 @@
       <c r="L256" s="70"/>
       <c r="N256" s="70"/>
     </row>
-    <row r="257" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:14" s="78" customFormat="1">
       <c r="A257" s="78">
         <v>1991</v>
       </c>
@@ -40302,7 +38708,7 @@
       <c r="L257" s="70"/>
       <c r="N257" s="70"/>
     </row>
-    <row r="258" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:14" s="78" customFormat="1">
       <c r="A258" s="78">
         <v>1992</v>
       </c>
@@ -40331,7 +38737,7 @@
       <c r="L258" s="70"/>
       <c r="N258" s="70"/>
     </row>
-    <row r="259" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:14" s="78" customFormat="1">
       <c r="A259" s="78">
         <v>1993</v>
       </c>
@@ -40360,7 +38766,7 @@
       <c r="L259" s="70"/>
       <c r="N259" s="70"/>
     </row>
-    <row r="260" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:14" s="78" customFormat="1">
       <c r="A260" s="78">
         <v>1994</v>
       </c>
@@ -40389,7 +38795,7 @@
       <c r="L260" s="70"/>
       <c r="N260" s="70"/>
     </row>
-    <row r="261" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:14" s="78" customFormat="1">
       <c r="A261" s="78">
         <v>1995</v>
       </c>
@@ -40418,7 +38824,7 @@
       <c r="L261" s="70"/>
       <c r="N261" s="70"/>
     </row>
-    <row r="262" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:14" s="78" customFormat="1">
       <c r="A262" s="78">
         <v>1996</v>
       </c>
@@ -40447,7 +38853,7 @@
       <c r="L262" s="70"/>
       <c r="N262" s="70"/>
     </row>
-    <row r="263" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:14" s="78" customFormat="1">
       <c r="A263" s="78">
         <v>1997</v>
       </c>
@@ -40476,7 +38882,7 @@
       <c r="L263" s="70"/>
       <c r="N263" s="70"/>
     </row>
-    <row r="264" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:14" s="78" customFormat="1">
       <c r="A264" s="78">
         <v>1998</v>
       </c>
@@ -40505,7 +38911,7 @@
       <c r="L264" s="70"/>
       <c r="N264" s="70"/>
     </row>
-    <row r="265" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:14" s="78" customFormat="1">
       <c r="A265" s="78">
         <v>1999</v>
       </c>
@@ -40534,7 +38940,7 @@
       <c r="L265" s="70"/>
       <c r="N265" s="70"/>
     </row>
-    <row r="266" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:14" s="78" customFormat="1">
       <c r="A266" s="78">
         <v>2000</v>
       </c>
@@ -40563,7 +38969,7 @@
       <c r="L266" s="70"/>
       <c r="N266" s="70"/>
     </row>
-    <row r="267" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:14" s="78" customFormat="1">
       <c r="A267" s="78">
         <v>2001</v>
       </c>
@@ -40592,7 +38998,7 @@
       <c r="L267" s="70"/>
       <c r="N267" s="70"/>
     </row>
-    <row r="268" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:14" s="78" customFormat="1">
       <c r="A268" s="78">
         <v>2002</v>
       </c>
@@ -40621,7 +39027,7 @@
       <c r="L268" s="70"/>
       <c r="N268" s="70"/>
     </row>
-    <row r="269" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:14" s="78" customFormat="1">
       <c r="A269" s="78">
         <v>2003</v>
       </c>
@@ -40650,7 +39056,7 @@
       <c r="L269" s="70"/>
       <c r="N269" s="70"/>
     </row>
-    <row r="270" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:14" s="78" customFormat="1">
       <c r="A270" s="78">
         <v>2004</v>
       </c>
@@ -40679,7 +39085,7 @@
       <c r="L270" s="70"/>
       <c r="N270" s="70"/>
     </row>
-    <row r="271" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:14" s="78" customFormat="1">
       <c r="A271" s="78">
         <v>2005</v>
       </c>
@@ -40703,7 +39109,7 @@
       <c r="L271" s="70"/>
       <c r="N271" s="70"/>
     </row>
-    <row r="272" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:14" s="78" customFormat="1">
       <c r="A272" s="78">
         <v>2006</v>
       </c>
@@ -40727,7 +39133,7 @@
       <c r="L272" s="70"/>
       <c r="N272" s="70"/>
     </row>
-    <row r="273" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:14" s="78" customFormat="1">
       <c r="A273" s="78">
         <v>2007</v>
       </c>
@@ -40751,7 +39157,7 @@
       <c r="L273" s="70"/>
       <c r="N273" s="70"/>
     </row>
-    <row r="274" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:14" s="78" customFormat="1">
       <c r="A274" s="78">
         <v>2008</v>
       </c>
@@ -40775,7 +39181,7 @@
       <c r="L274" s="70"/>
       <c r="N274" s="70"/>
     </row>
-    <row r="275" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:14" s="78" customFormat="1">
       <c r="A275" s="78">
         <v>2009</v>
       </c>
@@ -40799,7 +39205,7 @@
       <c r="L275" s="70"/>
       <c r="N275" s="70"/>
     </row>
-    <row r="276" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:14" s="78" customFormat="1">
       <c r="A276" s="78">
         <v>2010</v>
       </c>
@@ -40823,7 +39229,7 @@
       <c r="L276" s="70"/>
       <c r="N276" s="70"/>
     </row>
-    <row r="277" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:14" s="78" customFormat="1">
       <c r="A277" s="78">
         <v>2011</v>
       </c>
@@ -40843,7 +39249,7 @@
       <c r="I277" s="70"/>
       <c r="K277" s="82"/>
     </row>
-    <row r="278" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:14" s="78" customFormat="1">
       <c r="A278" s="78">
         <v>2012</v>
       </c>
@@ -40863,7 +39269,7 @@
       <c r="I278" s="70"/>
       <c r="K278" s="82"/>
     </row>
-    <row r="279" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:14" s="78" customFormat="1">
       <c r="A279" s="78">
         <v>2013</v>
       </c>
@@ -40883,7 +39289,7 @@
       <c r="I279" s="70"/>
       <c r="K279" s="82"/>
     </row>
-    <row r="280" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:14" s="78" customFormat="1">
       <c r="A280" s="78">
         <v>2014</v>
       </c>
@@ -40903,7 +39309,7 @@
       <c r="I280" s="70"/>
       <c r="K280" s="82"/>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:14">
       <c r="A281" s="78">
         <v>2015</v>
       </c>
@@ -40921,7 +39327,7 @@
       <c r="I281" s="74"/>
       <c r="K281" s="150"/>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:14">
       <c r="A282" s="78">
         <v>2016</v>
       </c>
@@ -40939,20 +39345,20 @@
       <c r="I282" s="74"/>
       <c r="K282" s="150"/>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:14">
       <c r="F283" s="82"/>
       <c r="G283" s="82"/>
       <c r="H283"/>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:14">
       <c r="H284"/>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:14">
       <c r="H285"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="The atmospheric CO2 growth rate (variable uncertainty averaging 0.18 PgC/yr during 1980-2011) is estimated directly from atmospheric CO2 concentration measurements, and provided by the US National Oceanic and Atmospheric Administration Earth System Resear" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId1" display="The atmospheric CO2 growth rate (variable uncertainty averaging 0.18 PgC/yr during 1980-2011) is estimated directly from atmospheric CO2 concentration measurements, and provided by the US National Oceanic and Atmospheric Administration Earth System Resear"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
